--- a/data/sym_deleted.xlsx
+++ b/data/sym_deleted.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M466"/>
+  <dimension ref="A1:M468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,12 +504,12 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CA3911731014</t>
+          <t>CA12570Q1072</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GREAT PLAINS MET. O.N.</t>
+          <t>CIE FIN.RICHE.CDR O.N.</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -538,19 +538,15 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>KWE.V</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CA5015068029</t>
+          <t>CA64913V6089</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>KWESST MICRO SYS.INC.</t>
+          <t>NEW WAVE HLDGS CORP. O.N.</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -567,7 +563,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -582,12 +578,12 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CA5589221004</t>
+          <t>CA6699861010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MAGMA SILVER CORP.</t>
+          <t>NOVERTIS AG CDR O.N.</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -616,15 +612,19 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NBPE.L</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CA74449Q2053</t>
+          <t>GG00B1ZBD492</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PSYENCE GROUP INC. NEW</t>
+          <t>NB PRIVATE EQUITY PART.A</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
@@ -655,17 +655,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SRAN.CN</t>
+          <t>CHN</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CA85238C1086</t>
+          <t>US1693731077</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SRANAN GOLD CORP.</t>
+          <t>CHINA FD INC.      DL-,01</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -697,12 +697,12 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FI4000587340</t>
+          <t>ES0105513008</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GLASTON OYJ</t>
+          <t>SOLTEC POWER HOLD. EO-,25</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -734,12 +734,12 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>US36170Y1038</t>
+          <t>PLINNGN00015</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>GFT TECHS UNSP.ADR/ 1/5</t>
+          <t>INNO-GENE SA      ZY -,10</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -771,12 +771,12 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>US48129U1088</t>
+          <t>CA9534001081</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>J+T GL.EX.LTD UNS.ADR/10</t>
+          <t>WEST ISLAND BRANDS INC.</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -808,12 +808,12 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>US6067991041</t>
+          <t>BG1100086070</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MITSUBISHI MAT.UNSP.ADS/1</t>
+          <t>SOPHARMA TRADING     BW 1</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -845,12 +845,12 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>US6549391075</t>
+          <t>AU000000AKP0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NISSIN FOODS ADR / 1/2</t>
+          <t>AUDIO PIXELS HOLDINGS LTD</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -882,12 +882,12 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>US7866231084</t>
+          <t>AU000000AML5</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SAGAX AB  UNSP.ADR/1</t>
+          <t>AEON METALS LTD.</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -916,19 +916,15 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>MCRB</t>
-        </is>
-      </c>
+      <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>US81750R2013</t>
+          <t>CA02137W2004</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SERES THERA.NEW  DL -,001</t>
+          <t>ALTAIR RES INC.</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -945,7 +941,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
@@ -957,19 +953,15 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>NBPE.L</t>
-        </is>
-      </c>
+      <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GG00B1ZBD492</t>
+          <t>AU000000GCR0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NB PRIVATE EQUITY PART.A</t>
+          <t>GOLDEN CROSS RES</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -986,7 +978,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
@@ -998,19 +990,15 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>CHN</t>
-        </is>
-      </c>
+      <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
-          <t>US1693731077</t>
+          <t>BE0974281132</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CHINA FD INC.      DL-,01</t>
+          <t>BIOCARTIS GR. 144A/REG S</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1027,7 +1015,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
@@ -1042,12 +1030,12 @@
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ES0105513008</t>
+          <t>CA12595N1050</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SOLTEC POWER HOLD. EO-,25</t>
+          <t>CO2 GRO INC.</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -1076,19 +1064,15 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>EOT.L</t>
-        </is>
-      </c>
+      <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GB0000197722</t>
+          <t>CA45580J1012</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>EURO.OPPOTU.TRUST  LS-01</t>
+          <t>INDIVA LTD</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1105,7 +1089,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
@@ -1120,12 +1104,12 @@
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PLCRBON00018</t>
+          <t>CA84921K1057</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ARENA.PL S.A.     ZY -,50</t>
+          <t>SPOT COFFEE (CANADA) LTD</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1157,12 +1141,12 @@
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PLINNGN00015</t>
+          <t>CA6315202029</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>INNO-GENE SA      ZY -,10</t>
+          <t>NASS VALLEY GATEWAY NEW</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1194,12 +1178,12 @@
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CA9534001081</t>
+          <t>CA89186Q1019</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>WEST ISLAND BRANDS INC.</t>
+          <t>TOWER ONE WIRELESS NEW</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1231,12 +1215,12 @@
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BG1100086070</t>
+          <t>DE0006492903</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SOPHARMA TRADING     BW 1</t>
+          <t>A.I.S. AG</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1268,12 +1252,12 @@
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CA92255G2027</t>
+          <t>GB00BWC4X262</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>VEGANO FOODS INC.</t>
+          <t>CHILL BRANDS GROUP LS-,01</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1305,12 +1289,12 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DE000A40UT88</t>
+          <t>ID1000072309</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DELIVERY HERO SE NA NEUE</t>
+          <t>SOLUSI BANGUN INDO.RP 500</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1339,19 +1323,15 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>BOE</t>
-        </is>
-      </c>
+      <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>US0925011050</t>
+          <t>ID1000101207</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BLACKROCK ENH.GBL DIV.TR.</t>
+          <t>MULTISTRADA ARAH SA.RP140</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1368,7 +1348,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
@@ -1380,15 +1360,19 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>HGT.L</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AU000000AKP0</t>
+          <t>GB00BJ0LT190</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>AUDIO PIXELS HOLDINGS LTD</t>
+          <t>HGCAPITAL TRUST   LS-,025</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1405,7 +1389,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
@@ -1420,12 +1404,12 @@
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AU000000AML5</t>
+          <t>MX01ID000009</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>AEON METALS LTD.</t>
+          <t>IMPULS.D.DES.Y EM.E.AM.L.</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1457,12 +1441,12 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CA02137W2004</t>
+          <t>KYG2119W1069</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ALTAIR RES INC.</t>
+          <t>CHINA EVERGRANDE GROUP</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1491,15 +1475,19 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>KF</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CA03268Y1060</t>
+          <t>US5006342092</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ANALYTIXINSIGHT INC.</t>
+          <t>KOREA FUND INC.    DL-,01</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1516,7 +1504,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
@@ -1531,12 +1519,12 @@
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CA05334L1094</t>
+          <t>CH0451424300</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>AUXICO RESOURCES CANADA</t>
+          <t>IQ INTL AG         SF-,01</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1568,12 +1556,12 @@
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CA0765881028</t>
+          <t>CA45328X3058</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>BEE VECTOR.TECHS INTL</t>
+          <t>INCA ONE GOLD CORP.</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1602,15 +1590,19 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>VEIL.L</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>AU000000GCR0</t>
+          <t>KYG9361H1092</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>GOLDEN CROSS RES</t>
+          <t>VIETNAM ENTERPRISE INV.</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1627,7 +1619,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
@@ -1642,12 +1634,12 @@
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AU000000GTG7</t>
+          <t>CA38116T2065</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>GENETIC TEC.</t>
+          <t>GOLDEN RIDGE RES. LTD</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1679,12 +1671,12 @@
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BE0974281132</t>
+          <t>CA5495464060</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>BIOCARTIS GR. 144A/REG S</t>
+          <t>LUCKY MINERALS</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1713,15 +1705,19 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>AD-UN.TO</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CA12595N1050</t>
+          <t>CAC010971017</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CO2 GRO INC.</t>
+          <t>ALARIS EQ.PRT.INC.TR.REGS</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1738,7 +1734,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
@@ -1753,12 +1749,12 @@
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BMG2117K1045</t>
+          <t>AU000000MRC8</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CHINA OCEANWIDE HLDGS</t>
+          <t>MINERAL COMM</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1790,12 +1786,12 @@
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CA15707X1015</t>
+          <t>CA60855E1097</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CERTIVE SOLUTIONS INC.</t>
+          <t>MOLECULE HOLDINGS</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1827,12 +1823,12 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CA45580J1012</t>
+          <t>CA8525403017</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>INDIVA LTD</t>
+          <t>STAGEZERO LIFE SCIENC.</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1864,12 +1860,12 @@
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CA4591211095</t>
+          <t>IT0005421919</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>INTERNATL BATT. METALS</t>
+          <t>AGATOS S.P.A.</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1901,12 +1897,12 @@
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CA5367361014</t>
+          <t>CA7900141044</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>LITE ACCESS TECHNOLOGIES</t>
+          <t>ST.JAMES GOLD CORP.</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1938,12 +1934,12 @@
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CA84921K1057</t>
+          <t>US16951T1198</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SPOT COFFEE (CANADA) LTD</t>
+          <t>CHINA PAC.IN.GR.GDR/5 YC1</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1975,12 +1971,12 @@
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CA6315202029</t>
+          <t>HU0000180112</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NASS VALLEY GATEWAY NEW</t>
+          <t>CIG PANNONIA LIFE INSURA.</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -2012,12 +2008,12 @@
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CA89186Q1019</t>
+          <t>KYG8588G1001</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>TOWER ONE WIRELESS NEW</t>
+          <t>SUNKWAN P.G.   DL-,000001</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -2049,12 +2045,12 @@
       <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DE0006492903</t>
+          <t>GB00B1250X28</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>A.I.S. AG</t>
+          <t>LANSDOWNE OIL+G. LS-,0001</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -2086,12 +2082,12 @@
       <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DE000A1X3XX4</t>
+          <t>CA15135U3073</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>BRANICKS GROUP AG NA O.N.</t>
+          <t>CENOVUS ENERGY PFD SR.1</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -2123,12 +2119,12 @@
       <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr">
         <is>
-          <t>GB00BWC4X262</t>
+          <t>KYG618221058</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CHILL BRANDS GROUP LS-,01</t>
+          <t>MODERN LAND (CHINA) DL-01</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -2160,12 +2156,12 @@
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FI0009000665</t>
+          <t>JE00BG12QT70</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>METSAE BOARD OYJ B EO1,70</t>
+          <t>BIGDISH PLC</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -2194,15 +2190,19 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr"/>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>GB00BYSRMH16.SG</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>HU0000073507</t>
+          <t>GB00BYSRMH16</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MAGYAR TELEK.T.NA A UF100</t>
+          <t>CC JAP.+GROWTH TR. LS-,01</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -2219,7 +2219,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
@@ -2231,15 +2231,19 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr"/>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>GG00BNDMJP11.SG</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>HU0000083696</t>
+          <t>GG00BNDMJP11</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>GRAPHISOFT PARK SE EO -02</t>
+          <t>RIVER UK MICRO CAP LTD.</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -2256,7 +2260,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
@@ -2271,12 +2275,12 @@
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr">
         <is>
-          <t>HU0000102132</t>
+          <t>SE0015837752</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>APPENINN VAG.H.NY.M.UF100</t>
+          <t>GOOBIT GROUP AB</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -2305,15 +2309,19 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr"/>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>CET</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>HU0000123096</t>
+          <t>US1551231020</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>RICHT.GEDE.VEG.GYAR UF100</t>
+          <t>CENTRAL SEC.         DL 1</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -2330,7 +2338,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
@@ -2345,12 +2353,12 @@
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ID1000072309</t>
+          <t>PLCDA0000018</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SOLUSI BANGUN INDO.RP 500</t>
+          <t>CDA S.A.     ZY -,10</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -2382,12 +2390,12 @@
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ID1000101207</t>
+          <t>PLIPOSA00010</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>MULTISTRADA ARAH SA.RP140</t>
+          <t>ELQ                  ZY 2</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -2419,12 +2427,12 @@
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ID1000107600</t>
+          <t>PLMPAY000017</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>PT WIJAYA KARYA (P.)RP100</t>
+          <t>MPAY S.A.          ZY-,50</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -2456,12 +2464,12 @@
       <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr">
         <is>
-          <t>GG00B4TM3943</t>
+          <t>PLPRIPK00018</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>BUSHVELD MINERALS  LS-,01</t>
+          <t>PRI EKOPARK SA    ZY -,10</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -2492,17 +2500,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>HGT.L</t>
+          <t>SBSI.L</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>GB00BJ0LT190</t>
+          <t>GB00BF781319</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>HGCAPITAL TRUST   LS-,025</t>
+          <t>SCHROD.BSC SOC.IMP.LS-,01</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -2534,12 +2542,12 @@
       <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MX01ID000009</t>
+          <t>US34460G1067</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>IMPULS.D.DES.Y EM.E.AM.L.</t>
+          <t>FONDUL PRO.GDR REGS LN-85</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -2568,15 +2576,19 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr"/>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>GB00BKPG0S09.SG</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>KYG2119W1069</t>
+          <t>GB00BKPG0S09</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CHINA EVERGRANDE GROUP</t>
+          <t>TEMPLETON E.M.I.TR.LS-,05</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -2593,7 +2605,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
@@ -2605,15 +2617,19 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr"/>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>GB00BL6K7L04.SG</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>KYG2751H1020</t>
+          <t>GB00BL6K7L04</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>DEXIN CHINA HLD. DL-,0005</t>
+          <t>HYDROGENONE C.G.  LS -,01</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -2630,7 +2646,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
@@ -2645,12 +2661,12 @@
       <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr">
         <is>
-          <t>US0044342055</t>
+          <t>PLIMRGM00010</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ACER GDR REG.S/5 TA 10</t>
+          <t>IMMERSION G. S.A.  ZY 1,0</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -2682,12 +2698,12 @@
       <c r="A60" t="inlineStr"/>
       <c r="B60" t="inlineStr">
         <is>
-          <t>US29081P3038</t>
+          <t>CA91725D5001</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>EMBOTELL. ANDINA ADR B/6</t>
+          <t>URBANIMMERSIVE INC.</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -2716,19 +2732,15 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>KF</t>
-        </is>
-      </c>
+      <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr">
         <is>
-          <t>US5006342092</t>
+          <t>GB00BNK8T635</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>KOREA FUND INC.    DL-,01</t>
+          <t>NET ZERO INFRASTR. LS-,01</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -2745,7 +2757,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
@@ -2757,19 +2769,15 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>CUBA</t>
-        </is>
-      </c>
+      <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr">
         <is>
-          <t>US42804T1060</t>
+          <t>CA89367L1031</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>HERZFELD CARIBB. BAS. FD</t>
+          <t>TRANSFORMA RES. CORP.</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -2786,7 +2794,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
@@ -2798,15 +2806,19 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr"/>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>HEIT.L</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ZAE000073441</t>
+          <t>GB00BLNNFY18</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>MURRAY ROBERTS     O.N.</t>
+          <t>HARMONY ENERGY INCOME TR.</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -2823,7 +2835,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
@@ -2835,19 +2847,15 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>EMF</t>
-        </is>
-      </c>
+      <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr">
         <is>
-          <t>US8801911012</t>
+          <t>KYG7306U1022</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>TEMPLETON EM.MKT FD DL-01</t>
+          <t>PUJIANG INTERNAT.  DL-,01</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -2864,7 +2872,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
@@ -2876,15 +2884,19 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr"/>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>GB00BLF7PP25.SG</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>AU000000BCT7</t>
+          <t>GB00BLF7PP25</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>BLUECHIIP LTD</t>
+          <t>DOWNING RNW.+INFR.TR.-,01</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -2901,7 +2913,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
@@ -2916,12 +2928,12 @@
       <c r="A66" t="inlineStr"/>
       <c r="B66" t="inlineStr">
         <is>
-          <t>AU000000CLZ3</t>
+          <t>KYG137071075</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CLASSIC MINERALS LTD.</t>
+          <t>BM3EAC CORP.       -,0001</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -2953,12 +2965,12 @@
       <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr">
         <is>
-          <t>CH0451424300</t>
+          <t>CA0127841041</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>IQ INTL AG         SF-,01</t>
+          <t>ALBERT LABS INTL. CORP.</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -2990,12 +3002,12 @@
       <c r="A68" t="inlineStr"/>
       <c r="B68" t="inlineStr">
         <is>
-          <t>CA45328X3058</t>
+          <t>BG1100025052</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>INCA ONE GOLD CORP.</t>
+          <t>ADVANCE TERRAFD REIT BW 1</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -3024,19 +3036,15 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>VEIL.L</t>
-        </is>
-      </c>
+      <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr">
         <is>
-          <t>KYG9361H1092</t>
+          <t>BG1100075065</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>VIETNAM ENTERPRISE INV.</t>
+          <t>MONBAT AD            BW 1</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -3053,7 +3061,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
@@ -3068,12 +3076,12 @@
       <c r="A70" t="inlineStr"/>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CA38116T2065</t>
+          <t>CA3024371088</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>GOLDEN RIDGE RES. LTD</t>
+          <t>FANDIFI TECHNOLOGY CORP.</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -3104,17 +3112,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>KYN</t>
+          <t>BRW</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>US4866061066</t>
+          <t>US78518H2022</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>KAYNE ANDE.MLP/M.I.DL-001</t>
+          <t>SABA CA.INC+OP.NEW DL-,01</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -3143,15 +3151,19 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr"/>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>BGCG.L</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>CA5495464060</t>
+          <t>GB0003656021</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>LUCKY MINERALS</t>
+          <t>BG CHINA GROWTH TR.LS-,25</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -3168,7 +3180,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
@@ -3180,19 +3192,15 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>AD-UN.TO</t>
-        </is>
-      </c>
+      <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr">
         <is>
-          <t>CAC010971017</t>
+          <t>CA8271242072</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>ALARIS EQ.PRT.INC.TR.REGS</t>
+          <t>SILO WELLNESS INC.</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -3209,7 +3217,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
@@ -3224,12 +3232,12 @@
       <c r="A74" t="inlineStr"/>
       <c r="B74" t="inlineStr">
         <is>
-          <t>AU000000MRC8</t>
+          <t>BG1100099065</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>MINERAL COMM</t>
+          <t>BALKAN SEA PROPS REIT BW1</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -3261,12 +3269,12 @@
       <c r="A75" t="inlineStr"/>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CA60855E1097</t>
+          <t>PLGMSBX00010</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>MOLECULE HOLDINGS</t>
+          <t>GAMES BOX S.A.     ZY-,10</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -3298,12 +3306,12 @@
       <c r="A76" t="inlineStr"/>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CA8525403017</t>
+          <t>US36265D2045</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>STAGEZERO LIFE SCIENC.</t>
+          <t>GEM CO. LTD SP.GDR/10 A</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -3335,12 +3343,12 @@
       <c r="A77" t="inlineStr"/>
       <c r="B77" t="inlineStr">
         <is>
-          <t>IT0005421919</t>
+          <t>US65447N1037</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>AGATOS S.P.A.</t>
+          <t>NINGBO SHANSHAN GDR/A</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -3372,12 +3380,12 @@
       <c r="A78" t="inlineStr"/>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CA7900141044</t>
+          <t>AU000000STA5</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>ST.JAMES GOLD CORP.</t>
+          <t>STRANDLINE RESOURCES LTD</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -3409,12 +3417,12 @@
       <c r="A79" t="inlineStr"/>
       <c r="B79" t="inlineStr">
         <is>
-          <t>US16951T1198</t>
+          <t>CA64639M3049</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CHINA PAC.IN.GR.GDR/5 YC1</t>
+          <t>NEW LEAF VENTURES  CL.A</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -3446,12 +3454,12 @@
       <c r="A80" t="inlineStr"/>
       <c r="B80" t="inlineStr">
         <is>
-          <t>HU0000180112</t>
+          <t>US52678P2056</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CIG PANNONIA LIFE INSURA.</t>
+          <t>LEPU MED.T.B. SP.GDR O.N.</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -3483,12 +3491,12 @@
       <c r="A81" t="inlineStr"/>
       <c r="B81" t="inlineStr">
         <is>
-          <t>KYG8588G1001</t>
+          <t>PLEMPCT00017</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>SUNKWAN P.G.   DL-,000001</t>
+          <t>EMPLOCITY SPOLKA A ZY-,10</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -3519,17 +3527,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>APAX.L</t>
+          <t>JPI</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>GG00BWWYMV85</t>
+          <t>US67075A1060</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>APAX GLOBAL ALPHA LTD</t>
+          <t>NUVEEN PREFER.SEC+INC.OPP</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -3558,15 +3566,19 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr"/>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>MID-UN.TO</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>GB00B1250X28</t>
+          <t>CA60446Q1081</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>LANSDOWNE OIL+G. LS-,0001</t>
+          <t>MINT INCOME FUND  UTS</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -3583,7 +3595,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
@@ -3598,12 +3610,12 @@
       <c r="A84" t="inlineStr"/>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CA15135U3073</t>
+          <t>CA72942X1078</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CENOVUS ENERGY PFD SR.1</t>
+          <t>PLURIBUS TECHNOLOGIES</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -3632,19 +3644,15 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>BPCR.L</t>
-        </is>
-      </c>
+      <c r="A85" t="inlineStr"/>
       <c r="B85" t="inlineStr">
         <is>
-          <t>GB00BDGKMY29</t>
+          <t>CA30321D2095</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>BIOPHARMA CREDIT DL -,01</t>
+          <t>FABLED COPPER CORP.</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -3661,7 +3669,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
@@ -3676,12 +3684,12 @@
       <c r="A86" t="inlineStr"/>
       <c r="B86" t="inlineStr">
         <is>
-          <t>KYG618221058</t>
+          <t>PLEKTRM00016</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>MODERN LAND (CHINA) DL-01</t>
+          <t>CARBON GROUP       ZY-,10</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -3713,12 +3721,12 @@
       <c r="A87" t="inlineStr"/>
       <c r="B87" t="inlineStr">
         <is>
-          <t>GB00BKKD0862</t>
+          <t>AU000000XST7</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>RIVERFORT GL.OPP.LS-,0001</t>
+          <t>XSTATE RES LTD</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -3750,12 +3758,12 @@
       <c r="A88" t="inlineStr"/>
       <c r="B88" t="inlineStr">
         <is>
-          <t>JE00BG12QT70</t>
+          <t>CA92561G1028</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>BIGDISH PLC</t>
+          <t>VICE HEALTH AND WELL.INC.</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -3784,19 +3792,15 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>JE00BMDKH437.SG</t>
-        </is>
-      </c>
+      <c r="A89" t="inlineStr"/>
       <c r="B89" t="inlineStr">
         <is>
-          <t>JE00BMDKH437</t>
+          <t>IT0005540676</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>DIGITAL 9 INFRASTRUCTURE</t>
+          <t>ARRAS GROUP S.P.A.</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -3813,7 +3817,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
@@ -3825,19 +3829,15 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>GB00BYSRMH16.SG</t>
-        </is>
-      </c>
+      <c r="A90" t="inlineStr"/>
       <c r="B90" t="inlineStr">
         <is>
-          <t>GB00BYSRMH16</t>
+          <t>ES0105650073</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CC JAP.+GROWTH TR. LS-,01</t>
+          <t>SUBSTRA.ART.INT.B EO-,001</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -3854,7 +3854,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
@@ -3869,12 +3869,12 @@
       <c r="A91" t="inlineStr"/>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DK0061411964</t>
+          <t>CA00036H1001</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CESSATECH A/S     DK -,20</t>
+          <t>AAPKI VENTURES INC.  O.N.</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -3903,15 +3903,19 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr"/>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>IAGPE.AX</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>PLBRTZM00010</t>
+          <t>AU0000253197</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>BORUTA-ZACHEM S.A. ZY-,10</t>
+          <t>INSURANCE AU GROUP LTD.</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -3928,7 +3932,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
@@ -3940,15 +3944,19 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr"/>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>NMCO</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>PLCCTLS00017</t>
+          <t>US6706631032</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>LABOCANNA S.A.     ZY-,10</t>
+          <t>NUVEEN MUN.CRDT FD DL-,01</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -3965,7 +3973,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
@@ -3980,12 +3988,12 @@
       <c r="A94" t="inlineStr"/>
       <c r="B94" t="inlineStr">
         <is>
-          <t>PLFRMGR00015</t>
+          <t>SG1I55882803</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>FARM 51 GROUP S.A.ZY -,10</t>
+          <t>GREAT EASTN HLDGS LOC.</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -4014,19 +4022,15 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>GG00BNDMJP11.SG</t>
-        </is>
-      </c>
+      <c r="A95" t="inlineStr"/>
       <c r="B95" t="inlineStr">
         <is>
-          <t>GG00BNDMJP11</t>
+          <t>CA90109P2044</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>RIVER UK MICRO CAP LTD.</t>
+          <t>TUT FITNESS GRP INC.</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -4043,7 +4047,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
@@ -4058,12 +4062,12 @@
       <c r="A96" t="inlineStr"/>
       <c r="B96" t="inlineStr">
         <is>
-          <t>SE0015837752</t>
+          <t>SE0022240115</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>GOOBIT GROUP AB</t>
+          <t>JONDETECH SENSORS</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -4092,19 +4096,15 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>CET</t>
-        </is>
-      </c>
+      <c r="A97" t="inlineStr"/>
       <c r="B97" t="inlineStr">
         <is>
-          <t>US1551231020</t>
+          <t>US98955Q1013</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>CENTRAL SEC.         DL 1</t>
+          <t>ZHEJIANG HUAYOU COB.GDR/A</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
@@ -4136,12 +4136,12 @@
       <c r="A98" t="inlineStr"/>
       <c r="B98" t="inlineStr">
         <is>
-          <t>CA85857E2033</t>
+          <t>US98490B1061</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>STELMINE CANADA LTD</t>
+          <t>YANGZ.YANG.ELEC.TECH.GDR1</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -4170,15 +4170,19 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr"/>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>STS.L</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>PLAQUA000014</t>
+          <t>GB00B09G3N23</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>AQUA SA             ZY 16</t>
+          <t>SEC. TR. SCOTLD    LS-,01</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -4195,7 +4199,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
@@ -4210,12 +4214,12 @@
       <c r="A100" t="inlineStr"/>
       <c r="B100" t="inlineStr">
         <is>
-          <t>PLCDA0000018</t>
+          <t>US8067332002</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>CDA S.A.     ZY -,10</t>
+          <t>SCHINDLER H. UNSP.ADR/0,5</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -4247,12 +4251,12 @@
       <c r="A101" t="inlineStr"/>
       <c r="B101" t="inlineStr">
         <is>
-          <t>PLIPOSA00010</t>
+          <t>PLGMHTS00015</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ELQ                  ZY 2</t>
+          <t>GAMEHUNTERS S.A.  ZY -,10</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -4281,15 +4285,19 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr"/>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>SRV</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>PLMPAY000017</t>
+          <t>US2316313004</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>MPAY S.A.          ZY-,50</t>
+          <t>CUSHING MLP+INFRASTR.T.R.</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -4306,7 +4314,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
@@ -4321,12 +4329,12 @@
       <c r="A103" t="inlineStr"/>
       <c r="B103" t="inlineStr">
         <is>
-          <t>PLPRIPK00018</t>
+          <t>ES0105848008</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>PRI EKOPARK SA    ZY -,10</t>
+          <t>COX ABG GROUP S.A. O.N.</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -4355,15 +4363,19 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr"/>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>MCN</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>PLBLKPC00014</t>
+          <t>US5574371002</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>BLACK PEARL      ZY-,10</t>
+          <t>MADISON COV.CALL+EQ.S.</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -4380,7 +4392,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
@@ -4392,19 +4404,15 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>SBSI.L</t>
-        </is>
-      </c>
+      <c r="A105" t="inlineStr"/>
       <c r="B105" t="inlineStr">
         <is>
-          <t>GB00BF781319</t>
+          <t>CA40054T3055</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>SCHROD.BSC SOC.IMP.LS-,01</t>
+          <t>G2 ENERGY CORP.</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -4421,7 +4429,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
@@ -4433,15 +4441,19 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr"/>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>NEE-PT</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>PLICI0000010</t>
+          <t>US65339F1194</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>IDH DEVELOPMENT S.A.</t>
+          <t>NEXTERA ENERGY UT 1/11/29</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -4458,7 +4470,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
@@ -4473,12 +4485,12 @@
       <c r="A107" t="inlineStr"/>
       <c r="B107" t="inlineStr">
         <is>
-          <t>CA36468X1069</t>
+          <t>AU0000378903</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>GAMEON ENTERTAINM. TECHS</t>
+          <t>INVERT GRAPHITE</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -4510,12 +4522,12 @@
       <c r="A108" t="inlineStr"/>
       <c r="B108" t="inlineStr">
         <is>
-          <t>SE0014829495</t>
+          <t>CA9439172037</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>STONEBEACH GROUP AB</t>
+          <t>WAVERUNNER CAP INC.</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -4547,12 +4559,12 @@
       <c r="A109" t="inlineStr"/>
       <c r="B109" t="inlineStr">
         <is>
-          <t>BE0974387194</t>
+          <t>DE000A40UTV5</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>THERAVET S.A.</t>
+          <t>DEUTSCHE POST NA O.N.NEUE</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -4581,19 +4593,15 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>GB00BN6JYS78.SG</t>
-        </is>
-      </c>
+      <c r="A110" t="inlineStr"/>
       <c r="B110" t="inlineStr">
         <is>
-          <t>GB00BN6JYS78</t>
+          <t>GB00BYWLRL80</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>AQUILA ENERGY EFF.TR.-,01</t>
+          <t>NEO ENERGY METALS LS,0001</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -4610,7 +4618,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
@@ -4625,12 +4633,12 @@
       <c r="A111" t="inlineStr"/>
       <c r="B111" t="inlineStr">
         <is>
-          <t>US34460G1067</t>
+          <t>SE0020357754</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>FONDUL PRO.GDR REGS LN-85</t>
+          <t>COEGIN PHARMA AB</t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -4659,15 +4667,19 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr"/>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>KIO</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>CA21872J3073</t>
+          <t>US48249T1060</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>CORE ONE LABS INC.</t>
+          <t>KKR INCOME OPP.FD DL-,001</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -4684,7 +4696,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
@@ -4696,19 +4708,15 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>GB00BKPG0S09.SG</t>
-        </is>
-      </c>
+      <c r="A113" t="inlineStr"/>
       <c r="B113" t="inlineStr">
         <is>
-          <t>GB00BKPG0S09</t>
+          <t>SE0019763988</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>TEMPLETON E.M.I.TR.LS-,05</t>
+          <t>EYEON GROUP AB</t>
         </is>
       </c>
       <c r="D113" t="n">
@@ -4725,7 +4733,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
@@ -4737,19 +4745,15 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>GB00BL6K7L04.SG</t>
-        </is>
-      </c>
+      <c r="A114" t="inlineStr"/>
       <c r="B114" t="inlineStr">
         <is>
-          <t>GB00BL6K7L04</t>
+          <t>DE000A40UTS1</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>HYDROGENONE C.G.  LS -,01</t>
+          <t>BECHTLE AG O.N. NEUE</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -4766,7 +4770,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
@@ -4781,12 +4785,12 @@
       <c r="A115" t="inlineStr"/>
       <c r="B115" t="inlineStr">
         <is>
-          <t>PLPNCHP00016</t>
+          <t>DE000A40ZTP6</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>PUNCH PUNK S.A.    ZY-,10</t>
+          <t>SGL CARBON SE O.N. NEUE</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -4815,15 +4819,19 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr"/>
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>BTX</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>CA84921X1078</t>
+          <t>US09260Q1085</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>SPOTLITE360 IOT SOLUTIONS</t>
+          <t>BR IN.+GR.TM TR</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -4840,7 +4848,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
@@ -4855,12 +4863,12 @@
       <c r="A117" t="inlineStr"/>
       <c r="B117" t="inlineStr">
         <is>
-          <t>CA85209X1078</t>
+          <t>GB00BFYMWJ95</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>SPROUT AI INC.</t>
+          <t>TIRUPATI GRAPHITE LS-,025</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -4889,15 +4897,19 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr"/>
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>GB00BMF1L080.SG</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>PLIMRGM00010</t>
+          <t>GB00BMF1L080</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>IMMERSION G. S.A.  ZY 1,0</t>
+          <t>LITERACY CAPITAL  LS-,001</t>
         </is>
       </c>
       <c r="D118" t="n">
@@ -4914,7 +4926,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
@@ -4929,12 +4941,12 @@
       <c r="A119" t="inlineStr"/>
       <c r="B119" t="inlineStr">
         <is>
-          <t>CA91725D5001</t>
+          <t>CA29877A2056</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>URBANIMMERSIVE INC.</t>
+          <t>EUROPEAN ELECTR. METALS</t>
         </is>
       </c>
       <c r="D119" t="n">
@@ -4966,12 +4978,12 @@
       <c r="A120" t="inlineStr"/>
       <c r="B120" t="inlineStr">
         <is>
-          <t>GB00BNK8T635</t>
+          <t>CH0563815429</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>NET ZERO INFRASTR. LS-,01</t>
+          <t>IQ INTERNATIONAL AG</t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -5003,12 +5015,12 @@
       <c r="A121" t="inlineStr"/>
       <c r="B121" t="inlineStr">
         <is>
-          <t>CA76151T1030</t>
+          <t>AU000000REX1</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>REVITALIST L.A.W. LTD</t>
+          <t>REGIONAL EXPRESS HLDGS</t>
         </is>
       </c>
       <c r="D121" t="n">
@@ -5040,12 +5052,12 @@
       <c r="A122" t="inlineStr"/>
       <c r="B122" t="inlineStr">
         <is>
-          <t>CA89367L1031</t>
+          <t>AU000000RFX8</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>TRANSFORMA RES. CORP.</t>
+          <t>REDFLOW LTD</t>
         </is>
       </c>
       <c r="D122" t="n">
@@ -5077,12 +5089,12 @@
       <c r="A123" t="inlineStr"/>
       <c r="B123" t="inlineStr">
         <is>
-          <t>PLBKDGM00019</t>
+          <t>CA26885W1041</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>BAKED GAMES SA  ZY-,10</t>
+          <t>E-PLAY DIGITAL</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -5114,12 +5126,12 @@
       <c r="A124" t="inlineStr"/>
       <c r="B124" t="inlineStr">
         <is>
-          <t>KYG6485S1021</t>
+          <t>CA19243C1005</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>NEW HORIZ.HEAL. DL-,00005</t>
+          <t>COGNETIVITY NEUROC. LTD</t>
         </is>
       </c>
       <c r="D124" t="n">
@@ -5148,19 +5160,15 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>PIN.L</t>
-        </is>
-      </c>
+      <c r="A125" t="inlineStr"/>
       <c r="B125" t="inlineStr">
         <is>
-          <t>GB00BP37WF17</t>
+          <t>CA87243W1032</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>PANTHEON INTL PLC LS-,067</t>
+          <t>THC BIOMED INTL</t>
         </is>
       </c>
       <c r="D125" t="n">
@@ -5177,7 +5185,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
@@ -5189,15 +5197,19 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr"/>
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>BBH.L</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>CA57768L1058</t>
+          <t>GB00BZCNLL95</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>MAVEN BRANDS INC.</t>
+          <t>BELLEVUE HE.TR.RED.LS-,01</t>
         </is>
       </c>
       <c r="D126" t="n">
@@ -5214,7 +5226,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
@@ -5229,12 +5241,12 @@
       <c r="A127" t="inlineStr"/>
       <c r="B127" t="inlineStr">
         <is>
-          <t>BG1100003166</t>
+          <t>HU0000089867</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>SHELLY GROUP PLC     EO 1</t>
+          <t>PANNERGY NYRT.NAM.UF 20</t>
         </is>
       </c>
       <c r="D127" t="n">
@@ -5266,12 +5278,12 @@
       <c r="A128" t="inlineStr"/>
       <c r="B128" t="inlineStr">
         <is>
-          <t>NL0015000NM7</t>
+          <t>FR0013410370</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>QEV N.V.           EO-,01</t>
+          <t>AUPLATA MIN. GRP EO-,0005</t>
         </is>
       </c>
       <c r="D128" t="n">
@@ -5303,12 +5315,12 @@
       <c r="A129" t="inlineStr"/>
       <c r="B129" t="inlineStr">
         <is>
-          <t>BMG525961063</t>
+          <t>HK0000057171</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>ALLEGRO CULTURE LTD HD-,2</t>
+          <t>CPMC HOLDINGS LTD</t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -5337,19 +5349,15 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>HEIT.L</t>
-        </is>
-      </c>
+      <c r="A130" t="inlineStr"/>
       <c r="B130" t="inlineStr">
         <is>
-          <t>GB00BLNNFY18</t>
+          <t>SE0004210854</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>HARMONY ENERGY INCOME TR.</t>
+          <t>CROWN ENERGY AB</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -5366,7 +5374,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
@@ -5381,12 +5389,12 @@
       <c r="A131" t="inlineStr"/>
       <c r="B131" t="inlineStr">
         <is>
-          <t>KYG7306U1022</t>
+          <t>PAL2400671A3</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>PUJIANG INTERNAT.  DL-,01</t>
+          <t>INTERCORP FIN.SERV. O.N.</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -5417,17 +5425,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>GB00BLF7PP25.SG</t>
+          <t>NFPH.F</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>GB00BLF7PP25</t>
+          <t>TH0083B10Z10</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>DOWNING RNW.+INFR.TR.-,01</t>
+          <t>THANACHART CAP.-FGN-BA 10</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -5456,19 +5464,15 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>JOF</t>
-        </is>
-      </c>
+      <c r="A133" t="inlineStr"/>
       <c r="B133" t="inlineStr">
         <is>
-          <t>US47109U1043</t>
+          <t>TH0121010019</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>JP SM.CAP.FD       DL-,10</t>
+          <t>KIATNAKIN PH-FOREIGN-BA10</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -5485,7 +5489,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
@@ -5500,12 +5504,12 @@
       <c r="A134" t="inlineStr"/>
       <c r="B134" t="inlineStr">
         <is>
-          <t>CA54404Q2009</t>
+          <t>SE0000514705</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>LORDS CO. WORLDW. HOLD.</t>
+          <t>OBDUCAT AB B       SK 8</t>
         </is>
       </c>
       <c r="D134" t="n">
@@ -5534,19 +5538,15 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>PDO</t>
-        </is>
-      </c>
+      <c r="A135" t="inlineStr"/>
       <c r="B135" t="inlineStr">
         <is>
-          <t>US69355M1071</t>
+          <t>US83367Y2072</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>PIMCO DYN.INC.OP.BEN.</t>
+          <t>S.ENER.ELEC.SP.GDR REGS 1</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
@@ -5578,12 +5578,12 @@
       <c r="A136" t="inlineStr"/>
       <c r="B136" t="inlineStr">
         <is>
-          <t>CA91360F1099</t>
+          <t>US86959K1051</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>UNIVERSAL IBOGAINE INC.</t>
+          <t>SUZANO S.A. ADR/1</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -5615,12 +5615,12 @@
       <c r="A137" t="inlineStr"/>
       <c r="B137" t="inlineStr">
         <is>
-          <t>KYG137071075</t>
+          <t>CA76156R1029</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>BM3EAC CORP.       -,0001</t>
+          <t>REVOLUGROUP CANADA INC</t>
         </is>
       </c>
       <c r="D137" t="n">
@@ -5649,15 +5649,19 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr"/>
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>PDX</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>CA0127841041</t>
+          <t>US69346N1072</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>ALBERT LABS INTL. CORP.</t>
+          <t>PIMCO ENERGY+TACT.CR.OPPS</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -5674,7 +5678,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
@@ -5689,12 +5693,12 @@
       <c r="A139" t="inlineStr"/>
       <c r="B139" t="inlineStr">
         <is>
-          <t>BG1100008074</t>
+          <t>CA71401N1050</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>TCHAIKAPH.HIGHQ.MED. BW 1</t>
+          <t>PERK LABS INC.  O.N.</t>
         </is>
       </c>
       <c r="D139" t="n">
@@ -5726,12 +5730,12 @@
       <c r="A140" t="inlineStr"/>
       <c r="B140" t="inlineStr">
         <is>
-          <t>BG1100025052</t>
+          <t>CA67054W1032</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>ADVANCE TERRAFD REIT BW 1</t>
+          <t>NUMINUS WELLNESS INC.</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -5760,15 +5764,19 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr"/>
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>MMP-UN.TO</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>BG1100075065</t>
+          <t>CA7401731095</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>MONBAT AD            BW 1</t>
+          <t>PRECIOUS METAL + MIN.TR.</t>
         </is>
       </c>
       <c r="D141" t="n">
@@ -5785,7 +5793,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
@@ -5800,12 +5808,12 @@
       <c r="A142" t="inlineStr"/>
       <c r="B142" t="inlineStr">
         <is>
-          <t>CA3024371088</t>
+          <t>GB00BYZC5R04</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>FANDIFI TECHNOLOGY CORP.</t>
+          <t>CARACAL GOLD PLC  LS-,001</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -5837,12 +5845,12 @@
       <c r="A143" t="inlineStr"/>
       <c r="B143" t="inlineStr">
         <is>
-          <t>GB00BLNBD412</t>
+          <t>CA45250L2049</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>AJAX RESOURCES PLC LS-,01</t>
+          <t>IMAGIN MEDICAL INC.</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -5871,15 +5879,19 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr"/>
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>BCAT</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>SE0017486897</t>
+          <t>US09260U1097</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>ATLAS COPCO B FRIA.  O.N.</t>
+          <t>BR CAP.AL.TM TR DL-,001</t>
         </is>
       </c>
       <c r="D144" t="n">
@@ -5896,7 +5908,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
@@ -5908,19 +5920,15 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>BRW</t>
-        </is>
-      </c>
+      <c r="A145" t="inlineStr"/>
       <c r="B145" t="inlineStr">
         <is>
-          <t>US78518H2022</t>
+          <t>AU0000107211</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SABA CA.INC+OP.NEW DL-,01</t>
+          <t>TOMBADOR IRON LTD.</t>
         </is>
       </c>
       <c r="D145" t="n">
@@ -5937,7 +5945,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
@@ -5952,12 +5960,12 @@
       <c r="A146" t="inlineStr"/>
       <c r="B146" t="inlineStr">
         <is>
-          <t>CA88165V2066</t>
+          <t>AU0000129710</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>TEVANO SYSTEMS HLDGS INC.</t>
+          <t>HEALTH AND PL.PROT.GROUP</t>
         </is>
       </c>
       <c r="D146" t="n">
@@ -5986,15 +5994,19 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr"/>
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>RNEW.L</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>CA42982U2065</t>
+          <t>GB00BLPK4430</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>HIGHBANK RES LTD</t>
+          <t>ECOFIN US REN.IN. DL -,01</t>
         </is>
       </c>
       <c r="D147" t="n">
@@ -6011,7 +6023,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
@@ -6023,19 +6035,15 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>BGCG.L</t>
-        </is>
-      </c>
+      <c r="A148" t="inlineStr"/>
       <c r="B148" t="inlineStr">
         <is>
-          <t>GB0003656021</t>
+          <t>BMG8301A1099</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>BG CHINA GROWTH TR.LS-,25</t>
+          <t>SOUTH.SECS INTL SECS</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -6052,7 +6060,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
@@ -6067,12 +6075,12 @@
       <c r="A149" t="inlineStr"/>
       <c r="B149" t="inlineStr">
         <is>
-          <t>CA8271242072</t>
+          <t>KYG4509G1055</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>SILO WELLNESS INC.</t>
+          <t>HILONG HOLDING LTD HD-,10</t>
         </is>
       </c>
       <c r="D149" t="n">
@@ -6104,12 +6112,12 @@
       <c r="A150" t="inlineStr"/>
       <c r="B150" t="inlineStr">
         <is>
-          <t>BG1100099065</t>
+          <t>BMG749131071</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>BALKAN SEA PROPS REIT BW1</t>
+          <t>RENCO HOLDINGS GRP HD-,10</t>
         </is>
       </c>
       <c r="D150" t="n">
@@ -6138,15 +6146,19 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr"/>
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>GAB</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>PLGMSBX00010</t>
+          <t>US3623971013</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>GAMES BOX S.A.     ZY-,10</t>
+          <t>GABELLI EQUITY TR. DL-001</t>
         </is>
       </c>
       <c r="D151" t="n">
@@ -6163,7 +6175,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
@@ -6178,12 +6190,12 @@
       <c r="A152" t="inlineStr"/>
       <c r="B152" t="inlineStr">
         <is>
-          <t>CA0536981065</t>
+          <t>AU0000137598</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>AVILA ENERGY CORP.</t>
+          <t>EPSILON HEALTHCARE LTD.</t>
         </is>
       </c>
       <c r="D152" t="n">
@@ -6215,12 +6227,12 @@
       <c r="A153" t="inlineStr"/>
       <c r="B153" t="inlineStr">
         <is>
-          <t>CA4196213058</t>
+          <t>CA0682943059</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>HAVN LIFE SCIENCES INC.</t>
+          <t>BAROYECA GOLD+SILVER INC.</t>
         </is>
       </c>
       <c r="D153" t="n">
@@ -6252,12 +6264,12 @@
       <c r="A154" t="inlineStr"/>
       <c r="B154" t="inlineStr">
         <is>
-          <t>CA36269A2065</t>
+          <t>CA52731E1060</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>GAIA GROW CORP.</t>
+          <t>LEVELJUMP HEALTHCARE CORP</t>
         </is>
       </c>
       <c r="D154" t="n">
@@ -6289,12 +6301,12 @@
       <c r="A155" t="inlineStr"/>
       <c r="B155" t="inlineStr">
         <is>
-          <t>US36265D2045</t>
+          <t>US11259P1093</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>GEM CO. LTD SP.GDR/10 A</t>
+          <t>BROOKF.B.H.  4,62 PR.SHS</t>
         </is>
       </c>
       <c r="D155" t="n">
@@ -6326,12 +6338,12 @@
       <c r="A156" t="inlineStr"/>
       <c r="B156" t="inlineStr">
         <is>
-          <t>US65447N1037</t>
+          <t>PLCRFRG00016</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>NINGBO SHANSHAN GDR/A</t>
+          <t>CREATIVEF. G.S.A-K ZY-,23</t>
         </is>
       </c>
       <c r="D156" t="n">
@@ -6363,12 +6375,12 @@
       <c r="A157" t="inlineStr"/>
       <c r="B157" t="inlineStr">
         <is>
-          <t>AU000000STA5</t>
+          <t>PLGPPIK00011</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>STRANDLINE RESOURCES LTD</t>
+          <t>FIGENE CAPITAL SA  ZY 1</t>
         </is>
       </c>
       <c r="D157" t="n">
@@ -6397,15 +6409,19 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr"/>
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>GB00BNG2M159.SG</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>CA64639M3049</t>
+          <t>GB00BNG2M159</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>NEW LEAF VENTURES  CL.A</t>
+          <t>ALLIANZ TECHNO.TR.LS-,025</t>
         </is>
       </c>
       <c r="D158" t="n">
@@ -6422,7 +6438,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
@@ -6437,12 +6453,12 @@
       <c r="A159" t="inlineStr"/>
       <c r="B159" t="inlineStr">
         <is>
-          <t>KYG3691M1024</t>
+          <t>PLYLWHT00012</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>FULLWEALTH I.GRP.H.HD-,01</t>
+          <t>MEDAPP S.A.       ZY -,10</t>
         </is>
       </c>
       <c r="D159" t="n">
@@ -6474,12 +6490,12 @@
       <c r="A160" t="inlineStr"/>
       <c r="B160" t="inlineStr">
         <is>
-          <t>US52678P2056</t>
+          <t>CA1057361026</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>LEPU MED.T.B. SP.GDR O.N.</t>
+          <t>BRAXIA SCIENTIFIC CORP.</t>
         </is>
       </c>
       <c r="D160" t="n">
@@ -6511,12 +6527,12 @@
       <c r="A161" t="inlineStr"/>
       <c r="B161" t="inlineStr">
         <is>
-          <t>IT0005516130</t>
+          <t>PLGEOTR00010</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>BIOERA SPA</t>
+          <t>GEOTRANS S.A.    ZY -,10</t>
         </is>
       </c>
       <c r="D161" t="n">
@@ -6548,12 +6564,12 @@
       <c r="A162" t="inlineStr"/>
       <c r="B162" t="inlineStr">
         <is>
-          <t>PLEMPCT00017</t>
+          <t>SE0015658117</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>EMPLOCITY SPOLKA A ZY-,10</t>
+          <t>EPIROC AB B</t>
         </is>
       </c>
       <c r="D162" t="n">
@@ -6585,12 +6601,12 @@
       <c r="A163" t="inlineStr"/>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ES0105691002</t>
+          <t>PLJRSDB00015</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>APLICACIONES Y T.EO-,0012</t>
+          <t>FINTECH S.A.         ZY 5</t>
         </is>
       </c>
       <c r="D163" t="n">
@@ -6622,12 +6638,12 @@
       <c r="A164" t="inlineStr"/>
       <c r="B164" t="inlineStr">
         <is>
-          <t>IT0005391229</t>
+          <t>PLROCCA00013</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>E-NOVIA S.P.A.  EO-,01</t>
+          <t>ROCCA SA          ZY -,05</t>
         </is>
       </c>
       <c r="D164" t="n">
@@ -6659,12 +6675,12 @@
       <c r="A165" t="inlineStr"/>
       <c r="B165" t="inlineStr">
         <is>
-          <t>TH0363010Z10</t>
+          <t>PLRSYSA00014</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>PRECIOUS SHIP. -FGN- BA 1</t>
+          <t>SUNDRAGON S.A.    ZY-,1</t>
         </is>
       </c>
       <c r="D165" t="n">
@@ -6693,19 +6709,15 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>JPI</t>
-        </is>
-      </c>
+      <c r="A166" t="inlineStr"/>
       <c r="B166" t="inlineStr">
         <is>
-          <t>US67075A1060</t>
+          <t>PLSFD0000013</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>NUVEEN PREFER.SEC+INC.OPP</t>
+          <t>SFD SA            ZY -,10</t>
         </is>
       </c>
       <c r="D166" t="n">
@@ -6722,7 +6734,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
@@ -6734,19 +6746,15 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>MID-UN.TO</t>
-        </is>
-      </c>
+      <c r="A167" t="inlineStr"/>
       <c r="B167" t="inlineStr">
         <is>
-          <t>CA60446Q1081</t>
+          <t>PLSITE000013</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>MINT INCOME FUND  UTS</t>
+          <t>MUNAR             ZY -,10</t>
         </is>
       </c>
       <c r="D167" t="n">
@@ -6763,7 +6771,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
@@ -6778,12 +6786,12 @@
       <c r="A168" t="inlineStr"/>
       <c r="B168" t="inlineStr">
         <is>
-          <t>GB00BMWLC750</t>
+          <t>PLSTRGM00014</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>MILTON CAPITAL PLC LS-,01</t>
+          <t>CENTURION FIN.A-C ZY -,10</t>
         </is>
       </c>
       <c r="D168" t="n">
@@ -6812,15 +6820,19 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr"/>
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>PDI</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>CA72942X1078</t>
+          <t>US72201Y1010</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>PLURIBUS TECHNOLOGIES</t>
+          <t>PIMCO DYNAMIC INCOME FD</t>
         </is>
       </c>
       <c r="D169" t="n">
@@ -6837,7 +6849,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
@@ -6849,15 +6861,19 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr"/>
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>RCG</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>CA30321D2095</t>
+          <t>US7597201059</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>FABLED COPPER CORP.</t>
+          <t>RENN FUND INC.</t>
         </is>
       </c>
       <c r="D170" t="n">
@@ -6874,7 +6890,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
@@ -6886,15 +6902,19 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr"/>
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>3IN.L</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>CA70470T2092</t>
+          <t>JE00BF5FX167</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>PEAKBIRCH COMMERCE INC.</t>
+          <t>3I INFRASTRUCTURE</t>
         </is>
       </c>
       <c r="D171" t="n">
@@ -6911,7 +6931,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
@@ -6926,12 +6946,12 @@
       <c r="A172" t="inlineStr"/>
       <c r="B172" t="inlineStr">
         <is>
-          <t>PLEKTRM00016</t>
+          <t>US76882G2066</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>CARBON GROUP       ZY-,10</t>
+          <t>RIVERNTH/DB.STR.OPP.PRF.A</t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -6963,12 +6983,12 @@
       <c r="A173" t="inlineStr"/>
       <c r="B173" t="inlineStr">
         <is>
-          <t>PLMRTIN00011</t>
+          <t>CA60743X1033</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>MERIT INVEST A,B,C ZY-,10</t>
+          <t>MOBILUM TECHNOLOGIES INC.</t>
         </is>
       </c>
       <c r="D173" t="n">
@@ -6997,15 +7017,19 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr"/>
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>CEE</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>AU000000XST7</t>
+          <t>US1534361001</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>XSTATE RES LTD</t>
+          <t>CENT.+EAST.EUR.FD DL-,001</t>
         </is>
       </c>
       <c r="D174" t="n">
@@ -7022,7 +7046,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
@@ -7037,12 +7061,12 @@
       <c r="A175" t="inlineStr"/>
       <c r="B175" t="inlineStr">
         <is>
-          <t>CA3613332061</t>
+          <t>AU000000MNS3</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>G6 MATERIALS CORP.</t>
+          <t>MAGNIS ENERGY TECHNOL.LTD</t>
         </is>
       </c>
       <c r="D175" t="n">
@@ -7074,12 +7098,12 @@
       <c r="A176" t="inlineStr"/>
       <c r="B176" t="inlineStr">
         <is>
-          <t>US86804J2042</t>
+          <t>CA34416F1036</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>SUNWODA ELECTR. GDR REG S</t>
+          <t>FOBI AI INC.</t>
         </is>
       </c>
       <c r="D176" t="n">
@@ -7111,12 +7135,12 @@
       <c r="A177" t="inlineStr"/>
       <c r="B177" t="inlineStr">
         <is>
-          <t>CA92561G1028</t>
+          <t>CA2241301043</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>VICE HEALTH AND WELL.INC.</t>
+          <t>CRAFTPORT CANNABIS CORP.</t>
         </is>
       </c>
       <c r="D177" t="n">
@@ -7148,12 +7172,12 @@
       <c r="A178" t="inlineStr"/>
       <c r="B178" t="inlineStr">
         <is>
-          <t>IT0005540676</t>
+          <t>SE0017161458</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>ARRAS GROUP S.P.A.</t>
+          <t>SVOLDER AB B O.N.</t>
         </is>
       </c>
       <c r="D178" t="n">
@@ -7185,12 +7209,12 @@
       <c r="A179" t="inlineStr"/>
       <c r="B179" t="inlineStr">
         <is>
-          <t>AU0000276149</t>
+          <t>CA0877372015</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>STRATA INVEST.H.CDI/1:1</t>
+          <t>BETTER PLANT SCIENCES INC</t>
         </is>
       </c>
       <c r="D179" t="n">
@@ -7222,12 +7246,12 @@
       <c r="A180" t="inlineStr"/>
       <c r="B180" t="inlineStr">
         <is>
-          <t>SE0020846392</t>
+          <t>CA95081C1059</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>NODEBIS APPLICATIONS AB</t>
+          <t>WESANA HEALTH HOLD. INC.</t>
         </is>
       </c>
       <c r="D180" t="n">
@@ -7259,12 +7283,12 @@
       <c r="A181" t="inlineStr"/>
       <c r="B181" t="inlineStr">
         <is>
-          <t>PLBABY000016</t>
+          <t>CA49601P1045</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>NOVINA S.A.     E ZY 1,16</t>
+          <t>KINGS ENTERTAINMENT GROUP</t>
         </is>
       </c>
       <c r="D181" t="n">
@@ -7296,12 +7320,12 @@
       <c r="A182" t="inlineStr"/>
       <c r="B182" t="inlineStr">
         <is>
-          <t>PLJJBEE00028</t>
+          <t>GB00BKPH9N11</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>JUJUBEE S.A.     ZY -,10</t>
+          <t>AURA RENEWABLE ACQ. LS-01</t>
         </is>
       </c>
       <c r="D182" t="n">
@@ -7330,15 +7354,19 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr"/>
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>TMPL.L</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>US7169722037</t>
+          <t>GB00BMV92D64</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>PHARMAESSENT.GDR RS TA 10</t>
+          <t>TEMPLE BAR INV.TR. LS-,05</t>
         </is>
       </c>
       <c r="D183" t="n">
@@ -7355,7 +7383,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
@@ -7370,12 +7398,12 @@
       <c r="A184" t="inlineStr"/>
       <c r="B184" t="inlineStr">
         <is>
-          <t>ES0105650073</t>
+          <t>US4872351030</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>SUBSTRA.ART.INT.B EO-,001</t>
+          <t>KEDA INDL GRP.C.LTD GDR A</t>
         </is>
       </c>
       <c r="D184" t="n">
@@ -7404,15 +7432,19 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr"/>
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>QFG.BR</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>KYG5700Y2097</t>
+          <t>BE0003730448</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>LUFAX HLDG.L. A DL-,00001</t>
+          <t>QUEST FOR GROWTH PRICAF</t>
         </is>
       </c>
       <c r="D185" t="n">
@@ -7429,7 +7461,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
@@ -7444,12 +7476,12 @@
       <c r="A186" t="inlineStr"/>
       <c r="B186" t="inlineStr">
         <is>
-          <t>CA00036H1001</t>
+          <t>US47973H2058</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>AAPKI VENTURES INC.  O.N.</t>
+          <t>JOIN.PH.IND.GR.CO.LTD.GDR</t>
         </is>
       </c>
       <c r="D186" t="n">
@@ -7478,19 +7510,15 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>IAGPE.AX</t>
-        </is>
-      </c>
+      <c r="A187" t="inlineStr"/>
       <c r="B187" t="inlineStr">
         <is>
-          <t>AU0000253197</t>
+          <t>AU0000221251</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>INSURANCE AU GROUP LTD.</t>
+          <t>LEO LITHIUM LTD</t>
         </is>
       </c>
       <c r="D187" t="n">
@@ -7507,7 +7535,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
@@ -7522,12 +7550,12 @@
       <c r="A188" t="inlineStr"/>
       <c r="B188" t="inlineStr">
         <is>
-          <t>AT0000A38M45</t>
+          <t>ES0175589029</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>CLEEN ENERGY AG</t>
+          <t>SERESCO (ACC.P.DESD.)-,16</t>
         </is>
       </c>
       <c r="D188" t="n">
@@ -7559,12 +7587,12 @@
       <c r="A189" t="inlineStr"/>
       <c r="B189" t="inlineStr">
         <is>
-          <t>IT0005573966</t>
+          <t>CA04952E2087</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>YAKKYO S.P.A.        O.N.</t>
+          <t>ATMOFIZER TECHNOL.INC. B</t>
         </is>
       </c>
       <c r="D189" t="n">
@@ -7593,19 +7621,15 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>ABND.CN</t>
-        </is>
-      </c>
+      <c r="A190" t="inlineStr"/>
       <c r="B190" t="inlineStr">
         <is>
-          <t>CA0037351073</t>
+          <t>IT0005523839</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ABOUND ENERGY INC.  O.N.</t>
+          <t>DOTSTAY S.P.A.</t>
         </is>
       </c>
       <c r="D190" t="n">
@@ -7622,7 +7646,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
@@ -7634,19 +7658,15 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>NMCO</t>
-        </is>
-      </c>
+      <c r="A191" t="inlineStr"/>
       <c r="B191" t="inlineStr">
         <is>
-          <t>US6706631032</t>
+          <t>AU0000105033</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>NUVEEN MUN.CRDT FD DL-,01</t>
+          <t>WELLFULLY LTD.</t>
         </is>
       </c>
       <c r="D191" t="n">
@@ -7663,7 +7683,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
@@ -7678,12 +7698,12 @@
       <c r="A192" t="inlineStr"/>
       <c r="B192" t="inlineStr">
         <is>
-          <t>SG1I55882803</t>
+          <t>CA3771304068</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>GREAT EASTN HLDGS LOC.</t>
+          <t>GLASS HOUSE BRANDS INC.</t>
         </is>
       </c>
       <c r="D192" t="n">
@@ -7715,12 +7735,12 @@
       <c r="A193" t="inlineStr"/>
       <c r="B193" t="inlineStr">
         <is>
-          <t>US20441B7047</t>
+          <t>CA90369P1009</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>C. PARAN. EN. SP.ADR/4</t>
+          <t>UBIQUE MINERALS LTD.</t>
         </is>
       </c>
       <c r="D193" t="n">
@@ -7749,19 +7769,15 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>IGC.L</t>
-        </is>
-      </c>
+      <c r="A194" t="inlineStr"/>
       <c r="B194" t="inlineStr">
         <is>
-          <t>GB00B0P8RJ60</t>
+          <t>CA73938G1081</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>INDIA CAPITAL GRO. LS-,01</t>
+          <t>POWERSTONE METALS CORP.</t>
         </is>
       </c>
       <c r="D194" t="n">
@@ -7778,7 +7794,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
@@ -7793,12 +7809,12 @@
       <c r="A195" t="inlineStr"/>
       <c r="B195" t="inlineStr">
         <is>
-          <t>CA90109P2044</t>
+          <t>HK0000812955</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>TUT FITNESS GRP INC.</t>
+          <t>KING STONE EN. NEW</t>
         </is>
       </c>
       <c r="D195" t="n">
@@ -7827,15 +7843,19 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr"/>
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>BHMG.L</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>SE0022240115</t>
+          <t>GG00BQBFY362</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>JONDETECH SENSORS</t>
+          <t>BH MACRO GBP</t>
         </is>
       </c>
       <c r="D196" t="n">
@@ -7852,7 +7872,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
@@ -7867,12 +7887,12 @@
       <c r="A197" t="inlineStr"/>
       <c r="B197" t="inlineStr">
         <is>
-          <t>US98955Q1013</t>
+          <t>CA45675G2027</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>ZHEJIANG HUAYOU COB.GDR/A</t>
+          <t>INFINITY STONE VENTURES A</t>
         </is>
       </c>
       <c r="D197" t="n">
@@ -7904,12 +7924,12 @@
       <c r="A198" t="inlineStr"/>
       <c r="B198" t="inlineStr">
         <is>
-          <t>US98490B1061</t>
+          <t>GG00BMB5XZ39</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>YANGZ.YANG.ELEC.TECH.GDR1</t>
+          <t>GLOBAL INTERCON    LS-,01</t>
         </is>
       </c>
       <c r="D198" t="n">
@@ -7940,17 +7960,17 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>STS.L</t>
+          <t>WWH.L</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>GB00B09G3N23</t>
+          <t>GB00BN455J50</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SEC. TR. SCOTLD    LS-,01</t>
+          <t>WORLDWIDE HEALTH. LS-025</t>
         </is>
       </c>
       <c r="D199" t="n">
@@ -7979,19 +7999,15 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>NXG</t>
-        </is>
-      </c>
+      <c r="A200" t="inlineStr"/>
       <c r="B200" t="inlineStr">
         <is>
-          <t>US2316472073</t>
+          <t>SE0019175274</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>CUSHING RENAISSANCE SBI</t>
+          <t>SCANDINAVIAN ASTOR GROUP</t>
         </is>
       </c>
       <c r="D200" t="n">
@@ -8008,7 +8024,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
@@ -8020,15 +8036,19 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr"/>
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>MNTN.L</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>AU0000310211</t>
+          <t>GG00BJ0CDD21</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>REDIVIUM LTD.</t>
+          <t>THE SCHIEHALLION FUND LTD</t>
         </is>
       </c>
       <c r="D201" t="n">
@@ -8045,7 +8065,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
@@ -8060,12 +8080,12 @@
       <c r="A202" t="inlineStr"/>
       <c r="B202" t="inlineStr">
         <is>
-          <t>US8067332002</t>
+          <t>ES0105709002</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>SCHINDLER H. UNSP.ADR/0,5</t>
+          <t>GREENING GRP.GLB.EO-,0025</t>
         </is>
       </c>
       <c r="D202" t="n">
@@ -8094,19 +8114,15 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>FAX</t>
-        </is>
-      </c>
+      <c r="A203" t="inlineStr"/>
       <c r="B203" t="inlineStr">
         <is>
-          <t>US0030098679</t>
+          <t>US41044C1053</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>ABRDN.A.PAC.         O.N.</t>
+          <t>HANGZH.GREATST.IND. GDR/A</t>
         </is>
       </c>
       <c r="D203" t="n">
@@ -8123,7 +8139,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
@@ -8138,12 +8154,12 @@
       <c r="A204" t="inlineStr"/>
       <c r="B204" t="inlineStr">
         <is>
-          <t>PLGMHTS00015</t>
+          <t>US2527844003</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>GAMEHUNTERS S.A.  ZY -,10</t>
+          <t>DIAMONDROCK HOSPITAL.A</t>
         </is>
       </c>
       <c r="D204" t="n">
@@ -8175,12 +8191,12 @@
       <c r="A205" t="inlineStr"/>
       <c r="B205" t="inlineStr">
         <is>
-          <t>US59564R8079</t>
+          <t>CA39312G1054</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>BIODEXA PHARMA ADR O.N.</t>
+          <t>GREEN MIN.INN.CORP.  O.N.</t>
         </is>
       </c>
       <c r="D205" t="n">
@@ -8212,12 +8228,12 @@
       <c r="A206" t="inlineStr"/>
       <c r="B206" t="inlineStr">
         <is>
-          <t>HU0000199351</t>
+          <t>US89686D3035</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>ESENSE HU.RE.SZ.NYRT UF 2</t>
+          <t>TRIVAGO A SP.ADS/5 EO-,06</t>
         </is>
       </c>
       <c r="D206" t="n">
@@ -8249,12 +8265,12 @@
       <c r="A207" t="inlineStr"/>
       <c r="B207" t="inlineStr">
         <is>
-          <t>AU000000CXM6</t>
+          <t>PLMNLIT00014</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>CENTREX LTD.</t>
+          <t>MOONLIT S.A.      ZY -,10</t>
         </is>
       </c>
       <c r="D207" t="n">
@@ -8283,19 +8299,15 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>SRV</t>
-        </is>
-      </c>
+      <c r="A208" t="inlineStr"/>
       <c r="B208" t="inlineStr">
         <is>
-          <t>US2316313004</t>
+          <t>CA6489261033</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>CUSHING MLP+INFRASTR.T.R.</t>
+          <t>NEW WORLD SOLUTIONS INC.</t>
         </is>
       </c>
       <c r="D208" t="n">
@@ -8312,7 +8324,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
@@ -8327,12 +8339,12 @@
       <c r="A209" t="inlineStr"/>
       <c r="B209" t="inlineStr">
         <is>
-          <t>ES0105848008</t>
+          <t>ES0105717005</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>COX ABG GROUP S.A. O.N.</t>
+          <t>REVENGA INGENIEROS EO-,26</t>
         </is>
       </c>
       <c r="D209" t="n">
@@ -8363,17 +8375,17 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>MCN</t>
+          <t>RGT</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>US5574371002</t>
+          <t>US78081T1043</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>MADISON COV.CALL+EQ.S.</t>
+          <t>ROYCE GL.TRUST    DL-,001</t>
         </is>
       </c>
       <c r="D210" t="n">
@@ -8405,12 +8417,12 @@
       <c r="A211" t="inlineStr"/>
       <c r="B211" t="inlineStr">
         <is>
-          <t>SE0023468194</t>
+          <t>CA69938P2052</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>TANGIAMO TOUCH TECHN. AB</t>
+          <t>PARCELPAL LOGIS.INC. O.N.</t>
         </is>
       </c>
       <c r="D211" t="n">
@@ -8442,12 +8454,12 @@
       <c r="A212" t="inlineStr"/>
       <c r="B212" t="inlineStr">
         <is>
-          <t>CA40054T3055</t>
+          <t>ES0105777017</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>G2 ENERGY CORP.</t>
+          <t>PUIG BRANDS        EO-,06</t>
         </is>
       </c>
       <c r="D212" t="n">
@@ -8479,12 +8491,12 @@
       <c r="A213" t="inlineStr"/>
       <c r="B213" t="inlineStr">
         <is>
-          <t>SE0023469200</t>
+          <t>AU000000NWF9</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>BRANDBEE HOLDING AB</t>
+          <t>NEWFIELD RESOURCES LTD</t>
         </is>
       </c>
       <c r="D213" t="n">
@@ -8513,19 +8525,15 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>NEE-PT</t>
-        </is>
-      </c>
+      <c r="A214" t="inlineStr"/>
       <c r="B214" t="inlineStr">
         <is>
-          <t>US65339F1194</t>
+          <t>SE0000524530</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>NEXTERA ENERGY UT 1/11/29</t>
+          <t>GLYCOREX TRANSPLANT. B</t>
         </is>
       </c>
       <c r="D214" t="n">
@@ -8542,7 +8550,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
@@ -8554,15 +8562,19 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="inlineStr"/>
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>PCT.L</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>AU0000378903</t>
+          <t>GB00BR3YV268</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>INVERT GRAPHITE</t>
+          <t>POLAR CAP.TECH.TR. LS-,25</t>
         </is>
       </c>
       <c r="D215" t="n">
@@ -8579,7 +8591,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
@@ -8594,12 +8606,12 @@
       <c r="A216" t="inlineStr"/>
       <c r="B216" t="inlineStr">
         <is>
-          <t>CA9439172037</t>
+          <t>CA1358702027</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>WAVERUNNER CAP INC.</t>
+          <t>CANADIAN GOLDCAMPS CORP.</t>
         </is>
       </c>
       <c r="D216" t="n">
@@ -8631,12 +8643,12 @@
       <c r="A217" t="inlineStr"/>
       <c r="B217" t="inlineStr">
         <is>
-          <t>DE000A40UTV5</t>
+          <t>ES0105836003</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>DEUTSCHE POST NA O.N.NEUE</t>
+          <t>INMOCEMENTO SA</t>
         </is>
       </c>
       <c r="D217" t="n">
@@ -8668,12 +8680,12 @@
       <c r="A218" t="inlineStr"/>
       <c r="B218" t="inlineStr">
         <is>
-          <t>PLVGUAR00011</t>
+          <t>US4925322053</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>DEVORAN SA        ZY -,1</t>
+          <t>KESORAM IND.LTD GDRREGS/1</t>
         </is>
       </c>
       <c r="D218" t="n">
@@ -8705,12 +8717,12 @@
       <c r="A219" t="inlineStr"/>
       <c r="B219" t="inlineStr">
         <is>
-          <t>GB00BYWLRL80</t>
+          <t>DE000A40UT96</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>NEO ENERGY METALS LS,0001</t>
+          <t>MTU AERO ENGINES NA NEUE</t>
         </is>
       </c>
       <c r="D219" t="n">
@@ -8739,15 +8751,19 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="inlineStr"/>
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>BRAI.L</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>SE0020357754</t>
+          <t>GB00B7W0XJ61</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>COEGIN PHARMA AB</t>
+          <t>BLACKROCK AM.INC.TR. LS 1</t>
         </is>
       </c>
       <c r="D220" t="n">
@@ -8764,7 +8780,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
@@ -8776,19 +8792,15 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>KIO</t>
-        </is>
-      </c>
+      <c r="A221" t="inlineStr"/>
       <c r="B221" t="inlineStr">
         <is>
-          <t>US48249T1060</t>
+          <t>GB00BNXJB679</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>KKR INCOME OPP.FD DL-,001</t>
+          <t>HBX GROUP INTL    EO -,01</t>
         </is>
       </c>
       <c r="D221" t="n">
@@ -8805,7 +8817,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
@@ -8817,15 +8829,19 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="inlineStr"/>
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>DCSI.CN</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>JP3646700009</t>
+          <t>US25460P2039</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>NAKAYAMA FUDOUSAN CO.LTD</t>
+          <t>DIRECT COMMUNICATION SOL.</t>
         </is>
       </c>
       <c r="D222" t="n">
@@ -8842,7 +8858,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
@@ -8857,12 +8873,12 @@
       <c r="A223" t="inlineStr"/>
       <c r="B223" t="inlineStr">
         <is>
-          <t>SE0019763988</t>
+          <t>CA3911731014</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>EYEON GROUP AB</t>
+          <t>GREAT PLAINS MET. O.N.</t>
         </is>
       </c>
       <c r="D223" t="n">
@@ -8891,15 +8907,19 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="inlineStr"/>
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>KWE.V</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>DE000A40UTS1</t>
+          <t>CA5015068029</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>BECHTLE AG O.N. NEUE</t>
+          <t>KWESST MICRO SYS.INC.</t>
         </is>
       </c>
       <c r="D224" t="n">
@@ -8916,7 +8936,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
@@ -8931,12 +8951,12 @@
       <c r="A225" t="inlineStr"/>
       <c r="B225" t="inlineStr">
         <is>
-          <t>DK0063631999</t>
+          <t>CA5589221004</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>DANCANN PHARMA       DK 1</t>
+          <t>MAGMA SILVER CORP.</t>
         </is>
       </c>
       <c r="D225" t="n">
@@ -8968,12 +8988,12 @@
       <c r="A226" t="inlineStr"/>
       <c r="B226" t="inlineStr">
         <is>
-          <t>DE000A40ZTP6</t>
+          <t>CA74449Q2053</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>SGL CARBON SE O.N. NEUE</t>
+          <t>PSYENCE GROUP INC. NEW</t>
         </is>
       </c>
       <c r="D226" t="n">
@@ -9002,15 +9022,19 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="inlineStr"/>
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>SRAN.CN</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>US78397C2098</t>
+          <t>CA85238C1086</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>SDIC POWER HLDG GDR REG S</t>
+          <t>SRANAN GOLD CORP.</t>
         </is>
       </c>
       <c r="D227" t="n">
@@ -9027,7 +9051,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
@@ -9042,12 +9066,12 @@
       <c r="A228" t="inlineStr"/>
       <c r="B228" t="inlineStr">
         <is>
-          <t>US80106T2006</t>
+          <t>FI4000587340</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>SANRIO CO. LTD. ADRS</t>
+          <t>GLASTON OYJ</t>
         </is>
       </c>
       <c r="D228" t="n">
@@ -9079,12 +9103,12 @@
       <c r="A229" t="inlineStr"/>
       <c r="B229" t="inlineStr">
         <is>
-          <t>US48268G1004</t>
+          <t>US36170Y1038</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>KT+G CORP.(GDR144A)1/2</t>
+          <t>GFT TECHS UNSP.ADR/ 1/5</t>
         </is>
       </c>
       <c r="D229" t="n">
@@ -9113,19 +9137,15 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>BTX</t>
-        </is>
-      </c>
+      <c r="A230" t="inlineStr"/>
       <c r="B230" t="inlineStr">
         <is>
-          <t>US09260Q1085</t>
+          <t>US48129U1088</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>BR IN.+GR.TM TR</t>
+          <t>J+T GL.EX.LTD UNS.ADR/10</t>
         </is>
       </c>
       <c r="D230" t="n">
@@ -9142,7 +9162,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
@@ -9157,12 +9177,12 @@
       <c r="A231" t="inlineStr"/>
       <c r="B231" t="inlineStr">
         <is>
-          <t>CA69902F1009</t>
+          <t>US6067991041</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>PARADIGM GOLD CORP.</t>
+          <t>MITSUBISHI MAT.UNSP.ADS/1</t>
         </is>
       </c>
       <c r="D231" t="n">
@@ -9191,19 +9211,15 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>GLD.JO</t>
-        </is>
-      </c>
+      <c r="A232" t="inlineStr"/>
       <c r="B232" t="inlineStr">
         <is>
-          <t>ZAE000060067</t>
+          <t>US6549391075</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>NEWGOLD ISSUER (RF) LTD.</t>
+          <t>NISSIN FOODS ADR / 1/2</t>
         </is>
       </c>
       <c r="D232" t="n">
@@ -9220,7 +9236,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
@@ -9235,12 +9251,12 @@
       <c r="A233" t="inlineStr"/>
       <c r="B233" t="inlineStr">
         <is>
-          <t>AU000000KLL6</t>
+          <t>US7866231084</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>KALIUM LAKES LTD O.N.</t>
+          <t>SAGAX AB  UNSP.ADR/1</t>
         </is>
       </c>
       <c r="D233" t="n">
@@ -9271,17 +9287,17 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>SBO.L</t>
+          <t>MCRB</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>GB00BN7JZR28</t>
+          <t>US81750R2013</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>SCHRODER BRITISH   LS-,01</t>
+          <t>SERES THERA.NEW  DL -,001</t>
         </is>
       </c>
       <c r="D234" t="n">
@@ -9310,15 +9326,19 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="inlineStr"/>
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>EOT.L</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>GB00BFYMWJ95</t>
+          <t>GB0000197722</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>TIRUPATI GRAPHITE LS-,025</t>
+          <t>EURO.OPPOTU.TRUST  LS-01</t>
         </is>
       </c>
       <c r="D235" t="n">
@@ -9335,7 +9355,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
@@ -9347,19 +9367,15 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>GB00BMF1L080.SG</t>
-        </is>
-      </c>
+      <c r="A236" t="inlineStr"/>
       <c r="B236" t="inlineStr">
         <is>
-          <t>GB00BMF1L080</t>
+          <t>PLCRBON00018</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>LITERACY CAPITAL  LS-,001</t>
+          <t>ARENA.PL S.A.     ZY -,50</t>
         </is>
       </c>
       <c r="D236" t="n">
@@ -9376,7 +9392,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
@@ -9391,12 +9407,12 @@
       <c r="A237" t="inlineStr"/>
       <c r="B237" t="inlineStr">
         <is>
-          <t>PLA346100011</t>
+          <t>CA92255G2027</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>MADMIND STUDIO  ZY-,50</t>
+          <t>VEGANO FOODS INC.</t>
         </is>
       </c>
       <c r="D237" t="n">
@@ -9428,12 +9444,12 @@
       <c r="A238" t="inlineStr"/>
       <c r="B238" t="inlineStr">
         <is>
-          <t>GB00BPP4RY41</t>
+          <t>DE000A40UT88</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>UNIGEL GROUP LTD. LS-,005</t>
+          <t>DELIVERY HERO SE NA NEUE</t>
         </is>
       </c>
       <c r="D238" t="n">
@@ -9462,15 +9478,19 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="inlineStr"/>
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>BOE</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>PLMDNPL00013</t>
+          <t>US0925011050</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>MEDIAN POLSKA S.A. ZY-,10</t>
+          <t>BLACKROCK ENH.GBL DIV.TR.</t>
         </is>
       </c>
       <c r="D239" t="n">
@@ -9487,7 +9507,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
@@ -9502,12 +9522,12 @@
       <c r="A240" t="inlineStr"/>
       <c r="B240" t="inlineStr">
         <is>
-          <t>CA29877A2056</t>
+          <t>CA03268Y1060</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>EUROPEAN ELECTR. METALS</t>
+          <t>ANALYTIXINSIGHT INC.</t>
         </is>
       </c>
       <c r="D240" t="n">
@@ -9539,12 +9559,12 @@
       <c r="A241" t="inlineStr"/>
       <c r="B241" t="inlineStr">
         <is>
-          <t>CH0563815429</t>
+          <t>CA05334L1094</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>IQ INTERNATIONAL AG</t>
+          <t>AUXICO RESOURCES CANADA</t>
         </is>
       </c>
       <c r="D241" t="n">
@@ -9576,12 +9596,12 @@
       <c r="A242" t="inlineStr"/>
       <c r="B242" t="inlineStr">
         <is>
-          <t>BG1100008132</t>
+          <t>CA0765881028</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>SYNTHETICA AD-SOFIA  BW 1</t>
+          <t>BEE VECTOR.TECHS INTL</t>
         </is>
       </c>
       <c r="D242" t="n">
@@ -9613,12 +9633,12 @@
       <c r="A243" t="inlineStr"/>
       <c r="B243" t="inlineStr">
         <is>
-          <t>ES0105670006</t>
+          <t>AU000000GTG7</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>UMBRELLA GL.ENERGY EO-,02</t>
+          <t>GENETIC TEC.</t>
         </is>
       </c>
       <c r="D243" t="n">
@@ -9650,12 +9670,12 @@
       <c r="A244" t="inlineStr"/>
       <c r="B244" t="inlineStr">
         <is>
-          <t>CA2107373003</t>
+          <t>CA15707X1015</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>CONTAGIOUS GAMING INC.</t>
+          <t>CERTIVE SOLUTIONS INC.</t>
         </is>
       </c>
       <c r="D244" t="n">
@@ -9687,12 +9707,12 @@
       <c r="A245" t="inlineStr"/>
       <c r="B245" t="inlineStr">
         <is>
-          <t>AU000000ACS1</t>
+          <t>CA4591211095</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>ACCENT RES N.L.</t>
+          <t>INTERNATL BATT. METALS</t>
         </is>
       </c>
       <c r="D245" t="n">
@@ -9724,12 +9744,12 @@
       <c r="A246" t="inlineStr"/>
       <c r="B246" t="inlineStr">
         <is>
-          <t>AU000000REX1</t>
+          <t>CA5367361014</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>REGIONAL EXPRESS HLDGS</t>
+          <t>LITE ACCESS TECHNOLOGIES</t>
         </is>
       </c>
       <c r="D246" t="n">
@@ -9761,12 +9781,12 @@
       <c r="A247" t="inlineStr"/>
       <c r="B247" t="inlineStr">
         <is>
-          <t>AU000000RFX8</t>
+          <t>DE000A1X3XX4</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>REDFLOW LTD</t>
+          <t>BRANICKS GROUP AG NA O.N.</t>
         </is>
       </c>
       <c r="D247" t="n">
@@ -9798,12 +9818,12 @@
       <c r="A248" t="inlineStr"/>
       <c r="B248" t="inlineStr">
         <is>
-          <t>CA26885W1041</t>
+          <t>FI0009000665</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>E-PLAY DIGITAL</t>
+          <t>METSAE BOARD OYJ B EO1,70</t>
         </is>
       </c>
       <c r="D248" t="n">
@@ -9835,12 +9855,12 @@
       <c r="A249" t="inlineStr"/>
       <c r="B249" t="inlineStr">
         <is>
-          <t>CA09075M1023</t>
+          <t>HU0000073507</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>BIOME GROW INC.</t>
+          <t>MAGYAR TELEK.T.NA A UF100</t>
         </is>
       </c>
       <c r="D249" t="n">
@@ -9872,12 +9892,12 @@
       <c r="A250" t="inlineStr"/>
       <c r="B250" t="inlineStr">
         <is>
-          <t>CA12507V1040</t>
+          <t>HU0000083696</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>CBLT INC.</t>
+          <t>GRAPHISOFT PARK SE EO -02</t>
         </is>
       </c>
       <c r="D250" t="n">
@@ -9909,12 +9929,12 @@
       <c r="A251" t="inlineStr"/>
       <c r="B251" t="inlineStr">
         <is>
-          <t>AU000000JRV4</t>
+          <t>HU0000102132</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>JERVOIS GLOBAL LTD.</t>
+          <t>APPENINN VAG.H.NY.M.UF100</t>
         </is>
       </c>
       <c r="D251" t="n">
@@ -9946,12 +9966,12 @@
       <c r="A252" t="inlineStr"/>
       <c r="B252" t="inlineStr">
         <is>
-          <t>CA1352081063</t>
+          <t>HU0000123096</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>CANADA RARE EARTH CORP.</t>
+          <t>RICHT.GEDE.VEG.GYAR UF100</t>
         </is>
       </c>
       <c r="D252" t="n">
@@ -9983,12 +10003,12 @@
       <c r="A253" t="inlineStr"/>
       <c r="B253" t="inlineStr">
         <is>
-          <t>CA3935762029</t>
+          <t>ID1000107600</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>GREENBANK CAPITAL</t>
+          <t>PT WIJAYA KARYA (P.)RP100</t>
         </is>
       </c>
       <c r="D253" t="n">
@@ -10020,12 +10040,12 @@
       <c r="A254" t="inlineStr"/>
       <c r="B254" t="inlineStr">
         <is>
-          <t>AU000000LKO0</t>
+          <t>GG00B4TM3943</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>LAKES BLUE ENERGY N.L.</t>
+          <t>BUSHVELD MINERALS  LS-,01</t>
         </is>
       </c>
       <c r="D254" t="n">
@@ -10057,12 +10077,12 @@
       <c r="A255" t="inlineStr"/>
       <c r="B255" t="inlineStr">
         <is>
-          <t>AU000000LPD2</t>
+          <t>KYG2751H1020</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>LEPIDICO LTD</t>
+          <t>DEXIN CHINA HLD. DL-,0005</t>
         </is>
       </c>
       <c r="D255" t="n">
@@ -10094,12 +10114,12 @@
       <c r="A256" t="inlineStr"/>
       <c r="B256" t="inlineStr">
         <is>
-          <t>CA15722J1030</t>
+          <t>US0044342055</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>CEYLON GRAPHITE CORP.</t>
+          <t>ACER GDR REG.S/5 TA 10</t>
         </is>
       </c>
       <c r="D256" t="n">
@@ -10131,12 +10151,12 @@
       <c r="A257" t="inlineStr"/>
       <c r="B257" t="inlineStr">
         <is>
-          <t>CA19243C1005</t>
+          <t>US29081P3038</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>COGNETIVITY NEUROC. LTD</t>
+          <t>EMBOTELL. ANDINA ADR B/6</t>
         </is>
       </c>
       <c r="D257" t="n">
@@ -10165,15 +10185,19 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="inlineStr"/>
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>CUBA</t>
+        </is>
+      </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>DE000A2TSU21</t>
+          <t>US42804T1060</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>WILD BUNCH AG O.N.</t>
+          <t>HERZFELD CARIBB. BAS. FD</t>
         </is>
       </c>
       <c r="D258" t="n">
@@ -10190,7 +10214,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
@@ -10205,12 +10229,12 @@
       <c r="A259" t="inlineStr"/>
       <c r="B259" t="inlineStr">
         <is>
-          <t>CA61634Q1081</t>
+          <t>ZAE000073441</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>MOOVLY MEDIA INC.</t>
+          <t>MURRAY ROBERTS     O.N.</t>
         </is>
       </c>
       <c r="D259" t="n">
@@ -10239,15 +10263,19 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="inlineStr"/>
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>EMF</t>
+        </is>
+      </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>CA87243W1032</t>
+          <t>US8801911012</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>THC BIOMED INTL</t>
+          <t>TEMPLETON EM.MKT FD DL-01</t>
         </is>
       </c>
       <c r="D260" t="n">
@@ -10264,7 +10292,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
@@ -10279,12 +10307,12 @@
       <c r="A261" t="inlineStr"/>
       <c r="B261" t="inlineStr">
         <is>
-          <t>CA64129Y1079</t>
+          <t>AU000000BCT7</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>NEUTRISCI INTL</t>
+          <t>BLUECHIIP LTD</t>
         </is>
       </c>
       <c r="D261" t="n">
@@ -10316,12 +10344,12 @@
       <c r="A262" t="inlineStr"/>
       <c r="B262" t="inlineStr">
         <is>
-          <t>CA64151W1023</t>
+          <t>AU000000CLZ3</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>NEVADA ZINC CORP.</t>
+          <t>CLASSIC MINERALS LTD.</t>
         </is>
       </c>
       <c r="D262" t="n">
@@ -10350,15 +10378,19 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="inlineStr"/>
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>KYN</t>
+        </is>
+      </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>DE000A1X3WW8</t>
+          <t>US4866061066</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>KHD HUMB.WEDAG VV NA O.N.</t>
+          <t>KAYNE ANDE.MLP/M.I.DL-001</t>
         </is>
       </c>
       <c r="D263" t="n">
@@ -10375,7 +10407,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
@@ -10387,15 +10419,19 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="inlineStr"/>
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>APAX.L</t>
+        </is>
+      </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>CA73965Q1028</t>
+          <t>GG00BWWYMV85</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>PRAIRIE PROVIDENT RES.INC</t>
+          <t>APAX GLOBAL ALPHA LTD</t>
         </is>
       </c>
       <c r="D264" t="n">
@@ -10412,7 +10448,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
@@ -10426,17 +10462,17 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>BBH.L</t>
+          <t>BPCR.L</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>GB00BZCNLL95</t>
+          <t>GB00BDGKMY29</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>BELLEVUE HE.TR.RED.LS-,01</t>
+          <t>BIOPHARMA CREDIT DL -,01</t>
         </is>
       </c>
       <c r="D265" t="n">
@@ -10468,12 +10504,12 @@
       <c r="A266" t="inlineStr"/>
       <c r="B266" t="inlineStr">
         <is>
-          <t>FR0000060618</t>
+          <t>GB00BKKD0862</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>RALLYE SA INH.      EO 3</t>
+          <t>RIVERFORT GL.OPP.LS-,0001</t>
         </is>
       </c>
       <c r="D266" t="n">
@@ -10502,15 +10538,19 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="inlineStr"/>
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>JE00BMDKH437.SG</t>
+        </is>
+      </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>HU0000089867</t>
+          <t>JE00BMDKH437</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>PANNERGY NYRT.NAM.UF 20</t>
+          <t>DIGITAL 9 INFRASTRUCTURE</t>
         </is>
       </c>
       <c r="D267" t="n">
@@ -10527,7 +10567,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
@@ -10542,12 +10582,12 @@
       <c r="A268" t="inlineStr"/>
       <c r="B268" t="inlineStr">
         <is>
-          <t>FR0011648971</t>
+          <t>DK0061411964</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>QUANTUM GENOMICS  EO -,04</t>
+          <t>CESSATECH A/S     DK -,20</t>
         </is>
       </c>
       <c r="D268" t="n">
@@ -10579,12 +10619,12 @@
       <c r="A269" t="inlineStr"/>
       <c r="B269" t="inlineStr">
         <is>
-          <t>FR0013410370</t>
+          <t>PLBRTZM00010</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>AUPLATA MIN. GRP EO-,0005</t>
+          <t>BORUTA-ZACHEM S.A. ZY-,10</t>
         </is>
       </c>
       <c r="D269" t="n">
@@ -10613,19 +10653,15 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>OIT.L</t>
-        </is>
-      </c>
+      <c r="A270" t="inlineStr"/>
       <c r="B270" t="inlineStr">
         <is>
-          <t>GB00BFFK7H57</t>
+          <t>PLCCTLS00017</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>ODYSSEAN INV. TRUST LS 1</t>
+          <t>LABOCANNA S.A.     ZY-,10</t>
         </is>
       </c>
       <c r="D270" t="n">
@@ -10642,7 +10678,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
@@ -10654,19 +10690,15 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>VOF.L</t>
-        </is>
-      </c>
+      <c r="A271" t="inlineStr"/>
       <c r="B271" t="inlineStr">
         <is>
-          <t>GG00BYXVT888</t>
+          <t>PLFRMGR00015</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>VINACAPITAL VN OPP.DL-,01</t>
+          <t>FARM 51 GROUP S.A.ZY -,10</t>
         </is>
       </c>
       <c r="D271" t="n">
@@ -10683,7 +10715,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
@@ -10698,12 +10730,12 @@
       <c r="A272" t="inlineStr"/>
       <c r="B272" t="inlineStr">
         <is>
-          <t>HK0000057171</t>
+          <t>CA85857E2033</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>CPMC HOLDINGS LTD</t>
+          <t>STELMINE CANADA LTD</t>
         </is>
       </c>
       <c r="D272" t="n">
@@ -10735,12 +10767,12 @@
       <c r="A273" t="inlineStr"/>
       <c r="B273" t="inlineStr">
         <is>
-          <t>SE0004210854</t>
+          <t>PLAQUA000014</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>CROWN ENERGY AB</t>
+          <t>AQUA SA             ZY 16</t>
         </is>
       </c>
       <c r="D273" t="n">
@@ -10772,12 +10804,12 @@
       <c r="A274" t="inlineStr"/>
       <c r="B274" t="inlineStr">
         <is>
-          <t>KYG215511091</t>
+          <t>PLBLKPC00014</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>CHINA ENERGINE INT.HD-,10</t>
+          <t>BLACK PEARL      ZY-,10</t>
         </is>
       </c>
       <c r="D274" t="n">
@@ -10809,12 +10841,12 @@
       <c r="A275" t="inlineStr"/>
       <c r="B275" t="inlineStr">
         <is>
-          <t>KYG407691040</t>
+          <t>PLICI0000010</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>GREATVIEW ASEP.PAC.HD-,01</t>
+          <t>IDH DEVELOPMENT S.A.</t>
         </is>
       </c>
       <c r="D275" t="n">
@@ -10846,12 +10878,12 @@
       <c r="A276" t="inlineStr"/>
       <c r="B276" t="inlineStr">
         <is>
-          <t>PAL2400671A3</t>
+          <t>CA36468X1069</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>INTERCORP FIN.SERV. O.N.</t>
+          <t>GAMEON ENTERTAINM. TECHS</t>
         </is>
       </c>
       <c r="D276" t="n">
@@ -10883,12 +10915,12 @@
       <c r="A277" t="inlineStr"/>
       <c r="B277" t="inlineStr">
         <is>
-          <t>KYG853951203</t>
+          <t>SE0014829495</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>STR.PETROCH.HLDGS HD-,025</t>
+          <t>STONEBEACH GROUP AB</t>
         </is>
       </c>
       <c r="D277" t="n">
@@ -10920,12 +10952,12 @@
       <c r="A278" t="inlineStr"/>
       <c r="B278" t="inlineStr">
         <is>
-          <t>SE0000120784</t>
+          <t>BE0974387194</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>SKAND.ENSK. BKN C FR.SK10</t>
+          <t>THERAVET S.A.</t>
         </is>
       </c>
       <c r="D278" t="n">
@@ -10956,17 +10988,17 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>NFPH.F</t>
+          <t>GB00BN6JYS78.SG</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>TH0083B10Z10</t>
+          <t>GB00BN6JYS78</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>THANACHART CAP.-FGN-BA 10</t>
+          <t>AQUILA ENERGY EFF.TR.-,01</t>
         </is>
       </c>
       <c r="D279" t="n">
@@ -10998,12 +11030,12 @@
       <c r="A280" t="inlineStr"/>
       <c r="B280" t="inlineStr">
         <is>
-          <t>TH0121010019</t>
+          <t>CA21872J3073</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>KIATNAKIN PH-FOREIGN-BA10</t>
+          <t>CORE ONE LABS INC.</t>
         </is>
       </c>
       <c r="D280" t="n">
@@ -11035,12 +11067,12 @@
       <c r="A281" t="inlineStr"/>
       <c r="B281" t="inlineStr">
         <is>
-          <t>SE0000514705</t>
+          <t>PLPNCHP00016</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>OBDUCAT AB B       SK 8</t>
+          <t>PUNCH PUNK S.A.    ZY-,10</t>
         </is>
       </c>
       <c r="D281" t="n">
@@ -11072,12 +11104,12 @@
       <c r="A282" t="inlineStr"/>
       <c r="B282" t="inlineStr">
         <is>
-          <t>US83367Y2072</t>
+          <t>CA84921X1078</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>S.ENER.ELEC.SP.GDR REGS 1</t>
+          <t>SPOTLITE360 IOT SOLUTIONS</t>
         </is>
       </c>
       <c r="D282" t="n">
@@ -11109,12 +11141,12 @@
       <c r="A283" t="inlineStr"/>
       <c r="B283" t="inlineStr">
         <is>
-          <t>US86959K1051</t>
+          <t>CA85209X1078</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>SUZANO S.A. ADR/1</t>
+          <t>SPROUT AI INC.</t>
         </is>
       </c>
       <c r="D283" t="n">
@@ -11146,12 +11178,12 @@
       <c r="A284" t="inlineStr"/>
       <c r="B284" t="inlineStr">
         <is>
-          <t>FI0009005953</t>
+          <t>CA76151T1030</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>STORA ENSO OYJ A EO 1,70</t>
+          <t>REVITALIST L.A.W. LTD</t>
         </is>
       </c>
       <c r="D284" t="n">
@@ -11183,12 +11215,12 @@
       <c r="A285" t="inlineStr"/>
       <c r="B285" t="inlineStr">
         <is>
-          <t>CA76156R1029</t>
+          <t>PLBKDGM00019</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>REVOLUGROUP CANADA INC</t>
+          <t>BAKED GAMES SA  ZY-,10</t>
         </is>
       </c>
       <c r="D285" t="n">
@@ -11217,19 +11249,15 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>PDX</t>
-        </is>
-      </c>
+      <c r="A286" t="inlineStr"/>
       <c r="B286" t="inlineStr">
         <is>
-          <t>US69346N1072</t>
+          <t>KYG6485S1021</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>PIMCO ENERGY+TACT.CR.OPPS</t>
+          <t>NEW HORIZ.HEAL. DL-,00005</t>
         </is>
       </c>
       <c r="D286" t="n">
@@ -11246,7 +11274,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
@@ -11258,15 +11286,19 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="inlineStr"/>
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>PIN.L</t>
+        </is>
+      </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>CA71401N1050</t>
+          <t>GB00BP37WF17</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>PERK LABS INC.  O.N.</t>
+          <t>PANTHEON INTL PLC LS-,067</t>
         </is>
       </c>
       <c r="D287" t="n">
@@ -11283,7 +11315,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
@@ -11298,12 +11330,12 @@
       <c r="A288" t="inlineStr"/>
       <c r="B288" t="inlineStr">
         <is>
-          <t>AU000000WKT6</t>
+          <t>CA57768L1058</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>WALKABOUT RESOURCES LTD</t>
+          <t>MAVEN BRANDS INC.</t>
         </is>
       </c>
       <c r="D288" t="n">
@@ -11335,12 +11367,12 @@
       <c r="A289" t="inlineStr"/>
       <c r="B289" t="inlineStr">
         <is>
-          <t>CA31447M1077</t>
+          <t>BG1100003166</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>FENIXORO GOLD CORP.</t>
+          <t>SHELLY GROUP PLC     EO 1</t>
         </is>
       </c>
       <c r="D289" t="n">
@@ -11372,12 +11404,12 @@
       <c r="A290" t="inlineStr"/>
       <c r="B290" t="inlineStr">
         <is>
-          <t>CA67054W1032</t>
+          <t>NL0015000NM7</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>NUMINUS WELLNESS INC.</t>
+          <t>QEV N.V.           EO-,01</t>
         </is>
       </c>
       <c r="D290" t="n">
@@ -11406,19 +11438,15 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>BSIF.L</t>
-        </is>
-      </c>
+      <c r="A291" t="inlineStr"/>
       <c r="B291" t="inlineStr">
         <is>
-          <t>GG00BB0RDB98</t>
+          <t>BMG525961063</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>BLUEFIELD SOLAR INCOME FD</t>
+          <t>ALLEGRO CULTURE LTD HD-,2</t>
         </is>
       </c>
       <c r="D291" t="n">
@@ -11435,7 +11463,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
@@ -11449,17 +11477,17 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>CGI.TO</t>
+          <t>JOF</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>CA1358251074</t>
+          <t>US47109U1043</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>CDN GENL INV. LTD</t>
+          <t>JP SM.CAP.FD       DL-,10</t>
         </is>
       </c>
       <c r="D292" t="n">
@@ -11488,19 +11516,15 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>DGS.TO</t>
-        </is>
-      </c>
+      <c r="A293" t="inlineStr"/>
       <c r="B293" t="inlineStr">
         <is>
-          <t>CA25537Y1043</t>
+          <t>CA54404Q2009</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>DIVIDEND GROWTH SPLIT</t>
+          <t>LORDS CO. WORLDW. HOLD.</t>
         </is>
       </c>
       <c r="D293" t="n">
@@ -11517,7 +11541,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
@@ -11531,17 +11555,17 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>MMP-UN.TO</t>
+          <t>PDO</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>CA7401731095</t>
+          <t>US69355M1071</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>PRECIOUS METAL + MIN.TR.</t>
+          <t>PIMCO DYN.INC.OP.BEN.</t>
         </is>
       </c>
       <c r="D294" t="n">
@@ -11573,12 +11597,12 @@
       <c r="A295" t="inlineStr"/>
       <c r="B295" t="inlineStr">
         <is>
-          <t>GB00BYZC5R04</t>
+          <t>CA91360F1099</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>CARACAL GOLD PLC  LS-,001</t>
+          <t>UNIVERSAL IBOGAINE INC.</t>
         </is>
       </c>
       <c r="D295" t="n">
@@ -11610,12 +11634,12 @@
       <c r="A296" t="inlineStr"/>
       <c r="B296" t="inlineStr">
         <is>
-          <t>CA5266813099</t>
+          <t>BG1100008074</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>LEONOVUS INC. O.N.</t>
+          <t>TCHAIKAPH.HIGHQ.MED. BW 1</t>
         </is>
       </c>
       <c r="D296" t="n">
@@ -11647,12 +11671,12 @@
       <c r="A297" t="inlineStr"/>
       <c r="B297" t="inlineStr">
         <is>
-          <t>CA45250L2049</t>
+          <t>GB00BLNBD412</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>IMAGIN MEDICAL INC.</t>
+          <t>AJAX RESOURCES PLC LS-,01</t>
         </is>
       </c>
       <c r="D297" t="n">
@@ -11681,19 +11705,15 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>BCAT</t>
-        </is>
-      </c>
+      <c r="A298" t="inlineStr"/>
       <c r="B298" t="inlineStr">
         <is>
-          <t>US09260U1097</t>
+          <t>SE0017486897</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>BR CAP.AL.TM TR DL-,001</t>
+          <t>ATLAS COPCO B FRIA.  O.N.</t>
         </is>
       </c>
       <c r="D298" t="n">
@@ -11710,7 +11730,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
@@ -11725,12 +11745,12 @@
       <c r="A299" t="inlineStr"/>
       <c r="B299" t="inlineStr">
         <is>
-          <t>AU0000107211</t>
+          <t>CA88165V2066</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>TOMBADOR IRON LTD.</t>
+          <t>TEVANO SYSTEMS HLDGS INC.</t>
         </is>
       </c>
       <c r="D299" t="n">
@@ -11762,12 +11782,12 @@
       <c r="A300" t="inlineStr"/>
       <c r="B300" t="inlineStr">
         <is>
-          <t>AU0000129710</t>
+          <t>CA42982U2065</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>HEALTH AND PL.PROT.GROUP</t>
+          <t>HIGHBANK RES LTD</t>
         </is>
       </c>
       <c r="D300" t="n">
@@ -11796,19 +11816,15 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>GB00BLPK4430.SG</t>
-        </is>
-      </c>
+      <c r="A301" t="inlineStr"/>
       <c r="B301" t="inlineStr">
         <is>
-          <t>GB00BLPK4430</t>
+          <t>CA0536981065</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>ECOFIN US REN.IN. DL -,01</t>
+          <t>AVILA ENERGY CORP.</t>
         </is>
       </c>
       <c r="D301" t="n">
@@ -11825,7 +11841,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
@@ -11840,12 +11856,12 @@
       <c r="A302" t="inlineStr"/>
       <c r="B302" t="inlineStr">
         <is>
-          <t>SE0015382148</t>
+          <t>CA4196213058</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>BLUELAKE MINERAL AB</t>
+          <t>HAVN LIFE SCIENCES INC.</t>
         </is>
       </c>
       <c r="D302" t="n">
@@ -11877,12 +11893,12 @@
       <c r="A303" t="inlineStr"/>
       <c r="B303" t="inlineStr">
         <is>
-          <t>BMG8301A1099</t>
+          <t>CA36269A2065</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>SOUTH.SECS INTL SECS</t>
+          <t>GAIA GROW CORP.</t>
         </is>
       </c>
       <c r="D303" t="n">
@@ -11914,12 +11930,12 @@
       <c r="A304" t="inlineStr"/>
       <c r="B304" t="inlineStr">
         <is>
-          <t>KYG4509G1055</t>
+          <t>KYG3691M1024</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>HILONG HOLDING LTD HD-,10</t>
+          <t>FULLWEALTH I.GRP.H.HD-,01</t>
         </is>
       </c>
       <c r="D304" t="n">
@@ -11951,12 +11967,12 @@
       <c r="A305" t="inlineStr"/>
       <c r="B305" t="inlineStr">
         <is>
-          <t>BMG749131071</t>
+          <t>IT0005516130</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>RENCO HOLDINGS GRP HD-,10</t>
+          <t>BIOERA SPA</t>
         </is>
       </c>
       <c r="D305" t="n">
@@ -11988,12 +12004,12 @@
       <c r="A306" t="inlineStr"/>
       <c r="B306" t="inlineStr">
         <is>
-          <t>US29081P2048</t>
+          <t>ES0105691002</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>EMBOTELL. ANDINA ADR A/6</t>
+          <t>APLICACIONES Y T.EO-,0012</t>
         </is>
       </c>
       <c r="D306" t="n">
@@ -12022,19 +12038,15 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>AIO</t>
-        </is>
-      </c>
+      <c r="A307" t="inlineStr"/>
       <c r="B307" t="inlineStr">
         <is>
-          <t>US92838Y1001</t>
+          <t>IT0005391229</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>VTSAGI A.I.+T.O.DL-,00001</t>
+          <t>E-NOVIA S.P.A.  EO-,01</t>
         </is>
       </c>
       <c r="D307" t="n">
@@ -12051,7 +12063,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
@@ -12063,19 +12075,15 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>GAB</t>
-        </is>
-      </c>
+      <c r="A308" t="inlineStr"/>
       <c r="B308" t="inlineStr">
         <is>
-          <t>US3623971013</t>
+          <t>TH0363010Z10</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>GABELLI EQUITY TR. DL-001</t>
+          <t>PRECIOUS SHIP. -FGN- BA 1</t>
         </is>
       </c>
       <c r="D308" t="n">
@@ -12092,7 +12100,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
@@ -12104,19 +12112,15 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
+      <c r="A309" t="inlineStr"/>
       <c r="B309" t="inlineStr">
         <is>
-          <t>US5301581048</t>
+          <t>GB00BMWLC750</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>LIB.ALL-ST.EQU. SBI</t>
+          <t>MILTON CAPITAL PLC LS-,01</t>
         </is>
       </c>
       <c r="D309" t="n">
@@ -12133,7 +12137,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
@@ -12148,12 +12152,12 @@
       <c r="A310" t="inlineStr"/>
       <c r="B310" t="inlineStr">
         <is>
-          <t>CA35954F1080</t>
+          <t>CA70470T2092</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>FUELPOSITIVE CORP.</t>
+          <t>PEAKBIRCH COMMERCE INC.</t>
         </is>
       </c>
       <c r="D310" t="n">
@@ -12185,12 +12189,12 @@
       <c r="A311" t="inlineStr"/>
       <c r="B311" t="inlineStr">
         <is>
-          <t>KYG6847M1087</t>
+          <t>PLMRTIN00011</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>OURGAME INT.HOL.DL-,00005</t>
+          <t>MERIT INVEST A,B,C ZY-,10</t>
         </is>
       </c>
       <c r="D311" t="n">
@@ -12219,19 +12223,15 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>GB00BHSRZC82.SG</t>
-        </is>
-      </c>
+      <c r="A312" t="inlineStr"/>
       <c r="B312" t="inlineStr">
         <is>
-          <t>GB00BHSRZC82</t>
+          <t>CA3613332061</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>EDINBURGH WORLDW.  LS-,01</t>
+          <t>G6 MATERIALS CORP.</t>
         </is>
       </c>
       <c r="D312" t="n">
@@ -12248,7 +12248,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
@@ -12260,19 +12260,15 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>GG00BMC7TM77.SG</t>
-        </is>
-      </c>
+      <c r="A313" t="inlineStr"/>
       <c r="B313" t="inlineStr">
         <is>
-          <t>GG00BMC7TM77</t>
+          <t>US86804J2042</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>CORDIANT DIGITAL INFRAST.</t>
+          <t>SUNWODA ELECTR. GDR REG S</t>
         </is>
       </c>
       <c r="D313" t="n">
@@ -12289,7 +12285,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
@@ -12304,12 +12300,12 @@
       <c r="A314" t="inlineStr"/>
       <c r="B314" t="inlineStr">
         <is>
-          <t>AU0000137598</t>
+          <t>AU0000276149</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>EPSILON HEALTHCARE LTD.</t>
+          <t>STRATA INVEST.H.CDI/1:1</t>
         </is>
       </c>
       <c r="D314" t="n">
@@ -12341,12 +12337,12 @@
       <c r="A315" t="inlineStr"/>
       <c r="B315" t="inlineStr">
         <is>
-          <t>CA53633C1077</t>
+          <t>SE0020846392</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>LIQUID AVATAR TECHNO.INC.</t>
+          <t>NODEBIS APPLICATIONS AB</t>
         </is>
       </c>
       <c r="D315" t="n">
@@ -12378,12 +12374,12 @@
       <c r="A316" t="inlineStr"/>
       <c r="B316" t="inlineStr">
         <is>
-          <t>GB0002192606</t>
+          <t>PLBABY000016</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>ROSS GRP PLC       LS-,01</t>
+          <t>NOVINA S.A.     E ZY 1,16</t>
         </is>
       </c>
       <c r="D316" t="n">
@@ -12415,12 +12411,12 @@
       <c r="A317" t="inlineStr"/>
       <c r="B317" t="inlineStr">
         <is>
-          <t>CA0682943059</t>
+          <t>PLJJBEE00028</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>BAROYECA GOLD+SILVER INC.</t>
+          <t>JUJUBEE S.A.     ZY -,10</t>
         </is>
       </c>
       <c r="D317" t="n">
@@ -12452,12 +12448,12 @@
       <c r="A318" t="inlineStr"/>
       <c r="B318" t="inlineStr">
         <is>
-          <t>CA52731E1060</t>
+          <t>US7169722037</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>LEVELJUMP HEALTHCARE CORP</t>
+          <t>PHARMAESSENT.GDR RS TA 10</t>
         </is>
       </c>
       <c r="D318" t="n">
@@ -12486,19 +12482,15 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>NESF.L</t>
-        </is>
-      </c>
+      <c r="A319" t="inlineStr"/>
       <c r="B319" t="inlineStr">
         <is>
-          <t>GG00BJ0JVY01</t>
+          <t>KYG5700Y2097</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>NEXTENERGY SOLAR FD</t>
+          <t>LUFAX HLDG.L. A DL-,00001</t>
         </is>
       </c>
       <c r="D319" t="n">
@@ -12515,7 +12507,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr"/>
@@ -12527,19 +12519,15 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>CSRD.L</t>
-        </is>
-      </c>
+      <c r="A320" t="inlineStr"/>
       <c r="B320" t="inlineStr">
         <is>
-          <t>GG00BMDGQT90</t>
+          <t>AT0000A38M45</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>CORDIANT DIGITAL INFR.SUB</t>
+          <t>CLEEN ENERGY AG</t>
         </is>
       </c>
       <c r="D320" t="n">
@@ -12556,7 +12544,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr"/>
@@ -12571,12 +12559,12 @@
       <c r="A321" t="inlineStr"/>
       <c r="B321" t="inlineStr">
         <is>
-          <t>US11259P1093</t>
+          <t>IT0005573966</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>BROOKF.B.H.  4,62 PR.SHS</t>
+          <t>YAKKYO S.P.A.        O.N.</t>
         </is>
       </c>
       <c r="D321" t="n">
@@ -12607,17 +12595,17 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>SEED.L</t>
+          <t>ABND.CN</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>GG00BRK9BQ81</t>
+          <t>CA0037351073</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>SEED INNOVATIONS LTD.</t>
+          <t>ABOUND ENERGY INC.  O.N.</t>
         </is>
       </c>
       <c r="D322" t="n">
@@ -12649,12 +12637,12 @@
       <c r="A323" t="inlineStr"/>
       <c r="B323" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>US20441B7047</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>CANNABIS POLAND A,B ZY-10</t>
+          <t>C. PARAN. EN. SP.ADR/4</t>
         </is>
       </c>
       <c r="D323" t="n">
@@ -12683,15 +12671,19 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="inlineStr"/>
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>IGC.L</t>
+        </is>
+      </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>PLCRFRG00016</t>
+          <t>GB00B0P8RJ60</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>CREATIVEF. G.S.A-K ZY-,23</t>
+          <t>INDIA CAPITAL GRO. LS-,01</t>
         </is>
       </c>
       <c r="D324" t="n">
@@ -12708,7 +12700,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr"/>
@@ -12720,15 +12712,19 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="inlineStr"/>
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>NXG</t>
+        </is>
+      </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>PLIMGPW00013</t>
+          <t>US2316472073</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>IMAGE POWER S.A.  ZY -,10</t>
+          <t>CUSHING RENAISSANCE SBI</t>
         </is>
       </c>
       <c r="D325" t="n">
@@ -12745,7 +12741,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr"/>
@@ -12760,12 +12756,12 @@
       <c r="A326" t="inlineStr"/>
       <c r="B326" t="inlineStr">
         <is>
-          <t>PLAIRMK00017</t>
+          <t>AU0000310211</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>MOLIERA2 S.A.      ZY-,10</t>
+          <t>REDIVIUM LTD.</t>
         </is>
       </c>
       <c r="D326" t="n">
@@ -12794,15 +12790,19 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="inlineStr"/>
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>FAX</t>
+        </is>
+      </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>PLGPPIK00011</t>
+          <t>US0030098679</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>FIGENE CAPITAL SA  ZY 1</t>
+          <t>ABRDN.A.PAC.         O.N.</t>
         </is>
       </c>
       <c r="D327" t="n">
@@ -12819,7 +12819,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr"/>
@@ -12834,12 +12834,12 @@
       <c r="A328" t="inlineStr"/>
       <c r="B328" t="inlineStr">
         <is>
-          <t>PLGRMID00019</t>
+          <t>US59564R8079</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>GREMI MEDIA S.A. ZY 4</t>
+          <t>BIODEXA PHARMA ADR O.N.</t>
         </is>
       </c>
       <c r="D328" t="n">
@@ -12871,12 +12871,12 @@
       <c r="A329" t="inlineStr"/>
       <c r="B329" t="inlineStr">
         <is>
-          <t>SE0000885501</t>
+          <t>HU0000199351</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>LEVEL BIO AB          SK1</t>
+          <t>ESENSE HU.RE.SZ.NYRT UF 2</t>
         </is>
       </c>
       <c r="D329" t="n">
@@ -12905,19 +12905,15 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>GB00BNG2M159.SG</t>
-        </is>
-      </c>
+      <c r="A330" t="inlineStr"/>
       <c r="B330" t="inlineStr">
         <is>
-          <t>GB00BNG2M159</t>
+          <t>AU000000CXM6</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>ALLIANZ TECHNO.TR.LS-,025</t>
+          <t>CENTREX LTD.</t>
         </is>
       </c>
       <c r="D330" t="n">
@@ -12934,7 +12930,7 @@
         </is>
       </c>
       <c r="G330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr"/>
@@ -12949,12 +12945,12 @@
       <c r="A331" t="inlineStr"/>
       <c r="B331" t="inlineStr">
         <is>
-          <t>PLEXCLN00016</t>
+          <t>SE0023468194</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>EXCELLENCE S.A.   ZY -,10</t>
+          <t>TANGIAMO TOUCH TECHN. AB</t>
         </is>
       </c>
       <c r="D331" t="n">
@@ -12986,12 +12982,12 @@
       <c r="A332" t="inlineStr"/>
       <c r="B332" t="inlineStr">
         <is>
-          <t>PLFRENT00014</t>
+          <t>SE0023469200</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>FOREVER ENTERTAIN. ZY-,40</t>
+          <t>BRANDBEE HOLDING AB</t>
         </is>
       </c>
       <c r="D332" t="n">
@@ -13023,12 +13019,12 @@
       <c r="A333" t="inlineStr"/>
       <c r="B333" t="inlineStr">
         <is>
-          <t>PLYLWHT00012</t>
+          <t>PLVGUAR00011</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>MEDAPP S.A.       ZY -,10</t>
+          <t>DEVORAN SA        ZY -,1</t>
         </is>
       </c>
       <c r="D333" t="n">
@@ -13060,12 +13056,12 @@
       <c r="A334" t="inlineStr"/>
       <c r="B334" t="inlineStr">
         <is>
-          <t>CA1057361026</t>
+          <t>JP3646700009</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>BRAXIA SCIENTIFIC CORP.</t>
+          <t>NAKAYAMA FUDOUSAN CO.LTD</t>
         </is>
       </c>
       <c r="D334" t="n">
@@ -13097,12 +13093,12 @@
       <c r="A335" t="inlineStr"/>
       <c r="B335" t="inlineStr">
         <is>
-          <t>PLGEOTR00010</t>
+          <t>DK0063631999</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>GEOTRANS S.A.    ZY -,10</t>
+          <t>DANCANN PHARMA       DK 1</t>
         </is>
       </c>
       <c r="D335" t="n">
@@ -13134,12 +13130,12 @@
       <c r="A336" t="inlineStr"/>
       <c r="B336" t="inlineStr">
         <is>
-          <t>PLGDVIS00018</t>
+          <t>US78397C2098</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>LETUS CAPITAL ZY 1</t>
+          <t>SDIC POWER HLDG GDR REG S</t>
         </is>
       </c>
       <c r="D336" t="n">
@@ -13171,12 +13167,12 @@
       <c r="A337" t="inlineStr"/>
       <c r="B337" t="inlineStr">
         <is>
-          <t>SE0015658117</t>
+          <t>US80106T2006</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>EPIROC AB B</t>
+          <t>SANRIO CO. LTD. ADRS</t>
         </is>
       </c>
       <c r="D337" t="n">
@@ -13208,12 +13204,12 @@
       <c r="A338" t="inlineStr"/>
       <c r="B338" t="inlineStr">
         <is>
-          <t>PLGRMNK00014</t>
+          <t>US48268G1004</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>MENNICA SKARB.A,B ZY -,10</t>
+          <t>KT+G CORP.(GDR144A)1/2</t>
         </is>
       </c>
       <c r="D338" t="n">
@@ -13245,12 +13241,12 @@
       <c r="A339" t="inlineStr"/>
       <c r="B339" t="inlineStr">
         <is>
-          <t>PLJRSDB00015</t>
+          <t>CA69902F1009</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>FINTECH S.A.         ZY 5</t>
+          <t>PARADIGM GOLD CORP.</t>
         </is>
       </c>
       <c r="D339" t="n">
@@ -13279,15 +13275,19 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="inlineStr"/>
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>GLD.JO</t>
+        </is>
+      </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>PLM4B0000017</t>
+          <t>ZAE000060067</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>M4B SA            ZY 8</t>
+          <t>NEWGOLD ISSUER (RF) LTD.</t>
         </is>
       </c>
       <c r="D340" t="n">
@@ -13304,7 +13304,7 @@
         </is>
       </c>
       <c r="G340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr"/>
@@ -13319,12 +13319,12 @@
       <c r="A341" t="inlineStr"/>
       <c r="B341" t="inlineStr">
         <is>
-          <t>PLPBLIA00012</t>
+          <t>AU000000KLL6</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>ERATO ENERGY S.A.   ZY-02</t>
+          <t>KALIUM LAKES LTD O.N.</t>
         </is>
       </c>
       <c r="D341" t="n">
@@ -13353,15 +13353,19 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="inlineStr"/>
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>SBO.L</t>
+        </is>
+      </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>PLRKLMF00010</t>
+          <t>GB00BN7JZR28</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>PRIME ASI S.A.      ZY 10</t>
+          <t>SCHRODER BRITISH   LS-,01</t>
         </is>
       </c>
       <c r="D342" t="n">
@@ -13378,7 +13382,7 @@
         </is>
       </c>
       <c r="G342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr"/>
@@ -13393,12 +13397,12 @@
       <c r="A343" t="inlineStr"/>
       <c r="B343" t="inlineStr">
         <is>
-          <t>PLROCCA00013</t>
+          <t>PLA346100011</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>ROCCA SA          ZY -,05</t>
+          <t>MADMIND STUDIO  ZY-,50</t>
         </is>
       </c>
       <c r="D343" t="n">
@@ -13430,12 +13434,12 @@
       <c r="A344" t="inlineStr"/>
       <c r="B344" t="inlineStr">
         <is>
-          <t>PLRSYSA00014</t>
+          <t>GB00BPP4RY41</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>SUNDRAGON S.A.    ZY-,1</t>
+          <t>UNIGEL GROUP LTD. LS-,005</t>
         </is>
       </c>
       <c r="D344" t="n">
@@ -13467,12 +13471,12 @@
       <c r="A345" t="inlineStr"/>
       <c r="B345" t="inlineStr">
         <is>
-          <t>PLSFD0000013</t>
+          <t>PLMDNPL00013</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>SFD SA            ZY -,10</t>
+          <t>MEDIAN POLSKA S.A. ZY-,10</t>
         </is>
       </c>
       <c r="D345" t="n">
@@ -13504,12 +13508,12 @@
       <c r="A346" t="inlineStr"/>
       <c r="B346" t="inlineStr">
         <is>
-          <t>PLSITE000013</t>
+          <t>BG1100008132</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>MUNAR             ZY -,10</t>
+          <t>SYNTHETICA AD-SOFIA  BW 1</t>
         </is>
       </c>
       <c r="D346" t="n">
@@ -13541,12 +13545,12 @@
       <c r="A347" t="inlineStr"/>
       <c r="B347" t="inlineStr">
         <is>
-          <t>PLSTRGM00014</t>
+          <t>ES0105670006</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>CENTURION FIN.A-C ZY -,10</t>
+          <t>UMBRELLA GL.ENERGY EO-,02</t>
         </is>
       </c>
       <c r="D347" t="n">
@@ -13578,12 +13582,12 @@
       <c r="A348" t="inlineStr"/>
       <c r="B348" t="inlineStr">
         <is>
-          <t>US4101204067</t>
+          <t>CA2107373003</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>HANCOCK WHITNEY SU.NTS 25</t>
+          <t>CONTAGIOUS GAMING INC.</t>
         </is>
       </c>
       <c r="D348" t="n">
@@ -13615,12 +13619,12 @@
       <c r="A349" t="inlineStr"/>
       <c r="B349" t="inlineStr">
         <is>
-          <t>US55025L2079</t>
+          <t>AU000000ACS1</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>LUMENT FINAN.TR.PRF.A 25</t>
+          <t>ACCENT RES N.L.</t>
         </is>
       </c>
       <c r="D349" t="n">
@@ -13649,19 +13653,15 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>PDI</t>
-        </is>
-      </c>
+      <c r="A350" t="inlineStr"/>
       <c r="B350" t="inlineStr">
         <is>
-          <t>US72201Y1010</t>
+          <t>CA09075M1023</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>PIMCO DYNAMIC INCOME FD</t>
+          <t>BIOME GROW INC.</t>
         </is>
       </c>
       <c r="D350" t="n">
@@ -13678,7 +13678,7 @@
         </is>
       </c>
       <c r="G350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr"/>
@@ -13690,19 +13690,15 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>RCG</t>
-        </is>
-      </c>
+      <c r="A351" t="inlineStr"/>
       <c r="B351" t="inlineStr">
         <is>
-          <t>US7597201059</t>
+          <t>CA12507V1040</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>RENN FUND INC.</t>
+          <t>CBLT INC.</t>
         </is>
       </c>
       <c r="D351" t="n">
@@ -13719,7 +13715,7 @@
         </is>
       </c>
       <c r="G351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr"/>
@@ -13731,19 +13727,15 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>UTG</t>
-        </is>
-      </c>
+      <c r="A352" t="inlineStr"/>
       <c r="B352" t="inlineStr">
         <is>
-          <t>US7561581015</t>
+          <t>AU000000JRV4</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>REAVES UTILITY INC. SBI</t>
+          <t>JERVOIS GLOBAL LTD.</t>
         </is>
       </c>
       <c r="D352" t="n">
@@ -13760,7 +13752,7 @@
         </is>
       </c>
       <c r="G352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr"/>
@@ -13775,12 +13767,12 @@
       <c r="A353" t="inlineStr"/>
       <c r="B353" t="inlineStr">
         <is>
-          <t>PLCRLNS00018</t>
+          <t>CA1352081063</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>ZORTRAX S.A.      ZY -,10</t>
+          <t>CANADA RARE EARTH CORP.</t>
         </is>
       </c>
       <c r="D353" t="n">
@@ -13809,19 +13801,15 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>3IN.L</t>
-        </is>
-      </c>
+      <c r="A354" t="inlineStr"/>
       <c r="B354" t="inlineStr">
         <is>
-          <t>JE00BF5FX167</t>
+          <t>CA3935762029</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>3I INFRASTRUCTURE</t>
+          <t>GREENBANK CAPITAL</t>
         </is>
       </c>
       <c r="D354" t="n">
@@ -13838,7 +13826,7 @@
         </is>
       </c>
       <c r="G354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr"/>
@@ -13853,12 +13841,12 @@
       <c r="A355" t="inlineStr"/>
       <c r="B355" t="inlineStr">
         <is>
-          <t>SE0015962105</t>
+          <t>AU000000LKO0</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>QBRICK AB (PUBL)</t>
+          <t>LAKES BLUE ENERGY N.L.</t>
         </is>
       </c>
       <c r="D355" t="n">
@@ -13890,12 +13878,12 @@
       <c r="A356" t="inlineStr"/>
       <c r="B356" t="inlineStr">
         <is>
-          <t>US76882G2066</t>
+          <t>AU000000LPD2</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>RIVERNTH/DB.STR.OPP.PRF.A</t>
+          <t>LEPIDICO LTD</t>
         </is>
       </c>
       <c r="D356" t="n">
@@ -13927,12 +13915,12 @@
       <c r="A357" t="inlineStr"/>
       <c r="B357" t="inlineStr">
         <is>
-          <t>IT0005450173</t>
+          <t>CA15722J1030</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>MEGLIOQUESTO S.P.A.</t>
+          <t>CEYLON GRAPHITE CORP.</t>
         </is>
       </c>
       <c r="D357" t="n">
@@ -13964,12 +13952,12 @@
       <c r="A358" t="inlineStr"/>
       <c r="B358" t="inlineStr">
         <is>
-          <t>CA60743X1033</t>
+          <t>DE000A2TSU21</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>MOBILUM TECHNOLOGIES INC.</t>
+          <t>WILD BUNCH AG O.N.</t>
         </is>
       </c>
       <c r="D358" t="n">
@@ -13998,19 +13986,15 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>CEE</t>
-        </is>
-      </c>
+      <c r="A359" t="inlineStr"/>
       <c r="B359" t="inlineStr">
         <is>
-          <t>US1534361001</t>
+          <t>CA61634Q1081</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>CENT.+EAST.EUR.FD DL-,001</t>
+          <t>MOOVLY MEDIA INC.</t>
         </is>
       </c>
       <c r="D359" t="n">
@@ -14027,7 +14011,7 @@
         </is>
       </c>
       <c r="G359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H359" t="inlineStr"/>
       <c r="I359" t="inlineStr"/>
@@ -14042,12 +14026,12 @@
       <c r="A360" t="inlineStr"/>
       <c r="B360" t="inlineStr">
         <is>
-          <t>CA05455W1086</t>
+          <t>CA64129Y1079</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>AWAKN LIFE SCIENCES CORP</t>
+          <t>NEUTRISCI INTL</t>
         </is>
       </c>
       <c r="D360" t="n">
@@ -14079,12 +14063,12 @@
       <c r="A361" t="inlineStr"/>
       <c r="B361" t="inlineStr">
         <is>
-          <t>AU000000MNS3</t>
+          <t>CA64151W1023</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>MAGNIS ENERGY TECHNOL.LTD</t>
+          <t>NEVADA ZINC CORP.</t>
         </is>
       </c>
       <c r="D361" t="n">
@@ -14116,12 +14100,12 @@
       <c r="A362" t="inlineStr"/>
       <c r="B362" t="inlineStr">
         <is>
-          <t>CA0994031072</t>
+          <t>DE000A1X3WW8</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>BOOSH PLANT-BASED BRANDS</t>
+          <t>KHD HUMB.WEDAG VV NA O.N.</t>
         </is>
       </c>
       <c r="D362" t="n">
@@ -14153,12 +14137,12 @@
       <c r="A363" t="inlineStr"/>
       <c r="B363" t="inlineStr">
         <is>
-          <t>CA27786T1093</t>
+          <t>CA73965Q1028</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>EAT WELL INVESTMENT GROUP</t>
+          <t>PRAIRIE PROVIDENT RES.INC</t>
         </is>
       </c>
       <c r="D363" t="n">
@@ -14190,12 +14174,12 @@
       <c r="A364" t="inlineStr"/>
       <c r="B364" t="inlineStr">
         <is>
-          <t>CA46414Q1054</t>
+          <t>FR0000060618</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>IRWIN NATURALS INC.</t>
+          <t>RALLYE SA INH.      EO 3</t>
         </is>
       </c>
       <c r="D364" t="n">
@@ -14224,19 +14208,15 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>BMEZ</t>
-        </is>
-      </c>
+      <c r="A365" t="inlineStr"/>
       <c r="B365" t="inlineStr">
         <is>
-          <t>US09260E1055</t>
+          <t>FR0011648971</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>BR HL.SC.TM TR.</t>
+          <t>QUANTUM GENOMICS  EO -,04</t>
         </is>
       </c>
       <c r="D365" t="n">
@@ -14253,7 +14233,7 @@
         </is>
       </c>
       <c r="G365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H365" t="inlineStr"/>
       <c r="I365" t="inlineStr"/>
@@ -14265,15 +14245,19 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" t="inlineStr"/>
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>OIT.L</t>
+        </is>
+      </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>PLCNSLB00012</t>
+          <t>GB00BFFK7H57</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>CONSOLE LABS SA  ZY-,10</t>
+          <t>ODYSSEAN INV. TRUST LS 1</t>
         </is>
       </c>
       <c r="D366" t="n">
@@ -14290,7 +14274,7 @@
         </is>
       </c>
       <c r="G366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr"/>
@@ -14304,17 +14288,17 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>QETH-U.TO</t>
+          <t>VOF.L</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>CA29764L1085</t>
+          <t>GG00BYXVT888</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>THE ETHER FUND   CL.A</t>
+          <t>VINACAPITAL VN OPP.DL-,01</t>
         </is>
       </c>
       <c r="D367" t="n">
@@ -14346,12 +14330,12 @@
       <c r="A368" t="inlineStr"/>
       <c r="B368" t="inlineStr">
         <is>
-          <t>CA34416F1036</t>
+          <t>KYG215511091</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>FOBI AI INC.</t>
+          <t>CHINA ENERGINE INT.HD-,10</t>
         </is>
       </c>
       <c r="D368" t="n">
@@ -14383,12 +14367,12 @@
       <c r="A369" t="inlineStr"/>
       <c r="B369" t="inlineStr">
         <is>
-          <t>NO0010692130</t>
+          <t>KYG407691040</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>GENETIC ANALYSIS  NK -,60</t>
+          <t>GREATVIEW ASEP.PAC.HD-,01</t>
         </is>
       </c>
       <c r="D369" t="n">
@@ -14420,12 +14404,12 @@
       <c r="A370" t="inlineStr"/>
       <c r="B370" t="inlineStr">
         <is>
-          <t>CA2241301043</t>
+          <t>KYG853951203</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>CRAFTPORT CANNABIS CORP.</t>
+          <t>STR.PETROCH.HLDGS HD-,025</t>
         </is>
       </c>
       <c r="D370" t="n">
@@ -14457,12 +14441,12 @@
       <c r="A371" t="inlineStr"/>
       <c r="B371" t="inlineStr">
         <is>
-          <t>SE0017161458</t>
+          <t>SE0000120784</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>SVOLDER AB B O.N.</t>
+          <t>SKAND.ENSK. BKN C FR.SK10</t>
         </is>
       </c>
       <c r="D371" t="n">
@@ -14494,12 +14478,12 @@
       <c r="A372" t="inlineStr"/>
       <c r="B372" t="inlineStr">
         <is>
-          <t>IT0005380602</t>
+          <t>FI0009005953</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>SIPARIO MOVIES S.P.A.</t>
+          <t>STORA ENSO OYJ A EO 1,70</t>
         </is>
       </c>
       <c r="D372" t="n">
@@ -14531,12 +14515,12 @@
       <c r="A373" t="inlineStr"/>
       <c r="B373" t="inlineStr">
         <is>
-          <t>SE0014609194</t>
+          <t>AU000000WKT6</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>AMNODE AB            O.N.</t>
+          <t>WALKABOUT RESOURCES LTD</t>
         </is>
       </c>
       <c r="D373" t="n">
@@ -14568,12 +14552,12 @@
       <c r="A374" t="inlineStr"/>
       <c r="B374" t="inlineStr">
         <is>
-          <t>CA0877372015</t>
+          <t>CA31447M1077</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>BETTER PLANT SCIENCES INC</t>
+          <t>FENIXORO GOLD CORP.</t>
         </is>
       </c>
       <c r="D374" t="n">
@@ -14602,15 +14586,19 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" t="inlineStr"/>
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>BSIF.L</t>
+        </is>
+      </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>CA95081C1059</t>
+          <t>GG00BB0RDB98</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>WESANA HEALTH HOLD. INC.</t>
+          <t>BLUEFIELD SOLAR INCOME FD</t>
         </is>
       </c>
       <c r="D375" t="n">
@@ -14627,7 +14615,7 @@
         </is>
       </c>
       <c r="G375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H375" t="inlineStr"/>
       <c r="I375" t="inlineStr"/>
@@ -14639,15 +14627,19 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" t="inlineStr"/>
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>CGI.TO</t>
+        </is>
+      </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>CA49601P1045</t>
+          <t>CA1358251074</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>KINGS ENTERTAINMENT GROUP</t>
+          <t>CDN GENL INV. LTD</t>
         </is>
       </c>
       <c r="D376" t="n">
@@ -14664,7 +14656,7 @@
         </is>
       </c>
       <c r="G376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="inlineStr"/>
@@ -14678,17 +14670,17 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>DHT-UN.TO</t>
+          <t>DGS.TO</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>CA23344H1091</t>
+          <t>CA25537Y1043</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>DRI HEALTHCARE TRUST UT</t>
+          <t>DIVIDEND GROWTH SPLIT</t>
         </is>
       </c>
       <c r="D377" t="n">
@@ -14720,12 +14712,12 @@
       <c r="A378" t="inlineStr"/>
       <c r="B378" t="inlineStr">
         <is>
-          <t>NO0011202772</t>
+          <t>CA5266813099</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>VAR ENERGI ASA</t>
+          <t>LEONOVUS INC. O.N.</t>
         </is>
       </c>
       <c r="D378" t="n">
@@ -14754,19 +14746,15 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>XTBLX</t>
-        </is>
-      </c>
+      <c r="A379" t="inlineStr"/>
       <c r="B379" t="inlineStr">
         <is>
-          <t>US8852131080</t>
+          <t>SE0015382148</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>THORNBURG INC.BLD.OPP.TR.</t>
+          <t>BLUELAKE MINERAL AB</t>
         </is>
       </c>
       <c r="D379" t="n">
@@ -14783,7 +14771,7 @@
         </is>
       </c>
       <c r="G379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr"/>
@@ -14795,19 +14783,15 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>HGLB</t>
-        </is>
-      </c>
+      <c r="A380" t="inlineStr"/>
       <c r="B380" t="inlineStr">
         <is>
-          <t>US43010T1043</t>
+          <t>US29081P2048</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>HIGHL.GL ALLOC.</t>
+          <t>EMBOTELL. ANDINA ADR A/6</t>
         </is>
       </c>
       <c r="D380" t="n">
@@ -14824,7 +14808,7 @@
         </is>
       </c>
       <c r="G380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr"/>
@@ -14836,15 +14820,19 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" t="inlineStr"/>
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>AIO</t>
+        </is>
+      </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>ES0105091005</t>
+          <t>US92838Y1001</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>CORPFIN C.P.R.II S.EO-,67</t>
+          <t>VTSAGI A.I.+T.O.DL-,00001</t>
         </is>
       </c>
       <c r="D381" t="n">
@@ -14861,7 +14849,7 @@
         </is>
       </c>
       <c r="G381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H381" t="inlineStr"/>
       <c r="I381" t="inlineStr"/>
@@ -14873,15 +14861,19 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" t="inlineStr"/>
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>BG11MPKAAT18</t>
+          <t>US5301581048</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>M+S HIDRAVLIK AD     BW 1</t>
+          <t>LIB.ALL-ST.EQU. SBI</t>
         </is>
       </c>
       <c r="D382" t="n">
@@ -14898,7 +14890,7 @@
         </is>
       </c>
       <c r="G382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr"/>
@@ -14913,12 +14905,12 @@
       <c r="A383" t="inlineStr"/>
       <c r="B383" t="inlineStr">
         <is>
-          <t>BG1100017174</t>
+          <t>CA35954F1080</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>235 HOLDINGS          BW1</t>
+          <t>FUELPOSITIVE CORP.</t>
         </is>
       </c>
       <c r="D383" t="n">
@@ -14950,12 +14942,12 @@
       <c r="A384" t="inlineStr"/>
       <c r="B384" t="inlineStr">
         <is>
-          <t>FR0012969095</t>
+          <t>KYG6847M1087</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>CAPELLI NOM.      EO 6,84</t>
+          <t>OURGAME INT.HOL.DL-,00005</t>
         </is>
       </c>
       <c r="D384" t="n">
@@ -14984,15 +14976,19 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" t="inlineStr"/>
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>GB00BHSRZC82.SG</t>
+        </is>
+      </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>CA18912D1006</t>
+          <t>GB00BHSRZC82</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>CLOUD DX INC.</t>
+          <t>EDINBURGH WORLDW.  LS-,01</t>
         </is>
       </c>
       <c r="D385" t="n">
@@ -15009,7 +15005,7 @@
         </is>
       </c>
       <c r="G385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H385" t="inlineStr"/>
       <c r="I385" t="inlineStr"/>
@@ -15021,15 +15017,19 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" t="inlineStr"/>
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>GG00BMC7TM77.SG</t>
+        </is>
+      </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>GB00BKPH9N11</t>
+          <t>GG00BMC7TM77</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>AURA RENEWABLE ACQ. LS-01</t>
+          <t>CORDIANT DIGITAL INFRAST.</t>
         </is>
       </c>
       <c r="D386" t="n">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="G386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr"/>
@@ -15061,12 +15061,12 @@
       <c r="A387" t="inlineStr"/>
       <c r="B387" t="inlineStr">
         <is>
-          <t>PLGMV0000016</t>
+          <t>CA53633C1077</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>GAMIVO S.A.   ZY -,10</t>
+          <t>LIQUID AVATAR TECHNO.INC.</t>
         </is>
       </c>
       <c r="D387" t="n">
@@ -15095,19 +15095,15 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>TMPL.L</t>
-        </is>
-      </c>
+      <c r="A388" t="inlineStr"/>
       <c r="B388" t="inlineStr">
         <is>
-          <t>GB00BMV92D64</t>
+          <t>GB0002192606</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>TEMPLE BAR INV.TR. LS-,05</t>
+          <t>ROSS GRP PLC       LS-,01</t>
         </is>
       </c>
       <c r="D388" t="n">
@@ -15124,7 +15120,7 @@
         </is>
       </c>
       <c r="G388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H388" t="inlineStr"/>
       <c r="I388" t="inlineStr"/>
@@ -15136,15 +15132,19 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" t="inlineStr"/>
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>NESF.L</t>
+        </is>
+      </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>BG1100051983</t>
+          <t>GG00BJ0JVY01</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>RODNA ZEMYA HLDG AD  BW 1</t>
+          <t>NEXTENERGY SOLAR FD</t>
         </is>
       </c>
       <c r="D389" t="n">
@@ -15161,7 +15161,7 @@
         </is>
       </c>
       <c r="G389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr"/>
@@ -15173,15 +15173,19 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" t="inlineStr"/>
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>CSRD.L</t>
+        </is>
+      </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>US4872351030</t>
+          <t>GG00BMDGQT90</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>KEDA INDL GRP.C.LTD GDR A</t>
+          <t>CORDIANT DIGITAL INFR.SUB</t>
         </is>
       </c>
       <c r="D390" t="n">
@@ -15198,7 +15202,7 @@
         </is>
       </c>
       <c r="G390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H390" t="inlineStr"/>
       <c r="I390" t="inlineStr"/>
@@ -15212,17 +15216,17 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>PNL.L</t>
+          <t>SEED.L</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>GB00BM8B5H06</t>
+          <t>GG00BRK9BQ81</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>PERSONAL ASSETS   LS-,125</t>
+          <t>SEED INNOVATIONS LTD.</t>
         </is>
       </c>
       <c r="D391" t="n">
@@ -15251,19 +15255,15 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>PRM.TO</t>
-        </is>
-      </c>
+      <c r="A392" t="inlineStr"/>
       <c r="B392" t="inlineStr">
         <is>
-          <t>CA08934P1080</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>BIG PHARMA SPLIT  CL.A</t>
+          <t>CANNABIS POLAND A,B ZY-10</t>
         </is>
       </c>
       <c r="D392" t="n">
@@ -15280,7 +15280,7 @@
         </is>
       </c>
       <c r="G392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H392" t="inlineStr"/>
       <c r="I392" t="inlineStr"/>
@@ -15292,19 +15292,15 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>QFG.BR</t>
-        </is>
-      </c>
+      <c r="A393" t="inlineStr"/>
       <c r="B393" t="inlineStr">
         <is>
-          <t>BE0003730448</t>
+          <t>PLIMGPW00013</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>QUEST FOR GROWTH PRICAF</t>
+          <t>IMAGE POWER S.A.  ZY -,10</t>
         </is>
       </c>
       <c r="D393" t="n">
@@ -15321,7 +15317,7 @@
         </is>
       </c>
       <c r="G393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H393" t="inlineStr"/>
       <c r="I393" t="inlineStr"/>
@@ -15336,12 +15332,12 @@
       <c r="A394" t="inlineStr"/>
       <c r="B394" t="inlineStr">
         <is>
-          <t>CA64440W1032</t>
+          <t>PLAIRMK00017</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>NEW FRONTIER VENT. INC.</t>
+          <t>MOLIERA2 S.A.      ZY-,10</t>
         </is>
       </c>
       <c r="D394" t="n">
@@ -15373,12 +15369,12 @@
       <c r="A395" t="inlineStr"/>
       <c r="B395" t="inlineStr">
         <is>
-          <t>US47973H2058</t>
+          <t>PLGRMID00019</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>JOIN.PH.IND.GR.CO.LTD.GDR</t>
+          <t>GREMI MEDIA S.A. ZY 4</t>
         </is>
       </c>
       <c r="D395" t="n">
@@ -15410,12 +15406,12 @@
       <c r="A396" t="inlineStr"/>
       <c r="B396" t="inlineStr">
         <is>
-          <t>AU0000221251</t>
+          <t>SE0000885501</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>LEO LITHIUM LTD</t>
+          <t>LEVEL BIO AB          SK1</t>
         </is>
       </c>
       <c r="D396" t="n">
@@ -15447,12 +15443,12 @@
       <c r="A397" t="inlineStr"/>
       <c r="B397" t="inlineStr">
         <is>
-          <t>ES0175589029</t>
+          <t>PLEXCLN00016</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>SERESCO (ACC.P.DESD.)-,16</t>
+          <t>EXCELLENCE S.A.   ZY -,10</t>
         </is>
       </c>
       <c r="D397" t="n">
@@ -15484,12 +15480,12 @@
       <c r="A398" t="inlineStr"/>
       <c r="B398" t="inlineStr">
         <is>
-          <t>CA04952E2087</t>
+          <t>PLFRENT00014</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>ATMOFIZER TECHNOL.INC. B</t>
+          <t>FOREVER ENTERTAIN. ZY-,40</t>
         </is>
       </c>
       <c r="D398" t="n">
@@ -15521,12 +15517,12 @@
       <c r="A399" t="inlineStr"/>
       <c r="B399" t="inlineStr">
         <is>
-          <t>IT0005523839</t>
+          <t>PLGDVIS00018</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>DOTSTAY S.P.A.</t>
+          <t>LETUS CAPITAL ZY 1</t>
         </is>
       </c>
       <c r="D399" t="n">
@@ -15558,12 +15554,12 @@
       <c r="A400" t="inlineStr"/>
       <c r="B400" t="inlineStr">
         <is>
-          <t>AU0000105033</t>
+          <t>PLGRMNK00014</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>WELLFULLY LTD.</t>
+          <t>MENNICA SKARB.A,B ZY -,10</t>
         </is>
       </c>
       <c r="D400" t="n">
@@ -15595,12 +15591,12 @@
       <c r="A401" t="inlineStr"/>
       <c r="B401" t="inlineStr">
         <is>
-          <t>US38349T1060</t>
+          <t>PLM4B0000017</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>GOTION HIGH TECH GDR REGS</t>
+          <t>M4B SA            ZY 8</t>
         </is>
       </c>
       <c r="D401" t="n">
@@ -15632,12 +15628,12 @@
       <c r="A402" t="inlineStr"/>
       <c r="B402" t="inlineStr">
         <is>
-          <t>CA3771304068</t>
+          <t>PLPBLIA00012</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>GLASS HOUSE BRANDS INC.</t>
+          <t>ERATO ENERGY S.A.   ZY-02</t>
         </is>
       </c>
       <c r="D402" t="n">
@@ -15669,12 +15665,12 @@
       <c r="A403" t="inlineStr"/>
       <c r="B403" t="inlineStr">
         <is>
-          <t>CA90369P1009</t>
+          <t>PLRKLMF00010</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>UBIQUE MINERALS LTD.</t>
+          <t>PRIME ASI S.A.      ZY 10</t>
         </is>
       </c>
       <c r="D403" t="n">
@@ -15706,12 +15702,12 @@
       <c r="A404" t="inlineStr"/>
       <c r="B404" t="inlineStr">
         <is>
-          <t>ES0171996095</t>
+          <t>US4101204067</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>GRIFOLS SA PREF. B EO-,05</t>
+          <t>HANCOCK WHITNEY SU.NTS 25</t>
         </is>
       </c>
       <c r="D404" t="n">
@@ -15743,12 +15739,12 @@
       <c r="A405" t="inlineStr"/>
       <c r="B405" t="inlineStr">
         <is>
-          <t>ES0105687000</t>
+          <t>US55025L2079</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>ENERGY SOL.TECH EO-,003</t>
+          <t>LUMENT FINAN.TR.PRF.A 25</t>
         </is>
       </c>
       <c r="D405" t="n">
@@ -15777,15 +15773,19 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" t="inlineStr"/>
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>UTG</t>
+        </is>
+      </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>US2332762036</t>
+          <t>US7561581015</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>DMY SQUARED TECH.GRP. UT</t>
+          <t>REAVES UTILITY INC. SBI</t>
         </is>
       </c>
       <c r="D406" t="n">
@@ -15802,7 +15802,7 @@
         </is>
       </c>
       <c r="G406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H406" t="inlineStr"/>
       <c r="I406" t="inlineStr"/>
@@ -15817,12 +15817,12 @@
       <c r="A407" t="inlineStr"/>
       <c r="B407" t="inlineStr">
         <is>
-          <t>CA73938G1081</t>
+          <t>PLCRLNS00018</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>POWERSTONE METALS CORP.</t>
+          <t>ZORTRAX S.A.      ZY -,10</t>
         </is>
       </c>
       <c r="D407" t="n">
@@ -15854,12 +15854,12 @@
       <c r="A408" t="inlineStr"/>
       <c r="B408" t="inlineStr">
         <is>
-          <t>PLSTLNR00012</t>
+          <t>SE0015962105</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>STILO ENERGY A-G L ZY 0.1</t>
+          <t>QBRICK AB (PUBL)</t>
         </is>
       </c>
       <c r="D408" t="n">
@@ -15891,12 +15891,12 @@
       <c r="A409" t="inlineStr"/>
       <c r="B409" t="inlineStr">
         <is>
-          <t>HK0000812955</t>
+          <t>IT0005450173</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>KING STONE EN. NEW</t>
+          <t>MEGLIOQUESTO S.P.A.</t>
         </is>
       </c>
       <c r="D409" t="n">
@@ -15925,19 +15925,15 @@
       </c>
     </row>
     <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>BHMG.L</t>
-        </is>
-      </c>
+      <c r="A410" t="inlineStr"/>
       <c r="B410" t="inlineStr">
         <is>
-          <t>GG00BQBFY362</t>
+          <t>CA05455W1086</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>BH MACRO GBP</t>
+          <t>AWAKN LIFE SCIENCES CORP</t>
         </is>
       </c>
       <c r="D410" t="n">
@@ -15954,7 +15950,7 @@
         </is>
       </c>
       <c r="G410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H410" t="inlineStr"/>
       <c r="I410" t="inlineStr"/>
@@ -15966,19 +15962,15 @@
       </c>
     </row>
     <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>MPCT-UN.TO</t>
-        </is>
-      </c>
+      <c r="A411" t="inlineStr"/>
       <c r="B411" t="inlineStr">
         <is>
-          <t>CA26154L1287</t>
+          <t>CA0994031072</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>DREAM IMPACT TRUST</t>
+          <t>BOOSH PLANT-BASED BRANDS</t>
         </is>
       </c>
       <c r="D411" t="n">
@@ -15995,7 +15987,7 @@
         </is>
       </c>
       <c r="G411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H411" t="inlineStr"/>
       <c r="I411" t="inlineStr"/>
@@ -16010,12 +16002,12 @@
       <c r="A412" t="inlineStr"/>
       <c r="B412" t="inlineStr">
         <is>
-          <t>CA45675G2027</t>
+          <t>CA27786T1093</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>INFINITY STONE VENTURES A</t>
+          <t>EAT WELL INVESTMENT GROUP</t>
         </is>
       </c>
       <c r="D412" t="n">
@@ -16047,12 +16039,12 @@
       <c r="A413" t="inlineStr"/>
       <c r="B413" t="inlineStr">
         <is>
-          <t>DK0061026119</t>
+          <t>CA46414Q1054</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>FREETRAILER GROUP  DK-,75</t>
+          <t>IRWIN NATURALS INC.</t>
         </is>
       </c>
       <c r="D413" t="n">
@@ -16081,15 +16073,19 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" t="inlineStr"/>
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>BMEZ</t>
+        </is>
+      </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>GG00BMB5XZ39</t>
+          <t>US09260E1055</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>GLOBAL INTERCON    LS-,01</t>
+          <t>BR HL.SC.TM TR.</t>
         </is>
       </c>
       <c r="D414" t="n">
@@ -16106,7 +16102,7 @@
         </is>
       </c>
       <c r="G414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H414" t="inlineStr"/>
       <c r="I414" t="inlineStr"/>
@@ -16118,19 +16114,15 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>WWH.L</t>
-        </is>
-      </c>
+      <c r="A415" t="inlineStr"/>
       <c r="B415" t="inlineStr">
         <is>
-          <t>GB00BN455J50</t>
+          <t>PLCNSLB00012</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>WORLDWIDE HEALTH. LS-025</t>
+          <t>CONSOLE LABS SA  ZY-,10</t>
         </is>
       </c>
       <c r="D415" t="n">
@@ -16147,7 +16139,7 @@
         </is>
       </c>
       <c r="G415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H415" t="inlineStr"/>
       <c r="I415" t="inlineStr"/>
@@ -16159,15 +16151,19 @@
       </c>
     </row>
     <row r="416">
-      <c r="A416" t="inlineStr"/>
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>QETH-U.TO</t>
+        </is>
+      </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>SE0019175274</t>
+          <t>CA29764L1085</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>SCANDINAVIAN ASTOR GROUP</t>
+          <t>THE ETHER FUND   CL.A</t>
         </is>
       </c>
       <c r="D416" t="n">
@@ -16184,7 +16180,7 @@
         </is>
       </c>
       <c r="G416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H416" t="inlineStr"/>
       <c r="I416" t="inlineStr"/>
@@ -16199,12 +16195,12 @@
       <c r="A417" t="inlineStr"/>
       <c r="B417" t="inlineStr">
         <is>
-          <t>SE0001321761</t>
+          <t>NO0010692130</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>TRIONA AB  SK-,20</t>
+          <t>GENETIC ANALYSIS  NK -,60</t>
         </is>
       </c>
       <c r="D417" t="n">
@@ -16233,19 +16229,15 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>MNTN.L</t>
-        </is>
-      </c>
+      <c r="A418" t="inlineStr"/>
       <c r="B418" t="inlineStr">
         <is>
-          <t>GG00BJ0CDD21</t>
+          <t>IT0005380602</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>THE SCHIEHALLION FUND LTD</t>
+          <t>SIPARIO MOVIES S.P.A.</t>
         </is>
       </c>
       <c r="D418" t="n">
@@ -16262,7 +16254,7 @@
         </is>
       </c>
       <c r="G418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H418" t="inlineStr"/>
       <c r="I418" t="inlineStr"/>
@@ -16277,12 +16269,12 @@
       <c r="A419" t="inlineStr"/>
       <c r="B419" t="inlineStr">
         <is>
-          <t>CA74260Q1028</t>
+          <t>SE0014609194</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>PRINCIPAL TECHNOLOGIES</t>
+          <t>AMNODE AB            O.N.</t>
         </is>
       </c>
       <c r="D419" t="n">
@@ -16311,15 +16303,19 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" t="inlineStr"/>
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>DHT-UN.TO</t>
+        </is>
+      </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>US3623978463</t>
+          <t>CA23344H1091</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>GABELLI EQ. TR. P.K DL 25</t>
+          <t>DRI HEALTHCARE TRUST UT</t>
         </is>
       </c>
       <c r="D420" t="n">
@@ -16336,7 +16332,7 @@
         </is>
       </c>
       <c r="G420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H420" t="inlineStr"/>
       <c r="I420" t="inlineStr"/>
@@ -16351,12 +16347,12 @@
       <c r="A421" t="inlineStr"/>
       <c r="B421" t="inlineStr">
         <is>
-          <t>ES0105709002</t>
+          <t>NO0011202772</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>GREENING GRP.GLB.EO-,0025</t>
+          <t>VAR ENERGI ASA</t>
         </is>
       </c>
       <c r="D421" t="n">
@@ -16385,15 +16381,19 @@
       </c>
     </row>
     <row r="422">
-      <c r="A422" t="inlineStr"/>
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>XTBLX</t>
+        </is>
+      </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>IT0005562514</t>
+          <t>US8852131080</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>VALICA S.P.A.</t>
+          <t>THORNBURG INC.BLD.OPP.TR.</t>
         </is>
       </c>
       <c r="D422" t="n">
@@ -16410,7 +16410,7 @@
         </is>
       </c>
       <c r="G422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H422" t="inlineStr"/>
       <c r="I422" t="inlineStr"/>
@@ -16422,15 +16422,19 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423" t="inlineStr"/>
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>HGLB</t>
+        </is>
+      </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>CA2692641079</t>
+          <t>US43010T1043</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>EV MINERALS CORP.</t>
+          <t>HIGHL.GL ALLOC.</t>
         </is>
       </c>
       <c r="D423" t="n">
@@ -16447,7 +16451,7 @@
         </is>
       </c>
       <c r="G423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H423" t="inlineStr"/>
       <c r="I423" t="inlineStr"/>
@@ -16462,12 +16466,12 @@
       <c r="A424" t="inlineStr"/>
       <c r="B424" t="inlineStr">
         <is>
-          <t>US41044C1053</t>
+          <t>ES0105091005</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>HANGZH.GREATST.IND. GDR/A</t>
+          <t>CORPFIN C.P.R.II S.EO-,67</t>
         </is>
       </c>
       <c r="D424" t="n">
@@ -16499,12 +16503,12 @@
       <c r="A425" t="inlineStr"/>
       <c r="B425" t="inlineStr">
         <is>
-          <t>CA25162L1040</t>
+          <t>BG11MPKAAT18</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>DEVERON CORP.</t>
+          <t>M+S HIDRAVLIK AD     BW 1</t>
         </is>
       </c>
       <c r="D425" t="n">
@@ -16536,12 +16540,12 @@
       <c r="A426" t="inlineStr"/>
       <c r="B426" t="inlineStr">
         <is>
-          <t>US2527844003</t>
+          <t>BG1100017174</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>DIAMONDROCK HOSPITAL.A</t>
+          <t>235 HOLDINGS          BW1</t>
         </is>
       </c>
       <c r="D426" t="n">
@@ -16573,12 +16577,12 @@
       <c r="A427" t="inlineStr"/>
       <c r="B427" t="inlineStr">
         <is>
-          <t>FI4000561576</t>
+          <t>FR0012969095</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>VALOE OYJ</t>
+          <t>CAPELLI NOM.      EO 6,84</t>
         </is>
       </c>
       <c r="D427" t="n">
@@ -16610,12 +16614,12 @@
       <c r="A428" t="inlineStr"/>
       <c r="B428" t="inlineStr">
         <is>
-          <t>CA39312G1054</t>
+          <t>CA18912D1006</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>GREEN MIN.INN.CORP.  O.N.</t>
+          <t>CLOUD DX INC.</t>
         </is>
       </c>
       <c r="D428" t="n">
@@ -16647,12 +16651,12 @@
       <c r="A429" t="inlineStr"/>
       <c r="B429" t="inlineStr">
         <is>
-          <t>US89686D3035</t>
+          <t>PLGMV0000016</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>TRIVAGO A SP.ADS/5 EO-,06</t>
+          <t>GAMIVO S.A.   ZY -,10</t>
         </is>
       </c>
       <c r="D429" t="n">
@@ -16684,12 +16688,12 @@
       <c r="A430" t="inlineStr"/>
       <c r="B430" t="inlineStr">
         <is>
-          <t>PLMNLIT00014</t>
+          <t>BG1100051983</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>MOONLIT S.A.      ZY -,10</t>
+          <t>RODNA ZEMYA HLDG AD  BW 1</t>
         </is>
       </c>
       <c r="D430" t="n">
@@ -16718,15 +16722,19 @@
       </c>
     </row>
     <row r="431">
-      <c r="A431" t="inlineStr"/>
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>PNL.L</t>
+        </is>
+      </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>CA85832P2089</t>
+          <t>GB00BM8B5H06</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>STEEP HILL INC.</t>
+          <t>PERSONAL ASSETS   LS-,125</t>
         </is>
       </c>
       <c r="D431" t="n">
@@ -16743,7 +16751,7 @@
         </is>
       </c>
       <c r="G431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H431" t="inlineStr"/>
       <c r="I431" t="inlineStr"/>
@@ -16755,15 +16763,19 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" t="inlineStr"/>
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>PRM.TO</t>
+        </is>
+      </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>CA6489261033</t>
+          <t>CA08934P1080</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>NEW WORLD SOLUTIONS INC.</t>
+          <t>BIG PHARMA SPLIT  CL.A</t>
         </is>
       </c>
       <c r="D432" t="n">
@@ -16780,7 +16792,7 @@
         </is>
       </c>
       <c r="G432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H432" t="inlineStr"/>
       <c r="I432" t="inlineStr"/>
@@ -16795,12 +16807,12 @@
       <c r="A433" t="inlineStr"/>
       <c r="B433" t="inlineStr">
         <is>
-          <t>IT0005578395</t>
+          <t>CA64440W1032</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>ILLA S.P.A.</t>
+          <t>NEW FRONTIER VENT. INC.</t>
         </is>
       </c>
       <c r="D433" t="n">
@@ -16832,12 +16844,12 @@
       <c r="A434" t="inlineStr"/>
       <c r="B434" t="inlineStr">
         <is>
-          <t>CA25380E1060</t>
+          <t>US38349T1060</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>DIGICANN VENTURES INC.</t>
+          <t>GOTION HIGH TECH GDR REGS</t>
         </is>
       </c>
       <c r="D434" t="n">
@@ -16869,12 +16881,12 @@
       <c r="A435" t="inlineStr"/>
       <c r="B435" t="inlineStr">
         <is>
-          <t>ES0105717005</t>
+          <t>ES0171996095</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>REVENGA INGENIEROS EO-,26</t>
+          <t>GRIFOLS SA PREF. B EO-,05</t>
         </is>
       </c>
       <c r="D435" t="n">
@@ -16903,19 +16915,15 @@
       </c>
     </row>
     <row r="436">
-      <c r="A436" t="inlineStr">
-        <is>
-          <t>RGT</t>
-        </is>
-      </c>
+      <c r="A436" t="inlineStr"/>
       <c r="B436" t="inlineStr">
         <is>
-          <t>US78081T1043</t>
+          <t>ES0105687000</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>ROYCE GL.TRUST    DL-,001</t>
+          <t>ENERGY SOL.TECH EO-,003</t>
         </is>
       </c>
       <c r="D436" t="n">
@@ -16932,7 +16940,7 @@
         </is>
       </c>
       <c r="G436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H436" t="inlineStr"/>
       <c r="I436" t="inlineStr"/>
@@ -16947,12 +16955,12 @@
       <c r="A437" t="inlineStr"/>
       <c r="B437" t="inlineStr">
         <is>
-          <t>CA69938P2052</t>
+          <t>US2332762036</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>PARCELPAL LOGIS.INC. O.N.</t>
+          <t>DMY SQUARED TECH.GRP. UT</t>
         </is>
       </c>
       <c r="D437" t="n">
@@ -16984,12 +16992,12 @@
       <c r="A438" t="inlineStr"/>
       <c r="B438" t="inlineStr">
         <is>
-          <t>US09076G4010</t>
+          <t>PLSTLNR00012</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>BIOPHYTIS  ADR/10 O.N.</t>
+          <t>STILO ENERGY A-G L ZY 0.1</t>
         </is>
       </c>
       <c r="D438" t="n">
@@ -17018,15 +17026,19 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" t="inlineStr"/>
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>MPCT-UN.TO</t>
+        </is>
+      </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>ES0105777017</t>
+          <t>CA26154L1287</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>PUIG BRANDS        EO-,06</t>
+          <t>DREAM IMPACT TRUST</t>
         </is>
       </c>
       <c r="D439" t="n">
@@ -17043,7 +17055,7 @@
         </is>
       </c>
       <c r="G439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H439" t="inlineStr"/>
       <c r="I439" t="inlineStr"/>
@@ -17058,12 +17070,12 @@
       <c r="A440" t="inlineStr"/>
       <c r="B440" t="inlineStr">
         <is>
-          <t>GB00BRXCFB77</t>
+          <t>DK0061026119</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>HELLENIC DYNAMICS LS-,001</t>
+          <t>FREETRAILER GROUP  DK-,75</t>
         </is>
       </c>
       <c r="D440" t="n">
@@ -17095,12 +17107,12 @@
       <c r="A441" t="inlineStr"/>
       <c r="B441" t="inlineStr">
         <is>
-          <t>CA69381B1094</t>
+          <t>SE0001321761</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>PACE METALS LTD.     O.N.</t>
+          <t>TRIONA AB  SK-,20</t>
         </is>
       </c>
       <c r="D441" t="n">
@@ -17132,12 +17144,12 @@
       <c r="A442" t="inlineStr"/>
       <c r="B442" t="inlineStr">
         <is>
-          <t>SE0022088282</t>
+          <t>CA74260Q1028</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>RAYTELLIGENCE</t>
+          <t>PRINCIPAL TECHNOLOGIES</t>
         </is>
       </c>
       <c r="D442" t="n">
@@ -17169,12 +17181,12 @@
       <c r="A443" t="inlineStr"/>
       <c r="B443" t="inlineStr">
         <is>
-          <t>AU000000NWF9</t>
+          <t>US3623978463</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>NEWFIELD RESOURCES LTD</t>
+          <t>GABELLI EQ. TR. P.K DL 25</t>
         </is>
       </c>
       <c r="D443" t="n">
@@ -17206,12 +17218,12 @@
       <c r="A444" t="inlineStr"/>
       <c r="B444" t="inlineStr">
         <is>
-          <t>US8523876048</t>
+          <t>IT0005562514</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>STAFFING 360 SOL.DL-00001</t>
+          <t>VALICA S.P.A.</t>
         </is>
       </c>
       <c r="D444" t="n">
@@ -17243,12 +17255,12 @@
       <c r="A445" t="inlineStr"/>
       <c r="B445" t="inlineStr">
         <is>
-          <t>LU2859870326</t>
+          <t>CA2692641079</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>BIGREP SE            EO 1</t>
+          <t>EV MINERALS CORP.</t>
         </is>
       </c>
       <c r="D445" t="n">
@@ -17280,12 +17292,12 @@
       <c r="A446" t="inlineStr"/>
       <c r="B446" t="inlineStr">
         <is>
-          <t>IT0005454167</t>
+          <t>CA25162L1040</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>GLASS TO POWER A</t>
+          <t>DEVERON CORP.</t>
         </is>
       </c>
       <c r="D446" t="n">
@@ -17317,12 +17329,12 @@
       <c r="A447" t="inlineStr"/>
       <c r="B447" t="inlineStr">
         <is>
-          <t>SE0000524530</t>
+          <t>FI4000561576</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>GLYCOREX TRANSPLANT. B</t>
+          <t>VALOE OYJ</t>
         </is>
       </c>
       <c r="D447" t="n">
@@ -17351,19 +17363,15 @@
       </c>
     </row>
     <row r="448">
-      <c r="A448" t="inlineStr">
-        <is>
-          <t>PCT.L</t>
-        </is>
-      </c>
+      <c r="A448" t="inlineStr"/>
       <c r="B448" t="inlineStr">
         <is>
-          <t>GB00BR3YV268</t>
+          <t>CA85832P2089</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>POLAR CAP.TECH.TR. LS-,25</t>
+          <t>STEEP HILL INC.</t>
         </is>
       </c>
       <c r="D448" t="n">
@@ -17380,7 +17388,7 @@
         </is>
       </c>
       <c r="G448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H448" t="inlineStr"/>
       <c r="I448" t="inlineStr"/>
@@ -17395,12 +17403,12 @@
       <c r="A449" t="inlineStr"/>
       <c r="B449" t="inlineStr">
         <is>
-          <t>BMG236541170</t>
+          <t>IT0005578395</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>SHELF DRILL.NRTH. NK -,01</t>
+          <t>ILLA S.P.A.</t>
         </is>
       </c>
       <c r="D449" t="n">
@@ -17432,12 +17440,12 @@
       <c r="A450" t="inlineStr"/>
       <c r="B450" t="inlineStr">
         <is>
-          <t>CA1358702027</t>
+          <t>CA25380E1060</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>CANADIAN GOLDCAMPS CORP.</t>
+          <t>DIGICANN VENTURES INC.</t>
         </is>
       </c>
       <c r="D450" t="n">
@@ -17469,12 +17477,12 @@
       <c r="A451" t="inlineStr"/>
       <c r="B451" t="inlineStr">
         <is>
-          <t>ES0105836003</t>
+          <t>US09076G4010</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>INMOCEMENTO SA</t>
+          <t>BIOPHYTIS  ADR/10 O.N.</t>
         </is>
       </c>
       <c r="D451" t="n">
@@ -17506,12 +17514,12 @@
       <c r="A452" t="inlineStr"/>
       <c r="B452" t="inlineStr">
         <is>
-          <t>US4925322053</t>
+          <t>GB00BRXCFB77</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>KESORAM IND.LTD GDRREGS/1</t>
+          <t>HELLENIC DYNAMICS LS-,001</t>
         </is>
       </c>
       <c r="D452" t="n">
@@ -17543,12 +17551,12 @@
       <c r="A453" t="inlineStr"/>
       <c r="B453" t="inlineStr">
         <is>
-          <t>DE000A40UT96</t>
+          <t>CA69381B1094</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>MTU AERO ENGINES NA NEUE</t>
+          <t>PACE METALS LTD.     O.N.</t>
         </is>
       </c>
       <c r="D453" t="n">
@@ -17580,12 +17588,12 @@
       <c r="A454" t="inlineStr"/>
       <c r="B454" t="inlineStr">
         <is>
-          <t>DE000A40UU51</t>
+          <t>SE0022088282</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>DT.BETEILIG. NA O.N. NEUE</t>
+          <t>RAYTELLIGENCE</t>
         </is>
       </c>
       <c r="D454" t="n">
@@ -17617,12 +17625,12 @@
       <c r="A455" t="inlineStr"/>
       <c r="B455" t="inlineStr">
         <is>
-          <t>CA60251N2086</t>
+          <t>US8523876048</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>MINAS METALS LTD.</t>
+          <t>STAFFING 360 SOL.DL-00001</t>
         </is>
       </c>
       <c r="D455" t="n">
@@ -17651,19 +17659,15 @@
       </c>
     </row>
     <row r="456">
-      <c r="A456" t="inlineStr">
-        <is>
-          <t>HEQ</t>
-        </is>
-      </c>
+      <c r="A456" t="inlineStr"/>
       <c r="B456" t="inlineStr">
         <is>
-          <t>US47804L1026</t>
+          <t>LU2859870326</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>JOHN HANCOCK DIV.INC.FUND</t>
+          <t>BIGREP SE            EO 1</t>
         </is>
       </c>
       <c r="D456" t="n">
@@ -17680,7 +17684,7 @@
         </is>
       </c>
       <c r="G456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H456" t="inlineStr"/>
       <c r="I456" t="inlineStr"/>
@@ -17692,19 +17696,15 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="inlineStr">
-        <is>
-          <t>BRAI.L</t>
-        </is>
-      </c>
+      <c r="A457" t="inlineStr"/>
       <c r="B457" t="inlineStr">
         <is>
-          <t>GB00B7W0XJ61</t>
+          <t>IT0005454167</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>BLACKROCK AM.INC.TR. LS 1</t>
+          <t>GLASS TO POWER A</t>
         </is>
       </c>
       <c r="D457" t="n">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="G457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H457" t="inlineStr"/>
       <c r="I457" t="inlineStr"/>
@@ -17736,12 +17736,12 @@
       <c r="A458" t="inlineStr"/>
       <c r="B458" t="inlineStr">
         <is>
-          <t>US09071M3043</t>
+          <t>BMG236541170</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>BIOLINERX LTD. DL-,001</t>
+          <t>SHELF DRILL.NRTH. NK -,01</t>
         </is>
       </c>
       <c r="D458" t="n">
@@ -17773,12 +17773,12 @@
       <c r="A459" t="inlineStr"/>
       <c r="B459" t="inlineStr">
         <is>
-          <t>SE0022087680</t>
+          <t>DE000A40UU51</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>GREENMERC AB B</t>
+          <t>DT.BETEILIG. NA O.N. NEUE</t>
         </is>
       </c>
       <c r="D459" t="n">
@@ -17810,12 +17810,12 @@
       <c r="A460" t="inlineStr"/>
       <c r="B460" t="inlineStr">
         <is>
-          <t>GB00BNXJB679</t>
+          <t>CA60251N2086</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>HBX GROUP INTL    EO -,01</t>
+          <t>MINAS METALS LTD.</t>
         </is>
       </c>
       <c r="D460" t="n">
@@ -17846,17 +17846,17 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>DCSI.CN</t>
+          <t>HEQ</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>US25460P2039</t>
+          <t>US47804L1026</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>DIRECT COMMUNICATION SOL.</t>
+          <t>JOHN HANCOCK DIV.INC.FUND</t>
         </is>
       </c>
       <c r="D461" t="n">
@@ -17888,12 +17888,12 @@
       <c r="A462" t="inlineStr"/>
       <c r="B462" t="inlineStr">
         <is>
-          <t>FR001400XP40</t>
+          <t>US09071M3043</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>BOLLORE SE NV010125 EO-16</t>
+          <t>BIOLINERX LTD. DL-,001</t>
         </is>
       </c>
       <c r="D462" t="n">
@@ -17925,12 +17925,12 @@
       <c r="A463" t="inlineStr"/>
       <c r="B463" t="inlineStr">
         <is>
-          <t>AU0000381535</t>
+          <t>SE0022087680</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>MARIMACA COPPER CDI</t>
+          <t>GREENMERC AB B</t>
         </is>
       </c>
       <c r="D463" t="n">
@@ -17962,12 +17962,12 @@
       <c r="A464" t="inlineStr"/>
       <c r="B464" t="inlineStr">
         <is>
-          <t>CA2569191018</t>
+          <t>FR001400XP40</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>DOMESTIC METALS CORP.</t>
+          <t>BOLLORE SE NV010125 EO-16</t>
         </is>
       </c>
       <c r="D464" t="n">
@@ -17999,12 +17999,12 @@
       <c r="A465" t="inlineStr"/>
       <c r="B465" t="inlineStr">
         <is>
-          <t>US37891E2028</t>
+          <t>AU0000381535</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>GLOBALWAFERS SP.GDR144A/1</t>
+          <t>MARIMACA COPPER CDI</t>
         </is>
       </c>
       <c r="D465" t="n">
@@ -18036,12 +18036,12 @@
       <c r="A466" t="inlineStr"/>
       <c r="B466" t="inlineStr">
         <is>
-          <t>US72303P5035</t>
+          <t>CA2569191018</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>SUNATION ENER. NEW DL-,05</t>
+          <t>DOMESTIC METALS CORP.</t>
         </is>
       </c>
       <c r="D466" t="n">
@@ -18069,6 +18069,80 @@
         <v>0</v>
       </c>
     </row>
+    <row r="467">
+      <c r="A467" t="inlineStr"/>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>US37891E2028</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>GLOBALWAFERS SP.GDR144A/1</t>
+        </is>
+      </c>
+      <c r="D467" t="n">
+        <v>0</v>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>xetra_ver</t>
+        </is>
+      </c>
+      <c r="G467" t="n">
+        <v>0</v>
+      </c>
+      <c r="H467" t="inlineStr"/>
+      <c r="I467" t="inlineStr"/>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
+      <c r="L467" t="inlineStr"/>
+      <c r="M467" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr"/>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>US72303P5035</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>SUNATION ENER. NEW DL-,05</t>
+        </is>
+      </c>
+      <c r="D468" t="n">
+        <v>0</v>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>xetra_ver</t>
+        </is>
+      </c>
+      <c r="G468" t="n">
+        <v>0</v>
+      </c>
+      <c r="H468" t="inlineStr"/>
+      <c r="I468" t="inlineStr"/>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
+      <c r="L468" t="inlineStr"/>
+      <c r="M468" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/sym_deleted.xlsx
+++ b/data/sym_deleted.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N444"/>
+  <dimension ref="A1:N463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,12 +509,12 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CA2107373003</t>
+          <t>CA05259R1073</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CONTAGIOUS GAMING INC.</t>
+          <t>AUSTRALIS CAPITAL INC.</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -547,12 +547,12 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AU000000REX1</t>
+          <t>CA09173X1096</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>REGIONAL EXPRESS HLDGS</t>
+          <t>BITRUSH CORP.</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -585,12 +585,12 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AU000000RFX8</t>
+          <t>CA4234071054</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>REDFLOW LTD</t>
+          <t>HELLO PAL INTERN. INC.</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -623,12 +623,12 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AU000000AKP0</t>
+          <t>CA5317063074</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AUDIO PIXELS HOLDINGS LTD</t>
+          <t>LIDA RESOURCES INC</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -661,12 +661,12 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AU000000AML5</t>
+          <t>CA68629J2056</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AEON METALS LTD.</t>
+          <t>ORION NUTRACEUTICALS INC.</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -699,12 +699,12 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CA26885W1041</t>
+          <t>CA94412Y1007</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>E-PLAY DIGITAL</t>
+          <t>WAY OF WILL INC.A</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -737,12 +737,12 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CA02137W2004</t>
+          <t>GB00BF2P1260</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ALTAIR RES INC.</t>
+          <t>SILVER BEAR RES   LS-,001</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -775,12 +775,12 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CA03268Y1060</t>
+          <t>SG1J47889782</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ANALYTIXINSIGHT INC.</t>
+          <t>HYFLUX LTD</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -813,12 +813,12 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CA05334L1094</t>
+          <t>SG1P73919000</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>AUXICO RESOURCES CANADA</t>
+          <t>MIDAS HOLDINGS LTD.SD-,04</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -851,12 +851,12 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CA0765881028</t>
+          <t>SG2G19997136</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BEE VECTOR.TECHS INTL</t>
+          <t>SINO GRAND.FOOD GRP</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -889,12 +889,12 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AU000000GCR0</t>
+          <t>CH0006089921</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GOLDEN CROSS RES</t>
+          <t>PRIV.EQU.HLDG NA    SF 6</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -927,12 +927,12 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CA09075M1023</t>
+          <t>CH0012453913</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>BIOME GROW INC.</t>
+          <t>TEMENOS AG NAM.      SF 5</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -965,12 +965,12 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AU000000GTG7</t>
+          <t>CH1143739519</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GENETIC TEC.</t>
+          <t>MOBILEZONE NAM. (2.LIN.)</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -1000,15 +1000,19 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>LITM</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BE0974281132</t>
+          <t>CA83336J3073</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>BIOCARTIS GR. 144A/REG S</t>
+          <t>SNOW LAKE RESOURCES O.N.</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1025,7 +1029,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
@@ -1041,12 +1045,12 @@
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CA12595N1050</t>
+          <t>CA9129371097</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CO2 GRO INC.</t>
+          <t>UNIVERSAL DIGITAL INC.</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -1079,12 +1083,12 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AU000000JRV4</t>
+          <t>CA82967M1005</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>JERVOIS GLOBAL LTD.</t>
+          <t>SIRONA BIOCHEM CORP.</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1117,12 +1121,12 @@
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CA1352081063</t>
+          <t>CA95942C1041</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CANADA RARE EARTH CORP.</t>
+          <t>WESTERN RES CORP.</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1155,12 +1159,12 @@
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CA3935762029</t>
+          <t>KYG844081060</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GREENBANK CAPITAL</t>
+          <t>CHI.TIANRUI GR.CEM.HD-,01</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1193,12 +1197,12 @@
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AU000000LKO0</t>
+          <t>TH6999010015</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>LAKES BLUE ENERGY N.L.</t>
+          <t>BANGKOK EXPR.+METR. FGN</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1231,12 +1235,12 @@
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AU000000LPD2</t>
+          <t>FR0010844464</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>LEPIDICO LTD</t>
+          <t>MEDESIS PHARMA SA EO 2,-</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1269,12 +1273,12 @@
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CA15707X1015</t>
+          <t>US83088L1044</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CERTIVE SOLUTIONS INC.</t>
+          <t>SKYWORTH GRP UNSP.ADR/30</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1307,12 +1311,12 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CA15722J1030</t>
+          <t>FR001400GO75</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CEYLON GRAPHITE CORP.</t>
+          <t>FLORENTAISE  EO -,1</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1345,12 +1349,12 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CA45580J1012</t>
+          <t>AU000000ICI5</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>INDIVA LTD</t>
+          <t>ICANDY INTERACTIVE LTD.</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1383,12 +1387,12 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CA19243C1005</t>
+          <t>CA2107373003</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>COGNETIVITY NEUROC. LTD</t>
+          <t>CONTAGIOUS GAMING INC.</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1421,12 +1425,12 @@
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CA4591211095</t>
+          <t>AU000000REX1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>INTERNATL BATT. METALS</t>
+          <t>REGIONAL EXPRESS HLDGS</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1459,12 +1463,12 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DE000A2TSU21</t>
+          <t>AU000000RFX8</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>WILD BUNCH AG O.N.</t>
+          <t>REDFLOW LTD</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1497,12 +1501,12 @@
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CA5367361014</t>
+          <t>CA26885W1041</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>LITE ACCESS TECHNOLOGIES</t>
+          <t>E-PLAY DIGITAL</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1535,12 +1539,12 @@
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CA84921K1057</t>
+          <t>CA02137W2004</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SPOT COFFEE (CANADA) LTD</t>
+          <t>ALTAIR RES INC.</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1573,12 +1577,12 @@
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CA61634Q1081</t>
+          <t>CA03268Y1060</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MOOVLY MEDIA INC.</t>
+          <t>ANALYTIXINSIGHT INC.</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1611,12 +1615,12 @@
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CA6315202029</t>
+          <t>AU000000GTG7</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NASS VALLEY GATEWAY NEW</t>
+          <t>GENETIC TEC.</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1649,12 +1653,12 @@
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CA87243W1032</t>
+          <t>CA12595N1050</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>THC BIOMED INTL</t>
+          <t>CO2 GRO INC.</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1687,12 +1691,12 @@
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CA64129Y1079</t>
+          <t>CA1352081063</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NEUTRISCI INTL</t>
+          <t>CANADA RARE EARTH CORP.</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1725,12 +1729,12 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CA64151W1023</t>
+          <t>CA3935762029</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NEVADA ZINC CORP.</t>
+          <t>GREENBANK CAPITAL</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1763,12 +1767,12 @@
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CA89186Q1019</t>
+          <t>AU000000LPD2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>TOWER ONE WIRELESS NEW</t>
+          <t>LEPIDICO LTD</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1801,12 +1805,12 @@
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>DE0006492903</t>
+          <t>CA15722J1030</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>A.I.S. AG</t>
+          <t>CEYLON GRAPHITE CORP.</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1839,12 +1843,12 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>DE000A1X3XX4</t>
+          <t>CA19243C1005</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>BRANICKS GROUP AG NA O.N.</t>
+          <t>COGNETIVITY NEUROC. LTD</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1877,12 +1881,12 @@
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
-          <t>GB00BWC4X262</t>
+          <t>CA5367361014</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CHILL BRANDS GROUP LS-,01</t>
+          <t>LITE ACCESS TECHNOLOGIES</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1915,12 +1919,12 @@
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FI0009000665</t>
+          <t>CA84921K1057</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>METSAE BOARD OYJ B EO1,70</t>
+          <t>SPOT COFFEE (CANADA) LTD</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1950,19 +1954,15 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>BBH.L</t>
-        </is>
-      </c>
+      <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>GB00BZCNLL95</t>
+          <t>CA61634Q1081</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>BELLEVUE HE.TR.RED.LS-,01</t>
+          <t>MOOVLY MEDIA INC.</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1979,7 +1979,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
@@ -1995,12 +1995,12 @@
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr">
         <is>
-          <t>HU0000073507</t>
+          <t>CA6315202029</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MAGYAR TELEK.T.NA A UF100</t>
+          <t>NASS VALLEY GATEWAY NEW</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -2033,12 +2033,12 @@
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FR0000060618</t>
+          <t>CA87243W1032</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>RALLYE SA INH.      EO 3</t>
+          <t>THC BIOMED INTL</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -2071,12 +2071,12 @@
       <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr">
         <is>
-          <t>HU0000083696</t>
+          <t>CA64129Y1079</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>GRAPHISOFT PARK SE EO -02</t>
+          <t>NEUTRISCI INTL</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -2109,12 +2109,12 @@
       <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr">
         <is>
-          <t>HU0000089867</t>
+          <t>CA64151W1023</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PANNERGY NYRT.NAM.UF 20</t>
+          <t>NEVADA ZINC CORP.</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -2147,12 +2147,12 @@
       <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr">
         <is>
-          <t>HU0000102132</t>
+          <t>CA89186Q1019</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>APPENINN VAG.H.NY.M.UF100</t>
+          <t>TOWER ONE WIRELESS NEW</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -2185,12 +2185,12 @@
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr">
         <is>
-          <t>HU0000123096</t>
+          <t>DE000A1X3XX4</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>RICHT.GEDE.VEG.GYAR UF100</t>
+          <t>BRANICKS GROUP AG NA O.N.</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -2220,15 +2220,19 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr"/>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>BBH.L</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ID1000072309</t>
+          <t>GB00BZCNLL95</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SOLUSI BANGUN INDO.RP 500</t>
+          <t>BELLEVUE HE.TR.RED.LS-,01</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -2245,7 +2249,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
@@ -2261,12 +2265,12 @@
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ID1000101207</t>
+          <t>FR0000060618</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MULTISTRADA ARAH SA.RP140</t>
+          <t>RALLYE SA INH.      EO 3</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -2299,12 +2303,12 @@
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ID1000107600</t>
+          <t>HU0000083696</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>PT WIJAYA KARYA (P.)RP100</t>
+          <t>GRAPHISOFT PARK SE EO -02</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -2337,12 +2341,12 @@
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr">
         <is>
-          <t>FR0011648971</t>
+          <t>HU0000089867</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>QUANTUM GENOMICS  EO -,04</t>
+          <t>PANNERGY NYRT.NAM.UF 20</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -2375,12 +2379,12 @@
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
-          <t>FR0013410370</t>
+          <t>HU0000102132</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>AUPLATA MIN. GRP EO-,0005</t>
+          <t>APPENINN VAG.H.NY.M.UF100</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -2410,19 +2414,15 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>OIT.L</t>
-        </is>
-      </c>
+      <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
-          <t>GB00BFFK7H57</t>
+          <t>HU0000123096</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ODYSSEAN INV. TRUST LS 1</t>
+          <t>RICHT.GEDE.VEG.GYAR UF100</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -2439,7 +2439,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
@@ -2452,19 +2452,15 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>VOF.L</t>
-        </is>
-      </c>
+      <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr">
         <is>
-          <t>GG00BYXVT888</t>
+          <t>FR0011648971</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>VINACAPITAL VN OPP.DL-,01</t>
+          <t>QUANTUM GENOMICS  EO -,04</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -2481,7 +2477,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
@@ -2494,19 +2490,15 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>NBPE.L</t>
-        </is>
-      </c>
+      <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr">
         <is>
-          <t>GG00B1ZBD492</t>
+          <t>FR0013410370</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>NB PRIVATE EQUITY PART.A</t>
+          <t>AUPLATA MIN. GRP EO-,0005</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -2523,7 +2515,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
@@ -2536,15 +2528,19 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr"/>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>OIT.L</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>GG00B4TM3943</t>
+          <t>GB00BFFK7H57</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>BUSHVELD MINERALS  LS-,01</t>
+          <t>ODYSSEAN INV. TRUST LS 1</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -2561,7 +2557,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
@@ -2574,15 +2570,19 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr"/>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>VOF.L</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>HK0000057171</t>
+          <t>GG00BYXVT888</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CPMC HOLDINGS LTD</t>
+          <t>VINACAPITAL VN OPP.DL-,01</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -2599,7 +2599,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
@@ -2612,19 +2612,15 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>HGT.L</t>
-        </is>
-      </c>
+      <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr">
         <is>
-          <t>GB00BJ0LT190</t>
+          <t>SE0004210854</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>HGCAPITAL TRUST   LS-,025</t>
+          <t>CROWN ENERGY AB</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -2641,7 +2637,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
@@ -2657,12 +2653,12 @@
       <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MX01ID000009</t>
+          <t>KYG407691040</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>IMPULS.D.DES.Y EM.E.AM.L.</t>
+          <t>GREATVIEW ASEP.PAC.HD-,01</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -2695,12 +2691,12 @@
       <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SE0004210854</t>
+          <t>TH0121010019</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CROWN ENERGY AB</t>
+          <t>KIATNAKIN PH-FOREIGN-BA10</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -2733,12 +2729,12 @@
       <c r="A60" t="inlineStr"/>
       <c r="B60" t="inlineStr">
         <is>
-          <t>KYG2119W1069</t>
+          <t>SE0000514705</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CHINA EVERGRANDE GROUP</t>
+          <t>OBDUCAT AB B       SK 8</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -2768,15 +2764,19 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr"/>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>CHN</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>KYG215511091</t>
+          <t>US1693731077</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CHINA ENERGINE INT.HD-,10</t>
+          <t>CHINA FD INC.      DL-,01</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -2793,7 +2793,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
@@ -2806,15 +2806,19 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr"/>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>KF</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>KYG2751H1020</t>
+          <t>US5006342092</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>DEXIN CHINA HLD. DL-,0005</t>
+          <t>KOREA FUND INC.    DL-,01</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -2831,7 +2835,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
@@ -2844,15 +2848,19 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr"/>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>CUBA</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>KYG407691040</t>
+          <t>US42804T1060</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>GREATVIEW ASEP.PAC.HD-,01</t>
+          <t>HERZFELD CARIBB. BAS. FD</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -2869,7 +2877,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
@@ -2885,12 +2893,12 @@
       <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr">
         <is>
-          <t>PAL2400671A3</t>
+          <t>US9001112047</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>INTERCORP FIN.SERV. O.N.</t>
+          <t>TURKCELL ILETISIM H.2,5/1</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -2923,12 +2931,12 @@
       <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr">
         <is>
-          <t>KYG853951203</t>
+          <t>US86959K1051</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>STR.PETROCH.HLDGS HD-,025</t>
+          <t>SUZANO S.A. ADR/1</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -2961,12 +2969,12 @@
       <c r="A66" t="inlineStr"/>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SE0000120784</t>
+          <t>AU000000KLL6</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SKAND.ENSK. BKN C FR.SK10</t>
+          <t>KALIUM LAKES LTD O.N.</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -2996,19 +3004,15 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>NFPH.F</t>
-        </is>
-      </c>
+      <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TH0083B10Z10</t>
+          <t>FI0009005953</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>THANACHART CAP.-FGN-BA 10</t>
+          <t>STORA ENSO OYJ A EO 1,70</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -3025,7 +3029,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
@@ -3041,12 +3045,12 @@
       <c r="A68" t="inlineStr"/>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TH0121010019</t>
+          <t>CA71401N1050</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>KIATNAKIN PH-FOREIGN-BA10</t>
+          <t>PERK LABS INC.  O.N.</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -3079,12 +3083,12 @@
       <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SE0000514705</t>
+          <t>CA38116T2065</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>OBDUCAT AB B       SK 8</t>
+          <t>GOLDEN RIDGE RES. LTD</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -3117,12 +3121,12 @@
       <c r="A70" t="inlineStr"/>
       <c r="B70" t="inlineStr">
         <is>
-          <t>US0044342055</t>
+          <t>CA31447M1077</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ACER GDR REG.S/5 TA 10</t>
+          <t>FENIXORO GOLD CORP.</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -3152,15 +3156,19 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr"/>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>KYN</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>US29081P3038</t>
+          <t>US4866061066</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>EMBOTELL. ANDINA ADR B/6</t>
+          <t>KAYNE ANDE.MLP/M.I.DL-001</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -3177,7 +3185,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
@@ -3190,19 +3198,15 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>CHN</t>
-        </is>
-      </c>
+      <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr">
         <is>
-          <t>US1693731077</t>
+          <t>CA67054W1032</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CHINA FD INC.      DL-,01</t>
+          <t>NUMINUS WELLNESS INC.</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -3219,7 +3223,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
@@ -3235,12 +3239,12 @@
       <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr">
         <is>
-          <t>US3444191064</t>
+          <t>CA5495464060</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>FOM.ECO.MEX.S.D.CV ADR/10</t>
+          <t>LUCKY MINERALS</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -3272,17 +3276,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>KF</t>
+          <t>BSIF.L</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>US5006342092</t>
+          <t>GG00BB0RDB98</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>KOREA FUND INC.    DL-,01</t>
+          <t>BLUEFIELD SOLAR INCOME FD</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -3314,17 +3318,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>CUBA</t>
+          <t>AD-UN.TO</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>US42804T1060</t>
+          <t>CAC010971017</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>HERZFELD CARIBB. BAS. FD</t>
+          <t>ALARIS EQ.PRT.INC.TR.REGS</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -3354,15 +3358,19 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr"/>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>CGI.TO</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>US2786421030</t>
+          <t>CA1358251074</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>EBAY INC.         DL-,001</t>
+          <t>CDN GENL INV. LTD</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -3379,7 +3387,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
@@ -3395,12 +3403,12 @@
       <c r="A77" t="inlineStr"/>
       <c r="B77" t="inlineStr">
         <is>
-          <t>US7075691094</t>
+          <t>CA45250L2049</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>PENN ENTERTAINMENT DL-,01</t>
+          <t>IMAGIN MEDICAL INC.</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -3433,12 +3441,12 @@
       <c r="A78" t="inlineStr"/>
       <c r="B78" t="inlineStr">
         <is>
-          <t>US9001112047</t>
+          <t>ES0105513008</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>TURKCELL ILETISIM H.2,5/1</t>
+          <t>SOLTEC POWER HOLD. EO-,25</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -3471,12 +3479,12 @@
       <c r="A79" t="inlineStr"/>
       <c r="B79" t="inlineStr">
         <is>
-          <t>US83367Y2072</t>
+          <t>US16951T1198</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>S.ENER.ELEC.SP.GDR REGS 1</t>
+          <t>CHINA PAC.IN.GR.GDR/5 YC1</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -3509,12 +3517,12 @@
       <c r="A80" t="inlineStr"/>
       <c r="B80" t="inlineStr">
         <is>
-          <t>US86959K1051</t>
+          <t>HU0000180112</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>SUZANO S.A. ADR/1</t>
+          <t>CIG PANNONIA LIFE INSURA.</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -3544,15 +3552,19 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr"/>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>SBO.L</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ZAE000073441</t>
+          <t>GB00BN7JZR28</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>MURRAY ROBERTS     O.N.</t>
+          <t>SCHRODER BRITISH   LS-,01</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -3569,7 +3581,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
@@ -3582,19 +3594,15 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>EMF</t>
-        </is>
-      </c>
+      <c r="A82" t="inlineStr"/>
       <c r="B82" t="inlineStr">
         <is>
-          <t>US8801911012</t>
+          <t>KYG8588G1001</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>TEMPLETON EM.MKT FD DL-01</t>
+          <t>SUNKWAN P.G.   DL-,000001</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -3611,7 +3619,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
@@ -3624,15 +3632,19 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr"/>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>BCAT</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>AU000000KLL6</t>
+          <t>US09260U1097</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>KALIUM LAKES LTD O.N.</t>
+          <t>BR CAP.AL.TM TR DL-,001</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -3649,7 +3661,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
@@ -3662,15 +3674,19 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr"/>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>EOT.L</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>AU000000BCT7</t>
+          <t>GB0000197722</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>BLUECHIIP LTD</t>
+          <t>EURO.OPPOTU.TRUST  LS-01</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -3687,7 +3703,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
@@ -3700,15 +3716,19 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr"/>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>BOE</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>AU000000CLZ3</t>
+          <t>US0925011050</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CLASSIC MINERALS LTD.</t>
+          <t>BLACKROCK ENH.GBL DIV.TR.</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -3725,7 +3745,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
@@ -3741,12 +3761,12 @@
       <c r="A86" t="inlineStr"/>
       <c r="B86" t="inlineStr">
         <is>
-          <t>FI0009005953</t>
+          <t>AU0000129710</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>STORA ENSO OYJ A EO 1,70</t>
+          <t>HEALTH AND PL.PROT.GROUP</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -3779,12 +3799,12 @@
       <c r="A87" t="inlineStr"/>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CA76156R1029</t>
+          <t>SE0015382148</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>REVOLUGROUP CANADA INC</t>
+          <t>BLUELAKE MINERAL AB</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -3817,12 +3837,12 @@
       <c r="A88" t="inlineStr"/>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CH0451424300</t>
+          <t>BMG8301A1099</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>IQ INTL AG         SF-,01</t>
+          <t>SOUTH.SECS INTL SECS</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -3854,17 +3874,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>PDX</t>
+          <t>APAX.L</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>US69346N1072</t>
+          <t>GG00BWWYMV85</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>PIMCO ENERGY+TACT.CR.OPPS</t>
+          <t>APAX GLOBAL ALPHA LTD</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -3897,12 +3917,12 @@
       <c r="A90" t="inlineStr"/>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CA45328X3058</t>
+          <t>KYG4509G1055</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>INCA ONE GOLD CORP.</t>
+          <t>HILONG HOLDING LTD HD-,10</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -3932,19 +3952,15 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>VEIL.L</t>
-        </is>
-      </c>
+      <c r="A91" t="inlineStr"/>
       <c r="B91" t="inlineStr">
         <is>
-          <t>KYG9361H1092</t>
+          <t>BMG749131071</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>VIETNAM ENTERPRISE INV.</t>
+          <t>RENCO HOLDINGS GRP HD-,10</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -3961,7 +3977,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
@@ -3974,15 +3990,19 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr"/>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>AIO</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CA71401N1050</t>
+          <t>US92838Y1001</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>PERK LABS INC.  O.N.</t>
+          <t>VTSAGI A.I.+T.O.DL-,00001</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -3999,7 +4019,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
@@ -4015,12 +4035,12 @@
       <c r="A93" t="inlineStr"/>
       <c r="B93" t="inlineStr">
         <is>
-          <t>DE000A254W52</t>
+          <t>CA15135U3073</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>PYRAMID AG</t>
+          <t>CENOVUS ENERGY PFD SR.1</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -4053,12 +4073,12 @@
       <c r="A94" t="inlineStr"/>
       <c r="B94" t="inlineStr">
         <is>
-          <t>AU000000WKT6</t>
+          <t>CA35954F1080</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>WALKABOUT RESOURCES LTD</t>
+          <t>FUELPOSITIVE CORP.</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -4088,15 +4108,19 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr"/>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>GB00BHSRZC82.SG</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CA38116T2065</t>
+          <t>GB00BHSRZC82</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>GOLDEN RIDGE RES. LTD</t>
+          <t>EDINBURGH WORLDW.  LS-,01</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -4113,7 +4137,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
@@ -4126,15 +4150,19 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr"/>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>GG00BMC7TM77.SG</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CA31447M1077</t>
+          <t>GG00BMC7TM77</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>FENIXORO GOLD CORP.</t>
+          <t>CORDIANT DIGITAL INFRAST.</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -4151,7 +4179,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
@@ -4166,17 +4194,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>KYN</t>
+          <t>BPCR.L</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>US4866061066</t>
+          <t>GB00BDGKMY29</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>KAYNE ANDE.MLP/M.I.DL-001</t>
+          <t>BIOPHARMA CREDIT DL -,01</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -4209,12 +4237,12 @@
       <c r="A98" t="inlineStr"/>
       <c r="B98" t="inlineStr">
         <is>
-          <t>CA67054W1032</t>
+          <t>CA53633C1077</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>NUMINUS WELLNESS INC.</t>
+          <t>LIQUID AVATAR TECHNO.INC.</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -4247,12 +4275,12 @@
       <c r="A99" t="inlineStr"/>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CA5495464060</t>
+          <t>GB00BKKD0862</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>LUCKY MINERALS</t>
+          <t>RIVERFORT GL.OPP.LS-,0001</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -4282,19 +4310,15 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>BSIF.L</t>
-        </is>
-      </c>
+      <c r="A100" t="inlineStr"/>
       <c r="B100" t="inlineStr">
         <is>
-          <t>GG00BB0RDB98</t>
+          <t>JE00BG12QT70</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>BLUEFIELD SOLAR INCOME FD</t>
+          <t>BIGDISH PLC</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -4311,7 +4335,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
@@ -4327,12 +4351,12 @@
       <c r="A101" t="inlineStr"/>
       <c r="B101" t="inlineStr">
         <is>
-          <t>CH0563815429</t>
+          <t>CA52731E1060</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>IQ INTERNATIONAL AG</t>
+          <t>LEVELJUMP HEALTHCARE CORP</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -4364,17 +4388,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>AD-UN.TO</t>
+          <t>JE00BMDKH437.SG</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CAC010971017</t>
+          <t>JE00BMDKH437</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>ALARIS EQ.PRT.INC.TR.REGS</t>
+          <t>DIGITAL 9 INFRASTRUCTURE</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -4404,15 +4428,19 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr"/>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>CSRD.L</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>AU000000MRC8</t>
+          <t>GG00BMDGQT90</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>MINERAL COMM</t>
+          <t>CORDIANT DIGITAL INFR.SUB</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -4429,7 +4457,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
@@ -4445,12 +4473,12 @@
       <c r="A104" t="inlineStr"/>
       <c r="B104" t="inlineStr">
         <is>
-          <t>CA60855E1097</t>
+          <t>DK0061411964</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>MOLECULE HOLDINGS</t>
+          <t>CESSATECH A/S     DK -,20</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -4483,12 +4511,12 @@
       <c r="A105" t="inlineStr"/>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CA8525403017</t>
+          <t>PLBLOCM00013</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>STAGEZERO LIFE SCIENC.</t>
+          <t>CANNABIS POLAND A,B ZY-10</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -4521,12 +4549,12 @@
       <c r="A106" t="inlineStr"/>
       <c r="B106" t="inlineStr">
         <is>
-          <t>IT0005421919</t>
+          <t>PLCRFRG00016</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>AGATOS S.P.A.</t>
+          <t>CREATIVEF. G.S.A-K ZY-,23</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -4556,19 +4584,15 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>CGI.TO</t>
-        </is>
-      </c>
+      <c r="A107" t="inlineStr"/>
       <c r="B107" t="inlineStr">
         <is>
-          <t>CA1358251074</t>
+          <t>PLIMGPW00013</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>CDN GENL INV. LTD</t>
+          <t>IMAGE POWER S.A.  ZY -,10</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -4585,7 +4609,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
@@ -4598,19 +4622,15 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>DGS.TO</t>
-        </is>
-      </c>
+      <c r="A108" t="inlineStr"/>
       <c r="B108" t="inlineStr">
         <is>
-          <t>CA25537Y1043</t>
+          <t>PLAIRMK00017</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>DIVIDEND GROWTH SPLIT</t>
+          <t>MOLIERA2 S.A.      ZY-,10</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -4627,7 +4647,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
@@ -4640,19 +4660,15 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>MMP-UN.TO</t>
-        </is>
-      </c>
+      <c r="A109" t="inlineStr"/>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CA7401731095</t>
+          <t>PLCRBON00018</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>PRECIOUS METAL + MIN.TR.</t>
+          <t>ARENA.PL S.A.     ZY -,50</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -4669,7 +4685,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
@@ -4685,12 +4701,12 @@
       <c r="A110" t="inlineStr"/>
       <c r="B110" t="inlineStr">
         <is>
-          <t>CA7900141044</t>
+          <t>PLGPPIK00011</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ST.JAMES GOLD CORP.</t>
+          <t>FIGENE CAPITAL SA  ZY 1</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -4723,12 +4739,12 @@
       <c r="A111" t="inlineStr"/>
       <c r="B111" t="inlineStr">
         <is>
-          <t>GB00BYZC5R04</t>
+          <t>PLGRMID00019</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>CARACAL GOLD PLC  LS-,001</t>
+          <t>GREMI MEDIA S.A. ZY 4</t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -4761,12 +4777,12 @@
       <c r="A112" t="inlineStr"/>
       <c r="B112" t="inlineStr">
         <is>
-          <t>CA5266813099</t>
+          <t>PLBRTZM00010</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>LEONOVUS INC. O.N.</t>
+          <t>BORUTA-ZACHEM S.A. ZY-,10</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -4799,12 +4815,12 @@
       <c r="A113" t="inlineStr"/>
       <c r="B113" t="inlineStr">
         <is>
-          <t>CA45250L2049</t>
+          <t>PLYLWHT00012</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>IMAGIN MEDICAL INC.</t>
+          <t>MEDAPP S.A.       ZY -,10</t>
         </is>
       </c>
       <c r="D113" t="n">
@@ -4834,15 +4850,19 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr"/>
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>GG00BNDMJP11.SG</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ES0105513008</t>
+          <t>GG00BNDMJP11</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>SOLTEC POWER HOLD. EO-,25</t>
+          <t>RIVER UK MICRO CAP LTD.</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -4859,7 +4879,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
@@ -4875,12 +4895,12 @@
       <c r="A115" t="inlineStr"/>
       <c r="B115" t="inlineStr">
         <is>
-          <t>US16951T1198</t>
+          <t>CA85857E2033</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>CHINA PAC.IN.GR.GDR/5 YC1</t>
+          <t>STELMINE CANADA LTD</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -4913,12 +4933,12 @@
       <c r="A116" t="inlineStr"/>
       <c r="B116" t="inlineStr">
         <is>
-          <t>HU0000180112</t>
+          <t>PLAQUA000014</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>CIG PANNONIA LIFE INSURA.</t>
+          <t>AQUA SA             ZY 16</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -4948,19 +4968,15 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>SBO.L</t>
-        </is>
-      </c>
+      <c r="A117" t="inlineStr"/>
       <c r="B117" t="inlineStr">
         <is>
-          <t>GB00BN7JZR28</t>
+          <t>PLGDVIS00018</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>SCHRODER BRITISH   LS-,01</t>
+          <t>LETUS CAPITAL ZY 1</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -4977,7 +4993,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -4993,12 +5009,12 @@
       <c r="A118" t="inlineStr"/>
       <c r="B118" t="inlineStr">
         <is>
-          <t>KYG8588G1001</t>
+          <t>PLMPAY000017</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SUNKWAN P.G.   DL-,000001</t>
+          <t>MPAY S.A.          ZY-,50</t>
         </is>
       </c>
       <c r="D118" t="n">
@@ -5028,19 +5044,15 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>BCAT</t>
-        </is>
-      </c>
+      <c r="A119" t="inlineStr"/>
       <c r="B119" t="inlineStr">
         <is>
-          <t>US09260U1097</t>
+          <t>PLPBLIA00012</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>BR CAP.AL.TM TR DL-,001</t>
+          <t>ERATO ENERGY S.A.   ZY-02</t>
         </is>
       </c>
       <c r="D119" t="n">
@@ -5057,7 +5069,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
@@ -5070,19 +5082,15 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>EOT.L</t>
-        </is>
-      </c>
+      <c r="A120" t="inlineStr"/>
       <c r="B120" t="inlineStr">
         <is>
-          <t>GB0000197722</t>
+          <t>PLRSYSA00014</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>EURO.OPPOTU.TRUST  LS-01</t>
+          <t>SUNDRAGON S.A.    ZY-,1</t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -5099,7 +5107,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
@@ -5115,12 +5123,12 @@
       <c r="A121" t="inlineStr"/>
       <c r="B121" t="inlineStr">
         <is>
-          <t>AU0000107211</t>
+          <t>PLSFD0000013</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>TOMBADOR IRON LTD.</t>
+          <t>SFD SA            ZY -,10</t>
         </is>
       </c>
       <c r="D121" t="n">
@@ -5150,19 +5158,15 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>BOE</t>
-        </is>
-      </c>
+      <c r="A122" t="inlineStr"/>
       <c r="B122" t="inlineStr">
         <is>
-          <t>US0925011050</t>
+          <t>PLSITE000013</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>BLACKROCK ENH.GBL DIV.TR.</t>
+          <t>MUNAR             ZY -,10</t>
         </is>
       </c>
       <c r="D122" t="n">
@@ -5179,7 +5183,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
@@ -5195,12 +5199,12 @@
       <c r="A123" t="inlineStr"/>
       <c r="B123" t="inlineStr">
         <is>
-          <t>GB00BFYMWJ95</t>
+          <t>PLSTRGM00014</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>TIRUPATI GRAPHITE LS-,025</t>
+          <t>CENTURION FIN.A-C ZY -,10</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -5230,15 +5234,19 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr"/>
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>PDI</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>AU0000129710</t>
+          <t>US72201Y1010</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>HEALTH AND PL.PROT.GROUP</t>
+          <t>PIMCO DYNAMIC INCOME FD</t>
         </is>
       </c>
       <c r="D124" t="n">
@@ -5255,7 +5263,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
@@ -5268,19 +5276,15 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>RNEW.L</t>
-        </is>
-      </c>
+      <c r="A125" t="inlineStr"/>
       <c r="B125" t="inlineStr">
         <is>
-          <t>GB00BLPK4430</t>
+          <t>PLICI0000010</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>ECOFIN US REN.IN. DL -,01</t>
+          <t>IDH DEVELOPMENT S.A.</t>
         </is>
       </c>
       <c r="D125" t="n">
@@ -5297,7 +5301,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
@@ -5310,15 +5314,19 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr"/>
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>UTG</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>SE0015382148</t>
+          <t>US7561581015</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>BLUELAKE MINERAL AB</t>
+          <t>REAVES UTILITY INC. SBI</t>
         </is>
       </c>
       <c r="D126" t="n">
@@ -5335,7 +5343,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
@@ -5351,12 +5359,12 @@
       <c r="A127" t="inlineStr"/>
       <c r="B127" t="inlineStr">
         <is>
-          <t>BMG8301A1099</t>
+          <t>CA36468X1069</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>SOUTH.SECS INTL SECS</t>
+          <t>GAMEON ENTERTAINM. TECHS</t>
         </is>
       </c>
       <c r="D127" t="n">
@@ -5386,19 +5394,15 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>APAX.L</t>
-        </is>
-      </c>
+      <c r="A128" t="inlineStr"/>
       <c r="B128" t="inlineStr">
         <is>
-          <t>GG00BWWYMV85</t>
+          <t>SE0015962105</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>APAX GLOBAL ALPHA LTD</t>
+          <t>QBRICK AB (PUBL)</t>
         </is>
       </c>
       <c r="D128" t="n">
@@ -5415,7 +5419,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
@@ -5428,15 +5432,19 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr"/>
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>GB00BMF1L080.SG</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>GB00B1250X28</t>
+          <t>GB00BMF1L080</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>LANSDOWNE OIL+G. LS-,0001</t>
+          <t>LITERACY CAPITAL  LS-,001</t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -5453,7 +5461,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
@@ -5469,12 +5477,12 @@
       <c r="A130" t="inlineStr"/>
       <c r="B130" t="inlineStr">
         <is>
-          <t>KYG4509G1055</t>
+          <t>CA21872J3073</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>HILONG HOLDING LTD HD-,10</t>
+          <t>CORE ONE LABS INC.</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -5504,15 +5512,19 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr"/>
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>GB00BL6K7L04.SG</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>BMG749131071</t>
+          <t>GB00BL6K7L04</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>RENCO HOLDINGS GRP HD-,10</t>
+          <t>HYDROGENONE C.G.  LS -,01</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -5529,7 +5541,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
@@ -5542,15 +5554,19 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr"/>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>CEE</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>US29081P2048</t>
+          <t>US1534361001</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>EMBOTELL. ANDINA ADR A/6</t>
+          <t>CENT.+EAST.EUR.FD DL-,001</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -5567,7 +5583,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
@@ -5580,19 +5596,15 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>AIO</t>
-        </is>
-      </c>
+      <c r="A133" t="inlineStr"/>
       <c r="B133" t="inlineStr">
         <is>
-          <t>US92838Y1001</t>
+          <t>CA05455W1086</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>VTSAGI A.I.+T.O.DL-,00001</t>
+          <t>AWAKN LIFE SCIENCES CORP</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -5609,7 +5621,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
@@ -5625,12 +5637,12 @@
       <c r="A134" t="inlineStr"/>
       <c r="B134" t="inlineStr">
         <is>
-          <t>CA15135U3073</t>
+          <t>PLPNCHP00016</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>CENOVUS ENERGY PFD SR.1</t>
+          <t>PUNCH PUNK S.A.    ZY-,10</t>
         </is>
       </c>
       <c r="D134" t="n">
@@ -5660,19 +5672,15 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>GAB</t>
-        </is>
-      </c>
+      <c r="A135" t="inlineStr"/>
       <c r="B135" t="inlineStr">
         <is>
-          <t>US3623971013</t>
+          <t>CA0994031072</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>GABELLI EQUITY TR. DL-001</t>
+          <t>BOOSH PLANT-BASED BRANDS</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -5689,7 +5697,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
@@ -5702,19 +5710,15 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
+      <c r="A136" t="inlineStr"/>
       <c r="B136" t="inlineStr">
         <is>
-          <t>US5301581048</t>
+          <t>CA46414Q1054</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>LIB.ALL-ST.EQU. SBI</t>
+          <t>IRWIN NATURALS INC.</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -5731,7 +5735,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
@@ -5747,12 +5751,12 @@
       <c r="A137" t="inlineStr"/>
       <c r="B137" t="inlineStr">
         <is>
-          <t>CA35954F1080</t>
+          <t>CA76151T1030</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>FUELPOSITIVE CORP.</t>
+          <t>REVITALIST L.A.W. LTD</t>
         </is>
       </c>
       <c r="D137" t="n">
@@ -5785,12 +5789,12 @@
       <c r="A138" t="inlineStr"/>
       <c r="B138" t="inlineStr">
         <is>
-          <t>KYG6847M1087</t>
+          <t>CA9534001081</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>OURGAME INT.HOL.DL-,00005</t>
+          <t>WEST ISLAND BRANDS INC.</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -5820,19 +5824,15 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>GB00BHSRZC82.SG</t>
-        </is>
-      </c>
+      <c r="A139" t="inlineStr"/>
       <c r="B139" t="inlineStr">
         <is>
-          <t>GB00BHSRZC82</t>
+          <t>CA89367L1031</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>EDINBURGH WORLDW.  LS-,01</t>
+          <t>TRANSFORMA RES. CORP.</t>
         </is>
       </c>
       <c r="D139" t="n">
@@ -5849,7 +5849,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
@@ -5862,19 +5862,15 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>GG00BMC7TM77.SG</t>
-        </is>
-      </c>
+      <c r="A140" t="inlineStr"/>
       <c r="B140" t="inlineStr">
         <is>
-          <t>GG00BMC7TM77</t>
+          <t>PLCNSLB00012</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>CORDIANT DIGITAL INFRAST.</t>
+          <t>CONSOLE LABS SA  ZY-,10</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -5891,7 +5887,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
@@ -5904,15 +5900,19 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr"/>
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>QETH-U.TO</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>AU0000137598</t>
+          <t>CA29764L1085</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>EPSILON HEALTHCARE LTD.</t>
+          <t>THE ETHER FUND   CL.A</t>
         </is>
       </c>
       <c r="D141" t="n">
@@ -5929,7 +5929,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
@@ -5942,19 +5942,15 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>BPCR.L</t>
-        </is>
-      </c>
+      <c r="A142" t="inlineStr"/>
       <c r="B142" t="inlineStr">
         <is>
-          <t>GB00BDGKMY29</t>
+          <t>KYG6485S1021</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>BIOPHARMA CREDIT DL -,01</t>
+          <t>NEW HORIZ.HEAL. DL-,00005</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -5971,7 +5967,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
@@ -5987,12 +5983,12 @@
       <c r="A143" t="inlineStr"/>
       <c r="B143" t="inlineStr">
         <is>
-          <t>KYG618221058</t>
+          <t>PLA346100011</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>MODERN LAND (CHINA) DL-01</t>
+          <t>MADMIND STUDIO  ZY-,50</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -6022,15 +6018,19 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr"/>
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>PIN.L</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>CA53633C1077</t>
+          <t>GB00BP37WF17</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>LIQUID AVATAR TECHNO.INC.</t>
+          <t>PANTHEON INTL PLC LS-,067</t>
         </is>
       </c>
       <c r="D144" t="n">
@@ -6047,7 +6047,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
@@ -6063,12 +6063,12 @@
       <c r="A145" t="inlineStr"/>
       <c r="B145" t="inlineStr">
         <is>
-          <t>GB00BKKD0862</t>
+          <t>CA2241301043</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>RIVERFORT GL.OPP.LS-,0001</t>
+          <t>CRAFTPORT CANNABIS CORP.</t>
         </is>
       </c>
       <c r="D145" t="n">
@@ -6101,12 +6101,12 @@
       <c r="A146" t="inlineStr"/>
       <c r="B146" t="inlineStr">
         <is>
-          <t>GB0002192606</t>
+          <t>BMG525961063</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>ROSS GRP PLC       LS-,01</t>
+          <t>ALLEGRO CULTURE LTD HD-,2</t>
         </is>
       </c>
       <c r="D146" t="n">
@@ -6139,12 +6139,12 @@
       <c r="A147" t="inlineStr"/>
       <c r="B147" t="inlineStr">
         <is>
-          <t>CA0682943059</t>
+          <t>SE0017161458</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>BAROYECA GOLD+SILVER INC.</t>
+          <t>SVOLDER AB B O.N.</t>
         </is>
       </c>
       <c r="D147" t="n">
@@ -6177,12 +6177,12 @@
       <c r="A148" t="inlineStr"/>
       <c r="B148" t="inlineStr">
         <is>
-          <t>JE00BG12QT70</t>
+          <t>IT0005380602</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>BIGDISH PLC</t>
+          <t>SIPARIO MOVIES S.P.A.</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -6212,15 +6212,19 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr"/>
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>JOF</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>CA52731E1060</t>
+          <t>US47109U1043</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>LEVELJUMP HEALTHCARE CORP</t>
+          <t>JP SM.CAP.FD       DL-,10</t>
         </is>
       </c>
       <c r="D149" t="n">
@@ -6237,7 +6241,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
@@ -6250,19 +6254,15 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>NESF.L</t>
-        </is>
-      </c>
+      <c r="A150" t="inlineStr"/>
       <c r="B150" t="inlineStr">
         <is>
-          <t>GG00BJ0JVY01</t>
+          <t>CA0877372015</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>NEXTENERGY SOLAR FD</t>
+          <t>BETTER PLANT SCIENCES INC</t>
         </is>
       </c>
       <c r="D150" t="n">
@@ -6279,7 +6279,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
@@ -6292,19 +6292,15 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>JE00BMDKH437.SG</t>
-        </is>
-      </c>
+      <c r="A151" t="inlineStr"/>
       <c r="B151" t="inlineStr">
         <is>
-          <t>JE00BMDKH437</t>
+          <t>CA49601P1045</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>DIGITAL 9 INFRASTRUCTURE</t>
+          <t>KINGS ENTERTAINMENT GROUP</t>
         </is>
       </c>
       <c r="D151" t="n">
@@ -6321,7 +6317,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
@@ -6336,17 +6332,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>GB00BYSRMH16.SG</t>
+          <t>DHT-UN.TO</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>GB00BYSRMH16</t>
+          <t>CA23344H1091</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>CC JAP.+GROWTH TR. LS-,01</t>
+          <t>DRI HEALTHCARE TRUST UT</t>
         </is>
       </c>
       <c r="D152" t="n">
@@ -6376,19 +6372,15 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>CSRD.L</t>
-        </is>
-      </c>
+      <c r="A153" t="inlineStr"/>
       <c r="B153" t="inlineStr">
         <is>
-          <t>GG00BMDGQT90</t>
+          <t>NO0011202772</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>CORDIANT DIGITAL INFR.SUB</t>
+          <t>VAR ENERGI ASA</t>
         </is>
       </c>
       <c r="D153" t="n">
@@ -6405,7 +6397,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
@@ -6418,15 +6410,19 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr"/>
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>PDO</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>US11259P1093</t>
+          <t>US69355M1071</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>BROOKF.B.H.  4,62 PR.SHS</t>
+          <t>PIMCO DYN.INC.OP.BEN.</t>
         </is>
       </c>
       <c r="D154" t="n">
@@ -6443,7 +6439,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
@@ -6456,15 +6452,19 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr"/>
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>XTBLX</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>DK0061411964</t>
+          <t>US8852131080</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>CESSATECH A/S     DK -,20</t>
+          <t>THORNBURG INC.BLD.OPP.TR.</t>
         </is>
       </c>
       <c r="D155" t="n">
@@ -6481,7 +6481,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
@@ -6494,19 +6494,15 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>SEED.L</t>
-        </is>
-      </c>
+      <c r="A156" t="inlineStr"/>
       <c r="B156" t="inlineStr">
         <is>
-          <t>GG00BRK9BQ81</t>
+          <t>ES0105091005</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>SEED INNOVATIONS LTD.</t>
+          <t>CORPFIN C.P.R.II S.EO-,67</t>
         </is>
       </c>
       <c r="D156" t="n">
@@ -6523,7 +6519,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
@@ -6539,12 +6535,12 @@
       <c r="A157" t="inlineStr"/>
       <c r="B157" t="inlineStr">
         <is>
-          <t>PLBLOCM00013</t>
+          <t>CA0127841041</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>CANNABIS POLAND A,B ZY-10</t>
+          <t>ALBERT LABS INTL. CORP.</t>
         </is>
       </c>
       <c r="D157" t="n">
@@ -6577,12 +6573,12 @@
       <c r="A158" t="inlineStr"/>
       <c r="B158" t="inlineStr">
         <is>
-          <t>PLCRFRG00016</t>
+          <t>BG11MPKAAT18</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>CREATIVEF. G.S.A-K ZY-,23</t>
+          <t>M+S HIDRAVLIK AD     BW 1</t>
         </is>
       </c>
       <c r="D158" t="n">
@@ -6615,12 +6611,12 @@
       <c r="A159" t="inlineStr"/>
       <c r="B159" t="inlineStr">
         <is>
-          <t>PLIMGPW00013</t>
+          <t>BG1100017174</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>IMAGE POWER S.A.  ZY -,10</t>
+          <t>235 HOLDINGS          BW1</t>
         </is>
       </c>
       <c r="D159" t="n">
@@ -6653,12 +6649,12 @@
       <c r="A160" t="inlineStr"/>
       <c r="B160" t="inlineStr">
         <is>
-          <t>PLAIRMK00017</t>
+          <t>BG1100025052</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>MOLIERA2 S.A.      ZY-,10</t>
+          <t>ADVANCE TERRAFD REIT BW 1</t>
         </is>
       </c>
       <c r="D160" t="n">
@@ -6691,12 +6687,12 @@
       <c r="A161" t="inlineStr"/>
       <c r="B161" t="inlineStr">
         <is>
-          <t>PLCRBON00018</t>
+          <t>FR0012969095</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>ARENA.PL S.A.     ZY -,50</t>
+          <t>CAPELLI NOM.      EO 6,84</t>
         </is>
       </c>
       <c r="D161" t="n">
@@ -6729,12 +6725,12 @@
       <c r="A162" t="inlineStr"/>
       <c r="B162" t="inlineStr">
         <is>
-          <t>PLGPPIK00011</t>
+          <t>CA18912D1006</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>FIGENE CAPITAL SA  ZY 1</t>
+          <t>CLOUD DX INC.</t>
         </is>
       </c>
       <c r="D162" t="n">
@@ -6767,12 +6763,12 @@
       <c r="A163" t="inlineStr"/>
       <c r="B163" t="inlineStr">
         <is>
-          <t>PLGRMID00019</t>
+          <t>GB00BLNBD412</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>GREMI MEDIA S.A. ZY 4</t>
+          <t>AJAX RESOURCES PLC LS-,01</t>
         </is>
       </c>
       <c r="D163" t="n">
@@ -6805,12 +6801,12 @@
       <c r="A164" t="inlineStr"/>
       <c r="B164" t="inlineStr">
         <is>
-          <t>SE0000885501</t>
+          <t>SE0017486897</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>LEVEL BIO AB          SK1</t>
+          <t>ATLAS COPCO B FRIA.  O.N.</t>
         </is>
       </c>
       <c r="D164" t="n">
@@ -6840,19 +6836,15 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>GB00BNG2M159.SG</t>
-        </is>
-      </c>
+      <c r="A165" t="inlineStr"/>
       <c r="B165" t="inlineStr">
         <is>
-          <t>GB00BNG2M159</t>
+          <t>PLGMV0000016</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ALLIANZ TECHNO.TR.LS-,025</t>
+          <t>GAMIVO S.A.   ZY -,10</t>
         </is>
       </c>
       <c r="D165" t="n">
@@ -6869,7 +6861,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
@@ -6882,15 +6874,19 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr"/>
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>TMPL.L</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>PLBRTZM00010</t>
+          <t>GB00BMV92D64</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>BORUTA-ZACHEM S.A. ZY-,10</t>
+          <t>TEMPLE BAR INV.TR. LS-,05</t>
         </is>
       </c>
       <c r="D166" t="n">
@@ -6907,7 +6903,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
@@ -6920,15 +6916,19 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr"/>
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>BRW</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>PLCCTLS00017</t>
+          <t>US78518H2022</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>LABOCANNA S.A.     ZY-,10</t>
+          <t>SABA CA.INC+OP.NEW DL-,01</t>
         </is>
       </c>
       <c r="D167" t="n">
@@ -6945,7 +6945,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
@@ -6958,15 +6958,19 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr"/>
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>BGCG.L</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>PLEXCLN00016</t>
+          <t>GB0003656021</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>EXCELLENCE S.A.   ZY -,10</t>
+          <t>BG CHINA GROWTH TR.LS-,25</t>
         </is>
       </c>
       <c r="D168" t="n">
@@ -6983,7 +6987,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
@@ -6999,12 +7003,12 @@
       <c r="A169" t="inlineStr"/>
       <c r="B169" t="inlineStr">
         <is>
-          <t>PLFRENT00014</t>
+          <t>CA8271242072</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>FOREVER ENTERTAIN. ZY-,40</t>
+          <t>SILO WELLNESS INC.</t>
         </is>
       </c>
       <c r="D169" t="n">
@@ -7037,12 +7041,12 @@
       <c r="A170" t="inlineStr"/>
       <c r="B170" t="inlineStr">
         <is>
-          <t>PLFRMGR00015</t>
+          <t>US4872351030</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>FARM 51 GROUP S.A.ZY -,10</t>
+          <t>KEDA INDL GRP.C.LTD GDR A</t>
         </is>
       </c>
       <c r="D170" t="n">
@@ -7072,15 +7076,19 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr"/>
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>PNL.L</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>PLINNGN00015</t>
+          <t>GB00BM8B5H06</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>INNO-GENE SA      ZY -,10</t>
+          <t>PERSONAL ASSETS   LS-,125</t>
         </is>
       </c>
       <c r="D171" t="n">
@@ -7097,7 +7105,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
@@ -7113,12 +7121,12 @@
       <c r="A172" t="inlineStr"/>
       <c r="B172" t="inlineStr">
         <is>
-          <t>PLYLWHT00012</t>
+          <t>CA36269A2065</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>MEDAPP S.A.       ZY -,10</t>
+          <t>GAIA GROW CORP.</t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -7151,12 +7159,12 @@
       <c r="A173" t="inlineStr"/>
       <c r="B173" t="inlineStr">
         <is>
-          <t>CA1057361026</t>
+          <t>AU000000STA5</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>BRAXIA SCIENTIFIC CORP.</t>
+          <t>STRANDLINE RESOURCES LTD</t>
         </is>
       </c>
       <c r="D173" t="n">
@@ -7186,19 +7194,15 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>GG00BNDMJP11.SG</t>
-        </is>
-      </c>
+      <c r="A174" t="inlineStr"/>
       <c r="B174" t="inlineStr">
         <is>
-          <t>GG00BNDMJP11</t>
+          <t>CA64639M3049</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>RIVER UK MICRO CAP LTD.</t>
+          <t>NEW LEAF VENTURES  CL.A</t>
         </is>
       </c>
       <c r="D174" t="n">
@@ -7215,7 +7219,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
@@ -7228,15 +7232,19 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr"/>
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>QFG.BR</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>PLGEOTR00010</t>
+          <t>BE0003730448</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>GEOTRANS S.A.    ZY -,10</t>
+          <t>QUEST FOR GROWTH PRICAF</t>
         </is>
       </c>
       <c r="D175" t="n">
@@ -7253,7 +7261,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
@@ -7269,12 +7277,12 @@
       <c r="A176" t="inlineStr"/>
       <c r="B176" t="inlineStr">
         <is>
-          <t>SE0015837752</t>
+          <t>KYG3691M1024</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>GOOBIT GROUP AB</t>
+          <t>FULLWEALTH I.GRP.H.HD-,01</t>
         </is>
       </c>
       <c r="D176" t="n">
@@ -7304,19 +7312,15 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>CET</t>
-        </is>
-      </c>
+      <c r="A177" t="inlineStr"/>
       <c r="B177" t="inlineStr">
         <is>
-          <t>US1551231020</t>
+          <t>CA64440W1032</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>CENTRAL SEC.         DL 1</t>
+          <t>NEW FRONTIER VENT. INC.</t>
         </is>
       </c>
       <c r="D177" t="n">
@@ -7333,7 +7337,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
@@ -7349,12 +7353,12 @@
       <c r="A178" t="inlineStr"/>
       <c r="B178" t="inlineStr">
         <is>
-          <t>CA85857E2033</t>
+          <t>US47973H2058</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>STELMINE CANADA LTD</t>
+          <t>JOIN.PH.IND.GR.CO.LTD.GDR</t>
         </is>
       </c>
       <c r="D178" t="n">
@@ -7387,12 +7391,12 @@
       <c r="A179" t="inlineStr"/>
       <c r="B179" t="inlineStr">
         <is>
-          <t>PLAQUA000014</t>
+          <t>CA92255G2027</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>AQUA SA             ZY 16</t>
+          <t>VEGANO FOODS INC.</t>
         </is>
       </c>
       <c r="D179" t="n">
@@ -7425,12 +7429,12 @@
       <c r="A180" t="inlineStr"/>
       <c r="B180" t="inlineStr">
         <is>
-          <t>PLCDA0000018</t>
+          <t>ES0175589029</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>CDA S.A.     ZY -,10</t>
+          <t>SERESCO (ACC.P.DESD.)-,16</t>
         </is>
       </c>
       <c r="D180" t="n">
@@ -7463,12 +7467,12 @@
       <c r="A181" t="inlineStr"/>
       <c r="B181" t="inlineStr">
         <is>
-          <t>PLGDVIS00018</t>
+          <t>IT0005523839</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>LETUS CAPITAL ZY 1</t>
+          <t>DOTSTAY S.P.A.</t>
         </is>
       </c>
       <c r="D181" t="n">
@@ -7501,12 +7505,12 @@
       <c r="A182" t="inlineStr"/>
       <c r="B182" t="inlineStr">
         <is>
-          <t>SE0015658117</t>
+          <t>PLEMPCT00017</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>EPIROC AB B</t>
+          <t>EMPLOCITY SPOLKA A ZY-,10</t>
         </is>
       </c>
       <c r="D182" t="n">
@@ -7539,12 +7543,12 @@
       <c r="A183" t="inlineStr"/>
       <c r="B183" t="inlineStr">
         <is>
-          <t>PLGRMNK00014</t>
+          <t>ES0105691002</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>MENNICA SKARB.A,B ZY -,10</t>
+          <t>APLICACIONES Y T.EO-,0012</t>
         </is>
       </c>
       <c r="D183" t="n">
@@ -7577,12 +7581,12 @@
       <c r="A184" t="inlineStr"/>
       <c r="B184" t="inlineStr">
         <is>
-          <t>PLIPOSA00010</t>
+          <t>IT0005391229</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>ELQ                  ZY 2</t>
+          <t>E-NOVIA S.P.A.  EO-,01</t>
         </is>
       </c>
       <c r="D184" t="n">
@@ -7615,12 +7619,12 @@
       <c r="A185" t="inlineStr"/>
       <c r="B185" t="inlineStr">
         <is>
-          <t>PLJRSDB00015</t>
+          <t>AU0000105033</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>FINTECH S.A.         ZY 5</t>
+          <t>WELLFULLY LTD.</t>
         </is>
       </c>
       <c r="D185" t="n">
@@ -7653,12 +7657,12 @@
       <c r="A186" t="inlineStr"/>
       <c r="B186" t="inlineStr">
         <is>
-          <t>PLMPAY000017</t>
+          <t>TH0363010Z10</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>MPAY S.A.          ZY-,50</t>
+          <t>PRECIOUS SHIP. -FGN- BA 1</t>
         </is>
       </c>
       <c r="D186" t="n">
@@ -7691,12 +7695,12 @@
       <c r="A187" t="inlineStr"/>
       <c r="B187" t="inlineStr">
         <is>
-          <t>PLM4B0000017</t>
+          <t>US38349T1060</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>M4B SA            ZY 8</t>
+          <t>GOTION HIGH TECH GDR REGS</t>
         </is>
       </c>
       <c r="D187" t="n">
@@ -7726,15 +7730,19 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr"/>
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>JPI</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>PLPBLIA00012</t>
+          <t>US67075A1060</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>ERATO ENERGY S.A.   ZY-02</t>
+          <t>NUVEEN PREFER.SEC+INC.OPP</t>
         </is>
       </c>
       <c r="D188" t="n">
@@ -7751,7 +7759,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
@@ -7767,12 +7775,12 @@
       <c r="A189" t="inlineStr"/>
       <c r="B189" t="inlineStr">
         <is>
-          <t>PLPRIPK00018</t>
+          <t>CA3771304068</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>PRI EKOPARK SA    ZY -,10</t>
+          <t>GLASS HOUSE BRANDS INC.</t>
         </is>
       </c>
       <c r="D189" t="n">
@@ -7805,12 +7813,12 @@
       <c r="A190" t="inlineStr"/>
       <c r="B190" t="inlineStr">
         <is>
-          <t>PLRKLMF00010</t>
+          <t>CA72942X1078</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>PRIME ASI S.A.      ZY 10</t>
+          <t>PLURIBUS TECHNOLOGIES</t>
         </is>
       </c>
       <c r="D190" t="n">
@@ -7843,12 +7851,12 @@
       <c r="A191" t="inlineStr"/>
       <c r="B191" t="inlineStr">
         <is>
-          <t>PLROCCA00013</t>
+          <t>CA90369P1009</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>ROCCA SA          ZY -,05</t>
+          <t>UBIQUE MINERALS LTD.</t>
         </is>
       </c>
       <c r="D191" t="n">
@@ -7881,12 +7889,12 @@
       <c r="A192" t="inlineStr"/>
       <c r="B192" t="inlineStr">
         <is>
-          <t>PLRSYSA00014</t>
+          <t>ES0105687000</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>SUNDRAGON S.A.    ZY-,1</t>
+          <t>ENERGY SOL.TECH EO-,003</t>
         </is>
       </c>
       <c r="D192" t="n">
@@ -7919,12 +7927,12 @@
       <c r="A193" t="inlineStr"/>
       <c r="B193" t="inlineStr">
         <is>
-          <t>PLSFD0000013</t>
+          <t>CA73938G1081</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>SFD SA            ZY -,10</t>
+          <t>POWERSTONE METALS CORP.</t>
         </is>
       </c>
       <c r="D193" t="n">
@@ -7957,12 +7965,12 @@
       <c r="A194" t="inlineStr"/>
       <c r="B194" t="inlineStr">
         <is>
-          <t>PLSITE000013</t>
+          <t>CA30321D2095</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>MUNAR             ZY -,10</t>
+          <t>FABLED COPPER CORP.</t>
         </is>
       </c>
       <c r="D194" t="n">
@@ -7995,12 +8003,12 @@
       <c r="A195" t="inlineStr"/>
       <c r="B195" t="inlineStr">
         <is>
-          <t>PLSTRGM00014</t>
+          <t>CA70470T2092</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>CENTURION FIN.A-C ZY -,10</t>
+          <t>PEAKBIRCH COMMERCE INC.</t>
         </is>
       </c>
       <c r="D195" t="n">
@@ -8033,12 +8041,12 @@
       <c r="A196" t="inlineStr"/>
       <c r="B196" t="inlineStr">
         <is>
-          <t>PLBLKPC00014</t>
+          <t>PLEKTRM00016</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>BLACK PEARL      ZY-,10</t>
+          <t>CARBON GROUP       ZY-,10</t>
         </is>
       </c>
       <c r="D196" t="n">
@@ -8068,19 +8076,15 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>SBSI.L</t>
-        </is>
-      </c>
+      <c r="A197" t="inlineStr"/>
       <c r="B197" t="inlineStr">
         <is>
-          <t>GB00BF781319</t>
+          <t>PLMRTIN00011</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>SCHROD.BSC SOC.IMP.LS-,01</t>
+          <t>MERIT INVEST A,B,C ZY-,10</t>
         </is>
       </c>
       <c r="D197" t="n">
@@ -8097,7 +8101,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
@@ -8113,12 +8117,12 @@
       <c r="A198" t="inlineStr"/>
       <c r="B198" t="inlineStr">
         <is>
-          <t>US4101204067</t>
+          <t>PLSTLNR00012</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>HANCOCK WHITNEY SU.NTS 25</t>
+          <t>STILO ENERGY A-G L ZY 0.1</t>
         </is>
       </c>
       <c r="D198" t="n">
@@ -8150,17 +8154,17 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>PDI</t>
+          <t>BHMG.L</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>US72201Y1010</t>
+          <t>GG00BQBFY362</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>PIMCO DYNAMIC INCOME FD</t>
+          <t>BH MACRO GBP</t>
         </is>
       </c>
       <c r="D199" t="n">
@@ -8190,19 +8194,15 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>RCG</t>
-        </is>
-      </c>
+      <c r="A200" t="inlineStr"/>
       <c r="B200" t="inlineStr">
         <is>
-          <t>US7597201059</t>
+          <t>AU000000XST7</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>RENN FUND INC.</t>
+          <t>XSTATE RES LTD</t>
         </is>
       </c>
       <c r="D200" t="n">
@@ -8219,7 +8219,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
@@ -8235,12 +8235,12 @@
       <c r="A201" t="inlineStr"/>
       <c r="B201" t="inlineStr">
         <is>
-          <t>PLICI0000010</t>
+          <t>GB00BPP4RY41</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>IDH DEVELOPMENT S.A.</t>
+          <t>UNIGEL GROUP LTD. LS-,005</t>
         </is>
       </c>
       <c r="D201" t="n">
@@ -8272,17 +8272,17 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>UTG</t>
+          <t>MPCT-UN.TO</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>US7561581015</t>
+          <t>CA26154L1287</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>REAVES UTILITY INC. SBI</t>
+          <t>DREAM IMPACT TRUST</t>
         </is>
       </c>
       <c r="D202" t="n">
@@ -8312,15 +8312,19 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr"/>
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>WWH.L</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>PLCRLNS00018</t>
+          <t>GB00BN455J50</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>ZORTRAX S.A.      ZY -,10</t>
+          <t>WORLDWIDE HEALTH. LS-025</t>
         </is>
       </c>
       <c r="D203" t="n">
@@ -8337,7 +8341,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
@@ -8350,19 +8354,15 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>3IN.L</t>
-        </is>
-      </c>
+      <c r="A204" t="inlineStr"/>
       <c r="B204" t="inlineStr">
         <is>
-          <t>JE00BF5FX167</t>
+          <t>CA92561G1028</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>3I INFRASTRUCTURE</t>
+          <t>VICE HEALTH AND WELL.INC.</t>
         </is>
       </c>
       <c r="D204" t="n">
@@ -8379,7 +8379,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
@@ -8395,12 +8395,12 @@
       <c r="A205" t="inlineStr"/>
       <c r="B205" t="inlineStr">
         <is>
-          <t>CA36468X1069</t>
+          <t>IT0005540676</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>GAMEON ENTERTAINM. TECHS</t>
+          <t>ARRAS GROUP S.P.A.</t>
         </is>
       </c>
       <c r="D205" t="n">
@@ -8433,12 +8433,12 @@
       <c r="A206" t="inlineStr"/>
       <c r="B206" t="inlineStr">
         <is>
-          <t>SE0014829495</t>
+          <t>SE0019175274</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>STONEBEACH GROUP AB</t>
+          <t>SCANDINAVIAN ASTOR GROUP</t>
         </is>
       </c>
       <c r="D206" t="n">
@@ -8468,15 +8468,19 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr"/>
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>MNTN.L</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>SE0015962105</t>
+          <t>GG00BJ0CDD21</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>QBRICK AB (PUBL)</t>
+          <t>THE SCHIEHALLION FUND LTD</t>
         </is>
       </c>
       <c r="D207" t="n">
@@ -8493,7 +8497,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
@@ -8506,19 +8510,15 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>GB00BMF1L080.SG</t>
-        </is>
-      </c>
+      <c r="A208" t="inlineStr"/>
       <c r="B208" t="inlineStr">
         <is>
-          <t>GB00BMF1L080</t>
+          <t>ES0105709002</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>LITERACY CAPITAL  LS-,001</t>
+          <t>GREENING GRP.GLB.EO-,0025</t>
         </is>
       </c>
       <c r="D208" t="n">
@@ -8535,7 +8535,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
@@ -8548,19 +8548,15 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>GB00BN6JYS78.SG</t>
-        </is>
-      </c>
+      <c r="A209" t="inlineStr"/>
       <c r="B209" t="inlineStr">
         <is>
-          <t>GB00BN6JYS78</t>
+          <t>CA2692641079</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>AQUILA ENERGY EFF.TR.-,01</t>
+          <t>EV MINERALS CORP.</t>
         </is>
       </c>
       <c r="D209" t="n">
@@ -8577,7 +8573,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
@@ -8593,12 +8589,12 @@
       <c r="A210" t="inlineStr"/>
       <c r="B210" t="inlineStr">
         <is>
-          <t>IT0005450173</t>
+          <t>CA25162L1040</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>MEGLIOQUESTO S.P.A.</t>
+          <t>DEVERON CORP.</t>
         </is>
       </c>
       <c r="D210" t="n">
@@ -8631,12 +8627,12 @@
       <c r="A211" t="inlineStr"/>
       <c r="B211" t="inlineStr">
         <is>
-          <t>CA21872J3073</t>
+          <t>CA39312G1054</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>CORE ONE LABS INC.</t>
+          <t>GREEN MIN.INN.CORP.  O.N.</t>
         </is>
       </c>
       <c r="D211" t="n">
@@ -8669,12 +8665,12 @@
       <c r="A212" t="inlineStr"/>
       <c r="B212" t="inlineStr">
         <is>
-          <t>CA60743X1033</t>
+          <t>CA00036H1001</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>MOBILUM TECHNOLOGIES INC.</t>
+          <t>AAPKI VENTURES INC.  O.N.</t>
         </is>
       </c>
       <c r="D212" t="n">
@@ -8704,19 +8700,15 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>GB00BKPG0S09.SG</t>
-        </is>
-      </c>
+      <c r="A213" t="inlineStr"/>
       <c r="B213" t="inlineStr">
         <is>
-          <t>GB00BKPG0S09</t>
+          <t>PLMNLIT00014</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>TEMPLETON E.M.I.TR.LS-,05</t>
+          <t>MOONLIT S.A.      ZY -,10</t>
         </is>
       </c>
       <c r="D213" t="n">
@@ -8733,7 +8725,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
@@ -8748,17 +8740,17 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>GB00BL6K7L04.SG</t>
+          <t>NMCO</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>GB00BL6K7L04</t>
+          <t>US6706631032</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>HYDROGENONE C.G.  LS -,01</t>
+          <t>NUVEEN MUN.CRDT FD DL-,01</t>
         </is>
       </c>
       <c r="D214" t="n">
@@ -8788,19 +8780,15 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>CEE</t>
-        </is>
-      </c>
+      <c r="A215" t="inlineStr"/>
       <c r="B215" t="inlineStr">
         <is>
-          <t>US1534361001</t>
+          <t>SG1I55882803</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>CENT.+EAST.EUR.FD DL-,001</t>
+          <t>GREAT EASTN HLDGS LOC.</t>
         </is>
       </c>
       <c r="D215" t="n">
@@ -8817,7 +8805,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
@@ -8830,15 +8818,19 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="inlineStr"/>
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>RGT</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>CA05455W1086</t>
+          <t>US78081T1043</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>AWAKN LIFE SCIENCES CORP</t>
+          <t>ROYCE GL.TRUST    DL-,001</t>
         </is>
       </c>
       <c r="D216" t="n">
@@ -8855,7 +8847,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
@@ -8871,12 +8863,12 @@
       <c r="A217" t="inlineStr"/>
       <c r="B217" t="inlineStr">
         <is>
-          <t>PLPNCHP00016</t>
+          <t>CA69938P2052</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>PUNCH PUNK S.A.    ZY-,10</t>
+          <t>PARCELPAL LOGIS.INC. O.N.</t>
         </is>
       </c>
       <c r="D217" t="n">
@@ -8909,12 +8901,12 @@
       <c r="A218" t="inlineStr"/>
       <c r="B218" t="inlineStr">
         <is>
-          <t>AU000000MNS3</t>
+          <t>CA90109P2044</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>MAGNIS ENERGY TECHNOL.LTD</t>
+          <t>TUT FITNESS GRP INC.</t>
         </is>
       </c>
       <c r="D218" t="n">
@@ -8947,12 +8939,12 @@
       <c r="A219" t="inlineStr"/>
       <c r="B219" t="inlineStr">
         <is>
-          <t>CA0994031072</t>
+          <t>GB00BRXCFB77</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>BOOSH PLANT-BASED BRANDS</t>
+          <t>HELLENIC DYNAMICS LS-,001</t>
         </is>
       </c>
       <c r="D219" t="n">
@@ -8985,12 +8977,12 @@
       <c r="A220" t="inlineStr"/>
       <c r="B220" t="inlineStr">
         <is>
-          <t>CA84921X1078</t>
+          <t>SE0022088282</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>SPOTLITE360 IOT SOLUTIONS</t>
+          <t>RAYTELLIGENCE</t>
         </is>
       </c>
       <c r="D220" t="n">
@@ -9023,12 +9015,12 @@
       <c r="A221" t="inlineStr"/>
       <c r="B221" t="inlineStr">
         <is>
-          <t>CA27786T1093</t>
+          <t>SE0022240115</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>EAT WELL INVESTMENT GROUP</t>
+          <t>JONDETECH SENSORS</t>
         </is>
       </c>
       <c r="D221" t="n">
@@ -9061,12 +9053,12 @@
       <c r="A222" t="inlineStr"/>
       <c r="B222" t="inlineStr">
         <is>
-          <t>CA85209X1078</t>
+          <t>AU000000NWF9</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>SPROUT AI INC.</t>
+          <t>NEWFIELD RESOURCES LTD</t>
         </is>
       </c>
       <c r="D222" t="n">
@@ -9099,12 +9091,12 @@
       <c r="A223" t="inlineStr"/>
       <c r="B223" t="inlineStr">
         <is>
-          <t>PLIMRGM00010</t>
+          <t>US98490B1061</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>IMMERSION G. S.A.  ZY 1,0</t>
+          <t>YANGZ.YANG.ELEC.TECH.GDR1</t>
         </is>
       </c>
       <c r="D223" t="n">
@@ -9134,15 +9126,19 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="inlineStr"/>
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>NXG</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>CA91725D5001</t>
+          <t>US2316472073</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>URBANIMMERSIVE INC.</t>
+          <t>CUSHING RENAISSANCE SBI</t>
         </is>
       </c>
       <c r="D224" t="n">
@@ -9159,7 +9155,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
@@ -9175,12 +9171,12 @@
       <c r="A225" t="inlineStr"/>
       <c r="B225" t="inlineStr">
         <is>
-          <t>GB00BNK8T635</t>
+          <t>LU2859870326</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>NET ZERO INFRASTR. LS-,01</t>
+          <t>BIGREP SE            EO 1</t>
         </is>
       </c>
       <c r="D225" t="n">
@@ -9213,12 +9209,12 @@
       <c r="A226" t="inlineStr"/>
       <c r="B226" t="inlineStr">
         <is>
-          <t>CA46414Q1054</t>
+          <t>AU0000310211</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>IRWIN NATURALS INC.</t>
+          <t>REDIVIUM LTD.</t>
         </is>
       </c>
       <c r="D226" t="n">
@@ -9251,12 +9247,12 @@
       <c r="A227" t="inlineStr"/>
       <c r="B227" t="inlineStr">
         <is>
-          <t>CA76151T1030</t>
+          <t>US8067332002</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>REVITALIST L.A.W. LTD</t>
+          <t>SCHINDLER H. UNSP.ADR/0,5</t>
         </is>
       </c>
       <c r="D227" t="n">
@@ -9286,19 +9282,15 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>BMEZ</t>
-        </is>
-      </c>
+      <c r="A228" t="inlineStr"/>
       <c r="B228" t="inlineStr">
         <is>
-          <t>US09260E1055</t>
+          <t>IT0005454167</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>BR HL.SC.TM TR.</t>
+          <t>GLASS TO POWER A</t>
         </is>
       </c>
       <c r="D228" t="n">
@@ -9315,7 +9307,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
@@ -9331,12 +9323,12 @@
       <c r="A229" t="inlineStr"/>
       <c r="B229" t="inlineStr">
         <is>
-          <t>CA9534001081</t>
+          <t>PLGMHTS00015</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>WEST ISLAND BRANDS INC.</t>
+          <t>GAMEHUNTERS S.A.  ZY -,10</t>
         </is>
       </c>
       <c r="D229" t="n">
@@ -9369,12 +9361,12 @@
       <c r="A230" t="inlineStr"/>
       <c r="B230" t="inlineStr">
         <is>
-          <t>CA89367L1031</t>
+          <t>CA1358702027</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>TRANSFORMA RES. CORP.</t>
+          <t>CANADIAN GOLDCAMPS CORP.</t>
         </is>
       </c>
       <c r="D230" t="n">
@@ -9407,12 +9399,12 @@
       <c r="A231" t="inlineStr"/>
       <c r="B231" t="inlineStr">
         <is>
-          <t>PLBKDGM00019</t>
+          <t>HU0000199351</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>BAKED GAMES SA  ZY-,10</t>
+          <t>ESENSE HU.RE.SZ.NYRT UF 2</t>
         </is>
       </c>
       <c r="D231" t="n">
@@ -9445,12 +9437,12 @@
       <c r="A232" t="inlineStr"/>
       <c r="B232" t="inlineStr">
         <is>
-          <t>PLCNSLB00012</t>
+          <t>AU000000CXM6</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>CONSOLE LABS SA  ZY-,10</t>
+          <t>CENTREX LTD.</t>
         </is>
       </c>
       <c r="D232" t="n">
@@ -9480,19 +9472,15 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>QETH-U.TO</t>
-        </is>
-      </c>
+      <c r="A233" t="inlineStr"/>
       <c r="B233" t="inlineStr">
         <is>
-          <t>CA29764L1085</t>
+          <t>ES0105836003</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>THE ETHER FUND   CL.A</t>
+          <t>INMOCEMENTO SA</t>
         </is>
       </c>
       <c r="D233" t="n">
@@ -9509,7 +9497,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
@@ -9525,12 +9513,12 @@
       <c r="A234" t="inlineStr"/>
       <c r="B234" t="inlineStr">
         <is>
-          <t>CA34416F1036</t>
+          <t>SE0023468194</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>FOBI AI INC.</t>
+          <t>TANGIAMO TOUCH TECHN. AB</t>
         </is>
       </c>
       <c r="D234" t="n">
@@ -9563,12 +9551,12 @@
       <c r="A235" t="inlineStr"/>
       <c r="B235" t="inlineStr">
         <is>
-          <t>KYG6485S1021</t>
+          <t>SE0023469200</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>NEW HORIZ.HEAL. DL-,00005</t>
+          <t>BRANDBEE HOLDING AB</t>
         </is>
       </c>
       <c r="D235" t="n">
@@ -9601,12 +9589,12 @@
       <c r="A236" t="inlineStr"/>
       <c r="B236" t="inlineStr">
         <is>
-          <t>PLA346100011</t>
+          <t>DE000A40UT88</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>MADMIND STUDIO  ZY-,50</t>
+          <t>DELIVERY HERO SE NA NEUE</t>
         </is>
       </c>
       <c r="D236" t="n">
@@ -9639,12 +9627,12 @@
       <c r="A237" t="inlineStr"/>
       <c r="B237" t="inlineStr">
         <is>
-          <t>NO0010692130</t>
+          <t>DE000A40UU51</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>GENETIC ANALYSIS  NK -,60</t>
+          <t>DT.BETEILIG. NA O.N. NEUE</t>
         </is>
       </c>
       <c r="D237" t="n">
@@ -9674,19 +9662,15 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>PIN.L</t>
-        </is>
-      </c>
+      <c r="A238" t="inlineStr"/>
       <c r="B238" t="inlineStr">
         <is>
-          <t>GB00BP37WF17</t>
+          <t>CA29877A2056</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>PANTHEON INTL PLC LS-,067</t>
+          <t>EUROPEAN ELECTR. METALS</t>
         </is>
       </c>
       <c r="D238" t="n">
@@ -9703,7 +9687,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
@@ -9716,15 +9700,19 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="inlineStr"/>
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>HEQ</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>CA2241301043</t>
+          <t>US47804L1026</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>CRAFTPORT CANNABIS CORP.</t>
+          <t>JOHN HANCOCK DIV.INC.FUND</t>
         </is>
       </c>
       <c r="D239" t="n">
@@ -9741,7 +9729,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
@@ -9757,12 +9745,12 @@
       <c r="A240" t="inlineStr"/>
       <c r="B240" t="inlineStr">
         <is>
-          <t>CA57768L1058</t>
+          <t>SE0019763988</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>MAVEN BRANDS INC.</t>
+          <t>EYEON GROUP AB</t>
         </is>
       </c>
       <c r="D240" t="n">
@@ -9795,12 +9783,12 @@
       <c r="A241" t="inlineStr"/>
       <c r="B241" t="inlineStr">
         <is>
-          <t>BG1100003166</t>
+          <t>SE0022087680</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>SHELLY GROUP PLC     EO 1</t>
+          <t>GREENMERC AB B</t>
         </is>
       </c>
       <c r="D241" t="n">
@@ -9833,12 +9821,12 @@
       <c r="A242" t="inlineStr"/>
       <c r="B242" t="inlineStr">
         <is>
-          <t>BMG525961063</t>
+          <t>GB00BNXJB679</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>ALLEGRO CULTURE LTD HD-,2</t>
+          <t>HBX GROUP INTL    EO -,01</t>
         </is>
       </c>
       <c r="D242" t="n">
@@ -9870,17 +9858,17 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>HEIT.L</t>
+          <t>DCSI.CN</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>GB00BLNNFY18</t>
+          <t>US25460P2039</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>HARMONY ENERGY INCOME TR.</t>
+          <t>DIRECT COMMUNICATION SOL.</t>
         </is>
       </c>
       <c r="D243" t="n">
@@ -9913,12 +9901,12 @@
       <c r="A244" t="inlineStr"/>
       <c r="B244" t="inlineStr">
         <is>
-          <t>KYG7306U1022</t>
+          <t>DE000A40UTS1</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>PUJIANG INTERNAT.  DL-,01</t>
+          <t>BECHTLE AG O.N. NEUE</t>
         </is>
       </c>
       <c r="D244" t="n">
@@ -9948,19 +9936,15 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>GB00BLF7PP25.SG</t>
-        </is>
-      </c>
+      <c r="A245" t="inlineStr"/>
       <c r="B245" t="inlineStr">
         <is>
-          <t>GB00BLF7PP25</t>
+          <t>DE000A40ZTP6</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>DOWNING RNW.+INFR.TR.-,01</t>
+          <t>SGL CARBON SE O.N. NEUE</t>
         </is>
       </c>
       <c r="D245" t="n">
@@ -9977,7 +9961,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
@@ -9990,15 +9974,19 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="inlineStr"/>
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>MUJ0.F</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>SE0017161458</t>
+          <t>US6067991041</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>SVOLDER AB B O.N.</t>
+          <t>MITSUBISHI MAT.UNSP.ADS/1</t>
         </is>
       </c>
       <c r="D246" t="n">
@@ -10015,7 +10003,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
@@ -10031,12 +10019,12 @@
       <c r="A247" t="inlineStr"/>
       <c r="B247" t="inlineStr">
         <is>
-          <t>IT0005380602</t>
+          <t>US04962A2042</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>SIPARIO MOVIES S.P.A.</t>
+          <t>ATOS O. ADR O.N.</t>
         </is>
       </c>
       <c r="D247" t="n">
@@ -10069,12 +10057,12 @@
       <c r="A248" t="inlineStr"/>
       <c r="B248" t="inlineStr">
         <is>
-          <t>SE0014609194</t>
+          <t>AU000000AKP0</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>AMNODE AB            O.N.</t>
+          <t>AUDIO PIXELS HOLDINGS LTD</t>
         </is>
       </c>
       <c r="D248" t="n">
@@ -10104,19 +10092,15 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>JOF</t>
-        </is>
-      </c>
+      <c r="A249" t="inlineStr"/>
       <c r="B249" t="inlineStr">
         <is>
-          <t>US47109U1043</t>
+          <t>AU000000AML5</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>JP SM.CAP.FD       DL-,10</t>
+          <t>AEON METALS LTD.</t>
         </is>
       </c>
       <c r="D249" t="n">
@@ -10133,7 +10117,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
@@ -10149,12 +10133,12 @@
       <c r="A250" t="inlineStr"/>
       <c r="B250" t="inlineStr">
         <is>
-          <t>CA0877372015</t>
+          <t>CA05334L1094</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>BETTER PLANT SCIENCES INC</t>
+          <t>AUXICO RESOURCES CANADA</t>
         </is>
       </c>
       <c r="D250" t="n">
@@ -10187,12 +10171,12 @@
       <c r="A251" t="inlineStr"/>
       <c r="B251" t="inlineStr">
         <is>
-          <t>CA95081C1059</t>
+          <t>CA0765881028</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>WESANA HEALTH HOLD. INC.</t>
+          <t>BEE VECTOR.TECHS INTL</t>
         </is>
       </c>
       <c r="D251" t="n">
@@ -10225,12 +10209,12 @@
       <c r="A252" t="inlineStr"/>
       <c r="B252" t="inlineStr">
         <is>
-          <t>CA54404Q2009</t>
+          <t>AU000000GCR0</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>LORDS CO. WORLDW. HOLD.</t>
+          <t>GOLDEN CROSS RES</t>
         </is>
       </c>
       <c r="D252" t="n">
@@ -10263,12 +10247,12 @@
       <c r="A253" t="inlineStr"/>
       <c r="B253" t="inlineStr">
         <is>
-          <t>CA49601P1045</t>
+          <t>CA09075M1023</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>KINGS ENTERTAINMENT GROUP</t>
+          <t>BIOME GROW INC.</t>
         </is>
       </c>
       <c r="D253" t="n">
@@ -10298,19 +10282,15 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>DHT-UN.TO</t>
-        </is>
-      </c>
+      <c r="A254" t="inlineStr"/>
       <c r="B254" t="inlineStr">
         <is>
-          <t>CA23344H1091</t>
+          <t>BE0974281132</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>DRI HEALTHCARE TRUST UT</t>
+          <t>BIOCARTIS GR. 144A/REG S</t>
         </is>
       </c>
       <c r="D254" t="n">
@@ -10327,7 +10307,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
@@ -10343,12 +10323,12 @@
       <c r="A255" t="inlineStr"/>
       <c r="B255" t="inlineStr">
         <is>
-          <t>NO0011202772</t>
+          <t>AU000000JRV4</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>VAR ENERGI ASA</t>
+          <t>JERVOIS GLOBAL LTD.</t>
         </is>
       </c>
       <c r="D255" t="n">
@@ -10378,19 +10358,15 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>PDO</t>
-        </is>
-      </c>
+      <c r="A256" t="inlineStr"/>
       <c r="B256" t="inlineStr">
         <is>
-          <t>US69355M1071</t>
+          <t>AU000000LKO0</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>PIMCO DYN.INC.OP.BEN.</t>
+          <t>LAKES BLUE ENERGY N.L.</t>
         </is>
       </c>
       <c r="D256" t="n">
@@ -10407,7 +10383,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
@@ -10420,19 +10396,15 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>XTBLX</t>
-        </is>
-      </c>
+      <c r="A257" t="inlineStr"/>
       <c r="B257" t="inlineStr">
         <is>
-          <t>US8852131080</t>
+          <t>CA15707X1015</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>THORNBURG INC.BLD.OPP.TR.</t>
+          <t>CERTIVE SOLUTIONS INC.</t>
         </is>
       </c>
       <c r="D257" t="n">
@@ -10449,7 +10421,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
@@ -10465,12 +10437,12 @@
       <c r="A258" t="inlineStr"/>
       <c r="B258" t="inlineStr">
         <is>
-          <t>KYG137071075</t>
+          <t>CA45580J1012</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>BM3EAC CORP.       -,0001</t>
+          <t>INDIVA LTD</t>
         </is>
       </c>
       <c r="D258" t="n">
@@ -10500,19 +10472,15 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>HGLB</t>
-        </is>
-      </c>
+      <c r="A259" t="inlineStr"/>
       <c r="B259" t="inlineStr">
         <is>
-          <t>US43010T1043</t>
+          <t>CA4591211095</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>HIGHL.GL ALLOC.</t>
+          <t>INTERNATL BATT. METALS</t>
         </is>
       </c>
       <c r="D259" t="n">
@@ -10529,7 +10497,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
@@ -10545,12 +10513,12 @@
       <c r="A260" t="inlineStr"/>
       <c r="B260" t="inlineStr">
         <is>
-          <t>ES0105091005</t>
+          <t>DE000A2TSU21</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>CORPFIN C.P.R.II S.EO-,67</t>
+          <t>WILD BUNCH AG O.N.</t>
         </is>
       </c>
       <c r="D260" t="n">
@@ -10583,12 +10551,12 @@
       <c r="A261" t="inlineStr"/>
       <c r="B261" t="inlineStr">
         <is>
-          <t>CA0127841041</t>
+          <t>DE0006492903</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>ALBERT LABS INTL. CORP.</t>
+          <t>A.I.S. AG</t>
         </is>
       </c>
       <c r="D261" t="n">
@@ -10621,12 +10589,12 @@
       <c r="A262" t="inlineStr"/>
       <c r="B262" t="inlineStr">
         <is>
-          <t>BG11MPKAAT18</t>
+          <t>GB00BWC4X262</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>M+S HIDRAVLIK AD     BW 1</t>
+          <t>CHILL BRANDS GROUP LS-,01</t>
         </is>
       </c>
       <c r="D262" t="n">
@@ -10659,12 +10627,12 @@
       <c r="A263" t="inlineStr"/>
       <c r="B263" t="inlineStr">
         <is>
-          <t>BG1100008074</t>
+          <t>FI0009000665</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>TCHAIKAPH.HIGHQ.MED. BW 1</t>
+          <t>METSAE BOARD OYJ B EO1,70</t>
         </is>
       </c>
       <c r="D263" t="n">
@@ -10697,12 +10665,12 @@
       <c r="A264" t="inlineStr"/>
       <c r="B264" t="inlineStr">
         <is>
-          <t>BG1100008132</t>
+          <t>HU0000073507</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>SYNTHETICA AD-SOFIA  BW 1</t>
+          <t>MAGYAR TELEK.T.NA A UF100</t>
         </is>
       </c>
       <c r="D264" t="n">
@@ -10735,12 +10703,12 @@
       <c r="A265" t="inlineStr"/>
       <c r="B265" t="inlineStr">
         <is>
-          <t>BG1100017174</t>
+          <t>ID1000072309</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>235 HOLDINGS          BW1</t>
+          <t>SOLUSI BANGUN INDO.RP 500</t>
         </is>
       </c>
       <c r="D265" t="n">
@@ -10773,12 +10741,12 @@
       <c r="A266" t="inlineStr"/>
       <c r="B266" t="inlineStr">
         <is>
-          <t>BG1100025052</t>
+          <t>ID1000101207</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>ADVANCE TERRAFD REIT BW 1</t>
+          <t>MULTISTRADA ARAH SA.RP140</t>
         </is>
       </c>
       <c r="D266" t="n">
@@ -10811,12 +10779,12 @@
       <c r="A267" t="inlineStr"/>
       <c r="B267" t="inlineStr">
         <is>
-          <t>BG1100075065</t>
+          <t>ID1000107600</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>MONBAT AD            BW 1</t>
+          <t>PT WIJAYA KARYA (P.)RP100</t>
         </is>
       </c>
       <c r="D267" t="n">
@@ -10846,15 +10814,19 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="inlineStr"/>
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>NBPE.L</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>BG1100086070</t>
+          <t>GG00B1ZBD492</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>SOPHARMA TRADING     BW 1</t>
+          <t>NB PRIVATE EQUITY PART.A</t>
         </is>
       </c>
       <c r="D268" t="n">
@@ -10871,7 +10843,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
@@ -10887,12 +10859,12 @@
       <c r="A269" t="inlineStr"/>
       <c r="B269" t="inlineStr">
         <is>
-          <t>FR0012969095</t>
+          <t>GG00B4TM3943</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>CAPELLI NOM.      EO 6,84</t>
+          <t>BUSHVELD MINERALS  LS-,01</t>
         </is>
       </c>
       <c r="D269" t="n">
@@ -10922,15 +10894,19 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="inlineStr"/>
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>HGT.L</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>CA18912D1006</t>
+          <t>GB00BJ0LT190</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>CLOUD DX INC.</t>
+          <t>HGCAPITAL TRUST   LS-,025</t>
         </is>
       </c>
       <c r="D270" t="n">
@@ -10947,7 +10923,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
@@ -10963,12 +10939,12 @@
       <c r="A271" t="inlineStr"/>
       <c r="B271" t="inlineStr">
         <is>
-          <t>CA3024371088</t>
+          <t>MX01ID000009</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>FANDIFI TECHNOLOGY CORP.</t>
+          <t>IMPULS.D.DES.Y EM.E.AM.L.</t>
         </is>
       </c>
       <c r="D271" t="n">
@@ -11001,12 +10977,12 @@
       <c r="A272" t="inlineStr"/>
       <c r="B272" t="inlineStr">
         <is>
-          <t>GB00BKPH9N11</t>
+          <t>KYG2119W1069</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>AURA RENEWABLE ACQ. LS-01</t>
+          <t>CHINA EVERGRANDE GROUP</t>
         </is>
       </c>
       <c r="D272" t="n">
@@ -11039,12 +11015,12 @@
       <c r="A273" t="inlineStr"/>
       <c r="B273" t="inlineStr">
         <is>
-          <t>GB00BLNBD412</t>
+          <t>KYG215511091</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>AJAX RESOURCES PLC LS-,01</t>
+          <t>CHINA ENERGINE INT.HD-,10</t>
         </is>
       </c>
       <c r="D273" t="n">
@@ -11077,12 +11053,12 @@
       <c r="A274" t="inlineStr"/>
       <c r="B274" t="inlineStr">
         <is>
-          <t>SE0017486897</t>
+          <t>KYG2751H1020</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>ATLAS COPCO B FRIA.  O.N.</t>
+          <t>DEXIN CHINA HLD. DL-,0005</t>
         </is>
       </c>
       <c r="D274" t="n">
@@ -11115,12 +11091,12 @@
       <c r="A275" t="inlineStr"/>
       <c r="B275" t="inlineStr">
         <is>
-          <t>PLGMV0000016</t>
+          <t>PAL2400671A3</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>GAMIVO S.A.   ZY -,10</t>
+          <t>INTERCORP FIN.SERV. O.N.</t>
         </is>
       </c>
       <c r="D275" t="n">
@@ -11150,19 +11126,15 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>TMPL.L</t>
-        </is>
-      </c>
+      <c r="A276" t="inlineStr"/>
       <c r="B276" t="inlineStr">
         <is>
-          <t>GB00BMV92D64</t>
+          <t>KYG853951203</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>TEMPLE BAR INV.TR. LS-,05</t>
+          <t>STR.PETROCH.HLDGS HD-,025</t>
         </is>
       </c>
       <c r="D276" t="n">
@@ -11179,7 +11151,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
@@ -11192,19 +11164,15 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>BRW</t>
-        </is>
-      </c>
+      <c r="A277" t="inlineStr"/>
       <c r="B277" t="inlineStr">
         <is>
-          <t>US78518H2022</t>
+          <t>SE0000120784</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>SABA CA.INC+OP.NEW DL-,01</t>
+          <t>SKAND.ENSK. BKN C FR.SK10</t>
         </is>
       </c>
       <c r="D277" t="n">
@@ -11221,7 +11189,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
@@ -11234,15 +11202,19 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="inlineStr"/>
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>NFPH.F</t>
+        </is>
+      </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>CA88165V2066</t>
+          <t>TH0083B10Z10</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>TEVANO SYSTEMS HLDGS INC.</t>
+          <t>THANACHART CAP.-FGN-BA 10</t>
         </is>
       </c>
       <c r="D278" t="n">
@@ -11259,7 +11231,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
@@ -11272,19 +11244,15 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>BGCG.L</t>
-        </is>
-      </c>
+      <c r="A279" t="inlineStr"/>
       <c r="B279" t="inlineStr">
         <is>
-          <t>GB0003656021</t>
+          <t>US0044342055</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>BG CHINA GROWTH TR.LS-,25</t>
+          <t>ACER GDR REG.S/5 TA 10</t>
         </is>
       </c>
       <c r="D279" t="n">
@@ -11301,7 +11269,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
@@ -11317,12 +11285,12 @@
       <c r="A280" t="inlineStr"/>
       <c r="B280" t="inlineStr">
         <is>
-          <t>CA8271242072</t>
+          <t>US29081P3038</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>SILO WELLNESS INC.</t>
+          <t>EMBOTELL. ANDINA ADR B/6</t>
         </is>
       </c>
       <c r="D280" t="n">
@@ -11355,12 +11323,12 @@
       <c r="A281" t="inlineStr"/>
       <c r="B281" t="inlineStr">
         <is>
-          <t>BG1100051983</t>
+          <t>US3444191064</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>RODNA ZEMYA HLDG AD  BW 1</t>
+          <t>FOM.ECO.MEX.S.D.CV ADR/10</t>
         </is>
       </c>
       <c r="D281" t="n">
@@ -11393,12 +11361,12 @@
       <c r="A282" t="inlineStr"/>
       <c r="B282" t="inlineStr">
         <is>
-          <t>BG1100099065</t>
+          <t>US2786421030</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>BALKAN SEA PROPS REIT BW1</t>
+          <t>EBAY INC.         DL-,001</t>
         </is>
       </c>
       <c r="D282" t="n">
@@ -11431,12 +11399,12 @@
       <c r="A283" t="inlineStr"/>
       <c r="B283" t="inlineStr">
         <is>
-          <t>PLGMSBX00010</t>
+          <t>US7075691094</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>GAMES BOX S.A.     ZY-,10</t>
+          <t>PENN ENTERTAINMENT DL-,01</t>
         </is>
       </c>
       <c r="D283" t="n">
@@ -11469,12 +11437,12 @@
       <c r="A284" t="inlineStr"/>
       <c r="B284" t="inlineStr">
         <is>
-          <t>CA0536981065</t>
+          <t>US83367Y2072</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>AVILA ENERGY CORP.</t>
+          <t>S.ENER.ELEC.SP.GDR REGS 1</t>
         </is>
       </c>
       <c r="D284" t="n">
@@ -11507,12 +11475,12 @@
       <c r="A285" t="inlineStr"/>
       <c r="B285" t="inlineStr">
         <is>
-          <t>US4872351030</t>
+          <t>ZAE000073441</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>KEDA INDL GRP.C.LTD GDR A</t>
+          <t>MURRAY ROBERTS     O.N.</t>
         </is>
       </c>
       <c r="D285" t="n">
@@ -11542,15 +11510,19 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="inlineStr"/>
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>EMF</t>
+        </is>
+      </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>CA4196213058</t>
+          <t>US8801911012</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>HAVN LIFE SCIENCES INC.</t>
+          <t>TEMPLETON EM.MKT FD DL-01</t>
         </is>
       </c>
       <c r="D286" t="n">
@@ -11567,7 +11539,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
@@ -11580,19 +11552,15 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>PNL.L</t>
-        </is>
-      </c>
+      <c r="A287" t="inlineStr"/>
       <c r="B287" t="inlineStr">
         <is>
-          <t>GB00BM8B5H06</t>
+          <t>AU000000BCT7</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>PERSONAL ASSETS   LS-,125</t>
+          <t>BLUECHIIP LTD</t>
         </is>
       </c>
       <c r="D287" t="n">
@@ -11609,7 +11577,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
@@ -11622,19 +11590,15 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>PRM.TO</t>
-        </is>
-      </c>
+      <c r="A288" t="inlineStr"/>
       <c r="B288" t="inlineStr">
         <is>
-          <t>CA08934P1080</t>
+          <t>AU000000CLZ3</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>BIG PHARMA SPLIT  CL.A</t>
+          <t>CLASSIC MINERALS LTD.</t>
         </is>
       </c>
       <c r="D288" t="n">
@@ -11651,7 +11615,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
@@ -11667,12 +11631,12 @@
       <c r="A289" t="inlineStr"/>
       <c r="B289" t="inlineStr">
         <is>
-          <t>CA36269A2065</t>
+          <t>CA76156R1029</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>GAIA GROW CORP.</t>
+          <t>REVOLUGROUP CANADA INC</t>
         </is>
       </c>
       <c r="D289" t="n">
@@ -11705,12 +11669,12 @@
       <c r="A290" t="inlineStr"/>
       <c r="B290" t="inlineStr">
         <is>
-          <t>US36265D2045</t>
+          <t>CH0451424300</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>GEM CO. LTD SP.GDR/10 A</t>
+          <t>IQ INTL AG         SF-,01</t>
         </is>
       </c>
       <c r="D290" t="n">
@@ -11740,15 +11704,19 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="inlineStr"/>
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>PDX</t>
+        </is>
+      </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>US65447N1037</t>
+          <t>US69346N1072</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>NINGBO SHANSHAN GDR/A</t>
+          <t>PIMCO ENERGY+TACT.CR.OPPS</t>
         </is>
       </c>
       <c r="D291" t="n">
@@ -11765,7 +11733,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
@@ -11781,12 +11749,12 @@
       <c r="A292" t="inlineStr"/>
       <c r="B292" t="inlineStr">
         <is>
-          <t>AU000000STA5</t>
+          <t>CA45328X3058</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>STRANDLINE RESOURCES LTD</t>
+          <t>INCA ONE GOLD CORP.</t>
         </is>
       </c>
       <c r="D292" t="n">
@@ -11816,15 +11784,19 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="inlineStr"/>
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>VEIL.L</t>
+        </is>
+      </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>CA64639M3049</t>
+          <t>KYG9361H1092</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>NEW LEAF VENTURES  CL.A</t>
+          <t>VIETNAM ENTERPRISE INV.</t>
         </is>
       </c>
       <c r="D293" t="n">
@@ -11841,7 +11813,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
@@ -11854,19 +11826,15 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>QFG.BR</t>
-        </is>
-      </c>
+      <c r="A294" t="inlineStr"/>
       <c r="B294" t="inlineStr">
         <is>
-          <t>BE0003730448</t>
+          <t>DE000A254W52</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>QUEST FOR GROWTH PRICAF</t>
+          <t>PYRAMID AG</t>
         </is>
       </c>
       <c r="D294" t="n">
@@ -11883,7 +11851,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
@@ -11899,12 +11867,12 @@
       <c r="A295" t="inlineStr"/>
       <c r="B295" t="inlineStr">
         <is>
-          <t>KYG3691M1024</t>
+          <t>AU000000WKT6</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>FULLWEALTH I.GRP.H.HD-,01</t>
+          <t>WALKABOUT RESOURCES LTD</t>
         </is>
       </c>
       <c r="D295" t="n">
@@ -11937,12 +11905,12 @@
       <c r="A296" t="inlineStr"/>
       <c r="B296" t="inlineStr">
         <is>
-          <t>CA64440W1032</t>
+          <t>CH0563815429</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>NEW FRONTIER VENT. INC.</t>
+          <t>IQ INTERNATIONAL AG</t>
         </is>
       </c>
       <c r="D296" t="n">
@@ -11975,12 +11943,12 @@
       <c r="A297" t="inlineStr"/>
       <c r="B297" t="inlineStr">
         <is>
-          <t>US47973H2058</t>
+          <t>AU000000MRC8</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>JOIN.PH.IND.GR.CO.LTD.GDR</t>
+          <t>MINERAL COMM</t>
         </is>
       </c>
       <c r="D297" t="n">
@@ -12013,12 +11981,12 @@
       <c r="A298" t="inlineStr"/>
       <c r="B298" t="inlineStr">
         <is>
-          <t>US52678P2056</t>
+          <t>CA60855E1097</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>LEPU MED.T.B. SP.GDR O.N.</t>
+          <t>MOLECULE HOLDINGS</t>
         </is>
       </c>
       <c r="D298" t="n">
@@ -12051,12 +12019,12 @@
       <c r="A299" t="inlineStr"/>
       <c r="B299" t="inlineStr">
         <is>
-          <t>ES0105670006</t>
+          <t>CA8525403017</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>UMBRELLA GL.ENERGY EO-,02</t>
+          <t>STAGEZERO LIFE SCIENC.</t>
         </is>
       </c>
       <c r="D299" t="n">
@@ -12089,12 +12057,12 @@
       <c r="A300" t="inlineStr"/>
       <c r="B300" t="inlineStr">
         <is>
-          <t>CA92255G2027</t>
+          <t>IT0005421919</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>VEGANO FOODS INC.</t>
+          <t>AGATOS S.P.A.</t>
         </is>
       </c>
       <c r="D300" t="n">
@@ -12124,15 +12092,19 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="inlineStr"/>
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>DGS.TO</t>
+        </is>
+      </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>AU0000221251</t>
+          <t>CA25537Y1043</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>LEO LITHIUM LTD</t>
+          <t>DIVIDEND GROWTH SPLIT</t>
         </is>
       </c>
       <c r="D301" t="n">
@@ -12149,7 +12121,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
@@ -12162,15 +12134,19 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="inlineStr"/>
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>MMP-UN.TO</t>
+        </is>
+      </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>ES0175589029</t>
+          <t>CA7401731095</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>SERESCO (ACC.P.DESD.)-,16</t>
+          <t>PRECIOUS METAL + MIN.TR.</t>
         </is>
       </c>
       <c r="D302" t="n">
@@ -12187,7 +12163,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
@@ -12203,12 +12179,12 @@
       <c r="A303" t="inlineStr"/>
       <c r="B303" t="inlineStr">
         <is>
-          <t>CA04952E2087</t>
+          <t>CA7900141044</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>ATMOFIZER TECHNOL.INC. B</t>
+          <t>ST.JAMES GOLD CORP.</t>
         </is>
       </c>
       <c r="D303" t="n">
@@ -12241,12 +12217,12 @@
       <c r="A304" t="inlineStr"/>
       <c r="B304" t="inlineStr">
         <is>
-          <t>IT0005523839</t>
+          <t>GB00BYZC5R04</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>DOTSTAY S.P.A.</t>
+          <t>CARACAL GOLD PLC  LS-,001</t>
         </is>
       </c>
       <c r="D304" t="n">
@@ -12279,12 +12255,12 @@
       <c r="A305" t="inlineStr"/>
       <c r="B305" t="inlineStr">
         <is>
-          <t>PLEMPCT00017</t>
+          <t>CA5266813099</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>EMPLOCITY SPOLKA A ZY-,10</t>
+          <t>LEONOVUS INC. O.N.</t>
         </is>
       </c>
       <c r="D305" t="n">
@@ -12317,12 +12293,12 @@
       <c r="A306" t="inlineStr"/>
       <c r="B306" t="inlineStr">
         <is>
-          <t>ES0105691002</t>
+          <t>AU0000107211</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>APLICACIONES Y T.EO-,0012</t>
+          <t>TOMBADOR IRON LTD.</t>
         </is>
       </c>
       <c r="D306" t="n">
@@ -12355,12 +12331,12 @@
       <c r="A307" t="inlineStr"/>
       <c r="B307" t="inlineStr">
         <is>
-          <t>IT0005391229</t>
+          <t>GB00BFYMWJ95</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>E-NOVIA S.P.A.  EO-,01</t>
+          <t>TIRUPATI GRAPHITE LS-,025</t>
         </is>
       </c>
       <c r="D307" t="n">
@@ -12390,15 +12366,19 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="inlineStr"/>
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>RNEW.L</t>
+        </is>
+      </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>AU0000105033</t>
+          <t>GB00BLPK4430</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>WELLFULLY LTD.</t>
+          <t>ECOFIN US REN.IN. DL -,01</t>
         </is>
       </c>
       <c r="D308" t="n">
@@ -12415,7 +12395,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
@@ -12431,12 +12411,12 @@
       <c r="A309" t="inlineStr"/>
       <c r="B309" t="inlineStr">
         <is>
-          <t>TH0363010Z10</t>
+          <t>GB00B1250X28</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>PRECIOUS SHIP. -FGN- BA 1</t>
+          <t>LANSDOWNE OIL+G. LS-,0001</t>
         </is>
       </c>
       <c r="D309" t="n">
@@ -12469,12 +12449,12 @@
       <c r="A310" t="inlineStr"/>
       <c r="B310" t="inlineStr">
         <is>
-          <t>US38349T1060</t>
+          <t>US29081P2048</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>GOTION HIGH TECH GDR REGS</t>
+          <t>EMBOTELL. ANDINA ADR A/6</t>
         </is>
       </c>
       <c r="D310" t="n">
@@ -12506,17 +12486,17 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>JPI</t>
+          <t>GAB</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>US67075A1060</t>
+          <t>US3623971013</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>NUVEEN PREFER.SEC+INC.OPP</t>
+          <t>GABELLI EQUITY TR. DL-001</t>
         </is>
       </c>
       <c r="D311" t="n">
@@ -12548,17 +12528,17 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>MID-UN.TO</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>CA60446Q1081</t>
+          <t>US5301581048</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>MINT INCOME FUND  UTS</t>
+          <t>LIB.ALL-ST.EQU. SBI</t>
         </is>
       </c>
       <c r="D312" t="n">
@@ -12591,12 +12571,12 @@
       <c r="A313" t="inlineStr"/>
       <c r="B313" t="inlineStr">
         <is>
-          <t>CA3771304068</t>
+          <t>KYG6847M1087</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>GLASS HOUSE BRANDS INC.</t>
+          <t>OURGAME INT.HOL.DL-,00005</t>
         </is>
       </c>
       <c r="D313" t="n">
@@ -12629,12 +12609,12 @@
       <c r="A314" t="inlineStr"/>
       <c r="B314" t="inlineStr">
         <is>
-          <t>GB00BMWLC750</t>
+          <t>AU0000137598</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>MILTON CAPITAL PLC LS-,01</t>
+          <t>EPSILON HEALTHCARE LTD.</t>
         </is>
       </c>
       <c r="D314" t="n">
@@ -12667,12 +12647,12 @@
       <c r="A315" t="inlineStr"/>
       <c r="B315" t="inlineStr">
         <is>
-          <t>CA72942X1078</t>
+          <t>KYG618221058</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>PLURIBUS TECHNOLOGIES</t>
+          <t>MODERN LAND (CHINA) DL-01</t>
         </is>
       </c>
       <c r="D315" t="n">
@@ -12705,12 +12685,12 @@
       <c r="A316" t="inlineStr"/>
       <c r="B316" t="inlineStr">
         <is>
-          <t>CA90369P1009</t>
+          <t>GB0002192606</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>UBIQUE MINERALS LTD.</t>
+          <t>ROSS GRP PLC       LS-,01</t>
         </is>
       </c>
       <c r="D316" t="n">
@@ -12743,12 +12723,12 @@
       <c r="A317" t="inlineStr"/>
       <c r="B317" t="inlineStr">
         <is>
-          <t>ES0171996095</t>
+          <t>CA0682943059</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>GRIFOLS SA PREF. B EO-,05</t>
+          <t>BAROYECA GOLD+SILVER INC.</t>
         </is>
       </c>
       <c r="D317" t="n">
@@ -12778,15 +12758,19 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="inlineStr"/>
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>NESF.L</t>
+        </is>
+      </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>ES0105687000</t>
+          <t>GG00BJ0JVY01</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>ENERGY SOL.TECH EO-,003</t>
+          <t>NEXTENERGY SOLAR FD</t>
         </is>
       </c>
       <c r="D318" t="n">
@@ -12803,7 +12787,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr"/>
@@ -12816,15 +12800,19 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="inlineStr"/>
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>GB00BYSRMH16.SG</t>
+        </is>
+      </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>CA73938G1081</t>
+          <t>GB00BYSRMH16</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>POWERSTONE METALS CORP.</t>
+          <t>CC JAP.+GROWTH TR. LS-,01</t>
         </is>
       </c>
       <c r="D319" t="n">
@@ -12841,7 +12829,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr"/>
@@ -12857,12 +12845,12 @@
       <c r="A320" t="inlineStr"/>
       <c r="B320" t="inlineStr">
         <is>
-          <t>CA30321D2095</t>
+          <t>US11259P1093</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>FABLED COPPER CORP.</t>
+          <t>BROOKF.B.H.  4,62 PR.SHS</t>
         </is>
       </c>
       <c r="D320" t="n">
@@ -12892,15 +12880,19 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="inlineStr"/>
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>SEED.L</t>
+        </is>
+      </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>CA70470T2092</t>
+          <t>GG00BRK9BQ81</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>PEAKBIRCH COMMERCE INC.</t>
+          <t>SEED INNOVATIONS LTD.</t>
         </is>
       </c>
       <c r="D321" t="n">
@@ -12917,7 +12909,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr"/>
@@ -12933,12 +12925,12 @@
       <c r="A322" t="inlineStr"/>
       <c r="B322" t="inlineStr">
         <is>
-          <t>PLEKTRM00016</t>
+          <t>SE0000885501</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>CARBON GROUP       ZY-,10</t>
+          <t>LEVEL BIO AB          SK1</t>
         </is>
       </c>
       <c r="D322" t="n">
@@ -12968,15 +12960,19 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="inlineStr"/>
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>GB00BNG2M159.SG</t>
+        </is>
+      </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>PLMRTIN00011</t>
+          <t>GB00BNG2M159</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>MERIT INVEST A,B,C ZY-,10</t>
+          <t>ALLIANZ TECHNO.TR.LS-,025</t>
         </is>
       </c>
       <c r="D323" t="n">
@@ -12993,7 +12989,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr"/>
@@ -13009,12 +13005,12 @@
       <c r="A324" t="inlineStr"/>
       <c r="B324" t="inlineStr">
         <is>
-          <t>PLSTLNR00012</t>
+          <t>PLCCTLS00017</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>STILO ENERGY A-G L ZY 0.1</t>
+          <t>LABOCANNA S.A.     ZY-,10</t>
         </is>
       </c>
       <c r="D324" t="n">
@@ -13047,12 +13043,12 @@
       <c r="A325" t="inlineStr"/>
       <c r="B325" t="inlineStr">
         <is>
-          <t>HK0000812955</t>
+          <t>PLEXCLN00016</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>KING STONE EN. NEW</t>
+          <t>EXCELLENCE S.A.   ZY -,10</t>
         </is>
       </c>
       <c r="D325" t="n">
@@ -13082,19 +13078,15 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>BHMG.L</t>
-        </is>
-      </c>
+      <c r="A326" t="inlineStr"/>
       <c r="B326" t="inlineStr">
         <is>
-          <t>GG00BQBFY362</t>
+          <t>PLFRENT00014</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>BH MACRO GBP</t>
+          <t>FOREVER ENTERTAIN. ZY-,40</t>
         </is>
       </c>
       <c r="D326" t="n">
@@ -13111,7 +13103,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr"/>
@@ -13127,12 +13119,12 @@
       <c r="A327" t="inlineStr"/>
       <c r="B327" t="inlineStr">
         <is>
-          <t>AU000000XST7</t>
+          <t>PLFRMGR00015</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>XSTATE RES LTD</t>
+          <t>FARM 51 GROUP S.A.ZY -,10</t>
         </is>
       </c>
       <c r="D327" t="n">
@@ -13165,12 +13157,12 @@
       <c r="A328" t="inlineStr"/>
       <c r="B328" t="inlineStr">
         <is>
-          <t>GB00BPP4RY41</t>
+          <t>PLINNGN00015</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>UNIGEL GROUP LTD. LS-,005</t>
+          <t>INNO-GENE SA      ZY -,10</t>
         </is>
       </c>
       <c r="D328" t="n">
@@ -13200,19 +13192,15 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>MPCT-UN.TO</t>
-        </is>
-      </c>
+      <c r="A329" t="inlineStr"/>
       <c r="B329" t="inlineStr">
         <is>
-          <t>CA26154L1287</t>
+          <t>CA1057361026</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>DREAM IMPACT TRUST</t>
+          <t>BRAXIA SCIENTIFIC CORP.</t>
         </is>
       </c>
       <c r="D329" t="n">
@@ -13229,7 +13217,7 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr"/>
@@ -13245,12 +13233,12 @@
       <c r="A330" t="inlineStr"/>
       <c r="B330" t="inlineStr">
         <is>
-          <t>CA3613332061</t>
+          <t>PLGEOTR00010</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>G6 MATERIALS CORP.</t>
+          <t>GEOTRANS S.A.    ZY -,10</t>
         </is>
       </c>
       <c r="D330" t="n">
@@ -13283,12 +13271,12 @@
       <c r="A331" t="inlineStr"/>
       <c r="B331" t="inlineStr">
         <is>
-          <t>CA4339211035</t>
+          <t>SE0015837752</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>HIVE DIGITAL TECH</t>
+          <t>GOOBIT GROUP AB</t>
         </is>
       </c>
       <c r="D331" t="n">
@@ -13318,15 +13306,19 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="inlineStr"/>
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>CET</t>
+        </is>
+      </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>CA45675G2027</t>
+          <t>US1551231020</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>INFINITY STONE VENTURES A</t>
+          <t>CENTRAL SEC.         DL 1</t>
         </is>
       </c>
       <c r="D332" t="n">
@@ -13343,7 +13335,7 @@
         </is>
       </c>
       <c r="G332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr"/>
@@ -13359,12 +13351,12 @@
       <c r="A333" t="inlineStr"/>
       <c r="B333" t="inlineStr">
         <is>
-          <t>DK0061026119</t>
+          <t>PLCDA0000018</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>FREETRAILER GROUP  DK-,75</t>
+          <t>CDA S.A.     ZY -,10</t>
         </is>
       </c>
       <c r="D333" t="n">
@@ -13397,12 +13389,12 @@
       <c r="A334" t="inlineStr"/>
       <c r="B334" t="inlineStr">
         <is>
-          <t>US86804J2042</t>
+          <t>SE0015658117</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>SUNWODA ELECTR. GDR REG S</t>
+          <t>EPIROC AB B</t>
         </is>
       </c>
       <c r="D334" t="n">
@@ -13435,12 +13427,12 @@
       <c r="A335" t="inlineStr"/>
       <c r="B335" t="inlineStr">
         <is>
-          <t>GG00BMB5XZ39</t>
+          <t>PLGRMNK00014</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>GLOBAL INTERCON    LS-,01</t>
+          <t>MENNICA SKARB.A,B ZY -,10</t>
         </is>
       </c>
       <c r="D335" t="n">
@@ -13470,19 +13462,15 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>WWH.L</t>
-        </is>
-      </c>
+      <c r="A336" t="inlineStr"/>
       <c r="B336" t="inlineStr">
         <is>
-          <t>GB00BN455J50</t>
+          <t>PLIPOSA00010</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>WORLDWIDE HEALTH. LS-025</t>
+          <t>ELQ                  ZY 2</t>
         </is>
       </c>
       <c r="D336" t="n">
@@ -13499,7 +13487,7 @@
         </is>
       </c>
       <c r="G336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr"/>
@@ -13515,12 +13503,12 @@
       <c r="A337" t="inlineStr"/>
       <c r="B337" t="inlineStr">
         <is>
-          <t>CA92561G1028</t>
+          <t>PLJRSDB00015</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>VICE HEALTH AND WELL.INC.</t>
+          <t>FINTECH S.A.         ZY 5</t>
         </is>
       </c>
       <c r="D337" t="n">
@@ -13553,12 +13541,12 @@
       <c r="A338" t="inlineStr"/>
       <c r="B338" t="inlineStr">
         <is>
-          <t>IT0005540676</t>
+          <t>PLM4B0000017</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>ARRAS GROUP S.P.A.</t>
+          <t>M4B SA            ZY 8</t>
         </is>
       </c>
       <c r="D338" t="n">
@@ -13591,12 +13579,12 @@
       <c r="A339" t="inlineStr"/>
       <c r="B339" t="inlineStr">
         <is>
-          <t>AU0000276149</t>
+          <t>PLPRIPK00018</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>STRATA INVEST.H.CDI/1:1</t>
+          <t>PRI EKOPARK SA    ZY -,10</t>
         </is>
       </c>
       <c r="D339" t="n">
@@ -13629,12 +13617,12 @@
       <c r="A340" t="inlineStr"/>
       <c r="B340" t="inlineStr">
         <is>
-          <t>SE0019175274</t>
+          <t>PLRKLMF00010</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>SCANDINAVIAN ASTOR GROUP</t>
+          <t>PRIME ASI S.A.      ZY 10</t>
         </is>
       </c>
       <c r="D340" t="n">
@@ -13667,12 +13655,12 @@
       <c r="A341" t="inlineStr"/>
       <c r="B341" t="inlineStr">
         <is>
-          <t>SE0001321761</t>
+          <t>PLROCCA00013</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>TRIONA AB  SK-,20</t>
+          <t>ROCCA SA          ZY -,05</t>
         </is>
       </c>
       <c r="D341" t="n">
@@ -13705,12 +13693,12 @@
       <c r="A342" t="inlineStr"/>
       <c r="B342" t="inlineStr">
         <is>
-          <t>SE0020846392</t>
+          <t>PLBLKPC00014</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>NODEBIS APPLICATIONS AB</t>
+          <t>BLACK PEARL      ZY-,10</t>
         </is>
       </c>
       <c r="D342" t="n">
@@ -13740,15 +13728,19 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="inlineStr"/>
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>SBSI.L</t>
+        </is>
+      </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>PLBABY000016</t>
+          <t>GB00BF781319</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>NOVINA S.A.     E ZY 1,16</t>
+          <t>SCHROD.BSC SOC.IMP.LS-,01</t>
         </is>
       </c>
       <c r="D343" t="n">
@@ -13765,7 +13757,7 @@
         </is>
       </c>
       <c r="G343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr"/>
@@ -13781,12 +13773,12 @@
       <c r="A344" t="inlineStr"/>
       <c r="B344" t="inlineStr">
         <is>
-          <t>PLJJBEE00028</t>
+          <t>US4101204067</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>JUJUBEE S.A.     ZY -,10</t>
+          <t>HANCOCK WHITNEY SU.NTS 25</t>
         </is>
       </c>
       <c r="D344" t="n">
@@ -13818,17 +13810,17 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>MNTN.L</t>
+          <t>RCG</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>GG00BJ0CDD21</t>
+          <t>US7597201059</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>THE SCHIEHALLION FUND LTD</t>
+          <t>RENN FUND INC.</t>
         </is>
       </c>
       <c r="D345" t="n">
@@ -13861,12 +13853,12 @@
       <c r="A346" t="inlineStr"/>
       <c r="B346" t="inlineStr">
         <is>
-          <t>US7169722037</t>
+          <t>PLCRLNS00018</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>PHARMAESSENT.GDR RS TA 10</t>
+          <t>ZORTRAX S.A.      ZY -,10</t>
         </is>
       </c>
       <c r="D346" t="n">
@@ -13896,15 +13888,19 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="inlineStr"/>
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>3IN.L</t>
+        </is>
+      </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>US3623978463</t>
+          <t>JE00BF5FX167</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>GABELLI EQ. TR. P.K DL 25</t>
+          <t>3I INFRASTRUCTURE</t>
         </is>
       </c>
       <c r="D347" t="n">
@@ -13921,7 +13917,7 @@
         </is>
       </c>
       <c r="G347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr"/>
@@ -13937,12 +13933,12 @@
       <c r="A348" t="inlineStr"/>
       <c r="B348" t="inlineStr">
         <is>
-          <t>ES0105650073</t>
+          <t>SE0014829495</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>SUBSTRA.ART.INT.B EO-,001</t>
+          <t>STONEBEACH GROUP AB</t>
         </is>
       </c>
       <c r="D348" t="n">
@@ -13972,15 +13968,19 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="inlineStr"/>
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>GB00BN6JYS78.SG</t>
+        </is>
+      </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>ES0105709002</t>
+          <t>GB00BN6JYS78</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>GREENING GRP.GLB.EO-,0025</t>
+          <t>AQUILA ENERGY EFF.TR.-,01</t>
         </is>
       </c>
       <c r="D349" t="n">
@@ -13997,7 +13997,7 @@
         </is>
       </c>
       <c r="G349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr"/>
@@ -14013,12 +14013,12 @@
       <c r="A350" t="inlineStr"/>
       <c r="B350" t="inlineStr">
         <is>
-          <t>IT0005562514</t>
+          <t>IT0005450173</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>VALICA S.P.A.</t>
+          <t>MEGLIOQUESTO S.P.A.</t>
         </is>
       </c>
       <c r="D350" t="n">
@@ -14051,12 +14051,12 @@
       <c r="A351" t="inlineStr"/>
       <c r="B351" t="inlineStr">
         <is>
-          <t>PLMDNPL00013</t>
+          <t>CA60743X1033</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>MEDIAN POLSKA S.A. ZY-,10</t>
+          <t>MOBILUM TECHNOLOGIES INC.</t>
         </is>
       </c>
       <c r="D351" t="n">
@@ -14086,15 +14086,19 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="inlineStr"/>
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>GB00BKPG0S09.SG</t>
+        </is>
+      </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>CA2692641079</t>
+          <t>GB00BKPG0S09</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>EV MINERALS CORP.</t>
+          <t>TEMPLETON E.M.I.TR.LS-,05</t>
         </is>
       </c>
       <c r="D352" t="n">
@@ -14111,7 +14115,7 @@
         </is>
       </c>
       <c r="G352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr"/>
@@ -14127,12 +14131,12 @@
       <c r="A353" t="inlineStr"/>
       <c r="B353" t="inlineStr">
         <is>
-          <t>US41044C1053</t>
+          <t>AU000000MNS3</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>HANGZH.GREATST.IND. GDR/A</t>
+          <t>MAGNIS ENERGY TECHNOL.LTD</t>
         </is>
       </c>
       <c r="D353" t="n">
@@ -14165,12 +14169,12 @@
       <c r="A354" t="inlineStr"/>
       <c r="B354" t="inlineStr">
         <is>
-          <t>CA25162L1040</t>
+          <t>CA84921X1078</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>DEVERON CORP.</t>
+          <t>SPOTLITE360 IOT SOLUTIONS</t>
         </is>
       </c>
       <c r="D354" t="n">
@@ -14203,12 +14207,12 @@
       <c r="A355" t="inlineStr"/>
       <c r="B355" t="inlineStr">
         <is>
-          <t>FI4000561576</t>
+          <t>CA27786T1093</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>VALOE OYJ</t>
+          <t>EAT WELL INVESTMENT GROUP</t>
         </is>
       </c>
       <c r="D355" t="n">
@@ -14241,12 +14245,12 @@
       <c r="A356" t="inlineStr"/>
       <c r="B356" t="inlineStr">
         <is>
-          <t>KYG5700Y2097</t>
+          <t>CA85209X1078</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>LUFAX HLDG.L. A DL-,00001</t>
+          <t>SPROUT AI INC.</t>
         </is>
       </c>
       <c r="D356" t="n">
@@ -14279,12 +14283,12 @@
       <c r="A357" t="inlineStr"/>
       <c r="B357" t="inlineStr">
         <is>
-          <t>CA39312G1054</t>
+          <t>PLIMRGM00010</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>GREEN MIN.INN.CORP.  O.N.</t>
+          <t>IMMERSION G. S.A.  ZY 1,0</t>
         </is>
       </c>
       <c r="D357" t="n">
@@ -14317,12 +14321,12 @@
       <c r="A358" t="inlineStr"/>
       <c r="B358" t="inlineStr">
         <is>
-          <t>US89686D3035</t>
+          <t>CA91725D5001</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>TRIVAGO A SP.ADS/5 EO-,06</t>
+          <t>URBANIMMERSIVE INC.</t>
         </is>
       </c>
       <c r="D358" t="n">
@@ -14355,12 +14359,12 @@
       <c r="A359" t="inlineStr"/>
       <c r="B359" t="inlineStr">
         <is>
-          <t>CA00036H1001</t>
+          <t>GB00BNK8T635</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>AAPKI VENTURES INC.  O.N.</t>
+          <t>NET ZERO INFRASTR. LS-,01</t>
         </is>
       </c>
       <c r="D359" t="n">
@@ -14390,15 +14394,19 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="inlineStr"/>
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>BMEZ</t>
+        </is>
+      </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>PLMNLIT00014</t>
+          <t>US09260E1055</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>MOONLIT S.A.      ZY -,10</t>
+          <t>BR HL.SC.TM TR.</t>
         </is>
       </c>
       <c r="D360" t="n">
@@ -14415,7 +14423,7 @@
         </is>
       </c>
       <c r="G360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H360" t="inlineStr"/>
       <c r="I360" t="inlineStr"/>
@@ -14431,12 +14439,12 @@
       <c r="A361" t="inlineStr"/>
       <c r="B361" t="inlineStr">
         <is>
-          <t>CA85832P2089</t>
+          <t>PLBKDGM00019</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>STEEP HILL INC.</t>
+          <t>BAKED GAMES SA  ZY-,10</t>
         </is>
       </c>
       <c r="D361" t="n">
@@ -14466,19 +14474,15 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>IAGPE.AX</t>
-        </is>
-      </c>
+      <c r="A362" t="inlineStr"/>
       <c r="B362" t="inlineStr">
         <is>
-          <t>AU0000253197</t>
+          <t>CA34416F1036</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>INSURANCE AU GROUP LTD.</t>
+          <t>FOBI AI INC.</t>
         </is>
       </c>
       <c r="D362" t="n">
@@ -14495,7 +14499,7 @@
         </is>
       </c>
       <c r="G362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H362" t="inlineStr"/>
       <c r="I362" t="inlineStr"/>
@@ -14511,12 +14515,12 @@
       <c r="A363" t="inlineStr"/>
       <c r="B363" t="inlineStr">
         <is>
-          <t>AT0000A38M45</t>
+          <t>NO0010692130</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>CLEEN ENERGY AG</t>
+          <t>GENETIC ANALYSIS  NK -,60</t>
         </is>
       </c>
       <c r="D363" t="n">
@@ -14549,12 +14553,12 @@
       <c r="A364" t="inlineStr"/>
       <c r="B364" t="inlineStr">
         <is>
-          <t>CA6489261033</t>
+          <t>CA57768L1058</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>NEW WORLD SOLUTIONS INC.</t>
+          <t>MAVEN BRANDS INC.</t>
         </is>
       </c>
       <c r="D364" t="n">
@@ -14587,12 +14591,12 @@
       <c r="A365" t="inlineStr"/>
       <c r="B365" t="inlineStr">
         <is>
-          <t>IT0005578395</t>
+          <t>BG1100003166</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>ILLA S.P.A.</t>
+          <t>SHELLY GROUP PLC     EO 1</t>
         </is>
       </c>
       <c r="D365" t="n">
@@ -14622,15 +14626,19 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" t="inlineStr"/>
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>HEIT.L</t>
+        </is>
+      </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>IT0005573966</t>
+          <t>GB00BLNNFY18</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>YAKKYO S.P.A.        O.N.</t>
+          <t>HARMONY ENERGY INCOME TR.</t>
         </is>
       </c>
       <c r="D366" t="n">
@@ -14647,7 +14655,7 @@
         </is>
       </c>
       <c r="G366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr"/>
@@ -14663,12 +14671,12 @@
       <c r="A367" t="inlineStr"/>
       <c r="B367" t="inlineStr">
         <is>
-          <t>CA25380E1060</t>
+          <t>KYG7306U1022</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>DIGICANN VENTURES INC.</t>
+          <t>PUJIANG INTERNAT.  DL-,01</t>
         </is>
       </c>
       <c r="D367" t="n">
@@ -14700,17 +14708,17 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>ABND.CN</t>
+          <t>GB00BLF7PP25.SG</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>CA0037351073</t>
+          <t>GB00BLF7PP25</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>ABOUND ENERGY INC.  O.N.</t>
+          <t>DOWNING RNW.+INFR.TR.-,01</t>
         </is>
       </c>
       <c r="D368" t="n">
@@ -14740,19 +14748,15 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>NMCO</t>
-        </is>
-      </c>
+      <c r="A369" t="inlineStr"/>
       <c r="B369" t="inlineStr">
         <is>
-          <t>US6706631032</t>
+          <t>SE0014609194</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>NUVEEN MUN.CRDT FD DL-,01</t>
+          <t>AMNODE AB            O.N.</t>
         </is>
       </c>
       <c r="D369" t="n">
@@ -14769,7 +14773,7 @@
         </is>
       </c>
       <c r="G369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H369" t="inlineStr"/>
       <c r="I369" t="inlineStr"/>
@@ -14785,12 +14789,12 @@
       <c r="A370" t="inlineStr"/>
       <c r="B370" t="inlineStr">
         <is>
-          <t>SG1I55882803</t>
+          <t>CA95081C1059</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>GREAT EASTN HLDGS LOC.</t>
+          <t>WESANA HEALTH HOLD. INC.</t>
         </is>
       </c>
       <c r="D370" t="n">
@@ -14823,12 +14827,12 @@
       <c r="A371" t="inlineStr"/>
       <c r="B371" t="inlineStr">
         <is>
-          <t>ES0105717005</t>
+          <t>CA54404Q2009</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>REVENGA INGENIEROS EO-,26</t>
+          <t>LORDS CO. WORLDW. HOLD.</t>
         </is>
       </c>
       <c r="D371" t="n">
@@ -14858,19 +14862,15 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>RGT</t>
-        </is>
-      </c>
+      <c r="A372" t="inlineStr"/>
       <c r="B372" t="inlineStr">
         <is>
-          <t>US78081T1043</t>
+          <t>KYG137071075</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>ROYCE GL.TRUST    DL-,001</t>
+          <t>BM3EAC CORP.       -,0001</t>
         </is>
       </c>
       <c r="D372" t="n">
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="G372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="inlineStr"/>
@@ -14902,17 +14902,17 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>IGC.L</t>
+          <t>HGLB</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>GB00B0P8RJ60</t>
+          <t>US43010T1043</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>INDIA CAPITAL GRO. LS-,01</t>
+          <t>HIGHL.GL ALLOC.</t>
         </is>
       </c>
       <c r="D373" t="n">
@@ -14945,12 +14945,12 @@
       <c r="A374" t="inlineStr"/>
       <c r="B374" t="inlineStr">
         <is>
-          <t>CA69938P2052</t>
+          <t>BG1100008074</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>PARCELPAL LOGIS.INC. O.N.</t>
+          <t>TCHAIKAPH.HIGHQ.MED. BW 1</t>
         </is>
       </c>
       <c r="D374" t="n">
@@ -14983,12 +14983,12 @@
       <c r="A375" t="inlineStr"/>
       <c r="B375" t="inlineStr">
         <is>
-          <t>ES0105777017</t>
+          <t>BG1100008132</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>PUIG BRANDS        EO-,06</t>
+          <t>SYNTHETICA AD-SOFIA  BW 1</t>
         </is>
       </c>
       <c r="D375" t="n">
@@ -15021,12 +15021,12 @@
       <c r="A376" t="inlineStr"/>
       <c r="B376" t="inlineStr">
         <is>
-          <t>CA90109P2044</t>
+          <t>BG1100075065</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>TUT FITNESS GRP INC.</t>
+          <t>MONBAT AD            BW 1</t>
         </is>
       </c>
       <c r="D376" t="n">
@@ -15059,12 +15059,12 @@
       <c r="A377" t="inlineStr"/>
       <c r="B377" t="inlineStr">
         <is>
-          <t>GB00BRXCFB77</t>
+          <t>BG1100086070</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>HELLENIC DYNAMICS LS-,001</t>
+          <t>SOPHARMA TRADING     BW 1</t>
         </is>
       </c>
       <c r="D377" t="n">
@@ -15097,12 +15097,12 @@
       <c r="A378" t="inlineStr"/>
       <c r="B378" t="inlineStr">
         <is>
-          <t>CA69381B1094</t>
+          <t>CA3024371088</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>PACE METALS LTD.     O.N.</t>
+          <t>FANDIFI TECHNOLOGY CORP.</t>
         </is>
       </c>
       <c r="D378" t="n">
@@ -15135,12 +15135,12 @@
       <c r="A379" t="inlineStr"/>
       <c r="B379" t="inlineStr">
         <is>
-          <t>SE0022088282</t>
+          <t>GB00BKPH9N11</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>RAYTELLIGENCE</t>
+          <t>AURA RENEWABLE ACQ. LS-01</t>
         </is>
       </c>
       <c r="D379" t="n">
@@ -15173,12 +15173,12 @@
       <c r="A380" t="inlineStr"/>
       <c r="B380" t="inlineStr">
         <is>
-          <t>SE0022240115</t>
+          <t>CA88165V2066</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>JONDETECH SENSORS</t>
+          <t>TEVANO SYSTEMS HLDGS INC.</t>
         </is>
       </c>
       <c r="D380" t="n">
@@ -15211,12 +15211,12 @@
       <c r="A381" t="inlineStr"/>
       <c r="B381" t="inlineStr">
         <is>
-          <t>AU000000NWF9</t>
+          <t>BG1100051983</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>NEWFIELD RESOURCES LTD</t>
+          <t>RODNA ZEMYA HLDG AD  BW 1</t>
         </is>
       </c>
       <c r="D381" t="n">
@@ -15249,12 +15249,12 @@
       <c r="A382" t="inlineStr"/>
       <c r="B382" t="inlineStr">
         <is>
-          <t>US8523876048</t>
+          <t>BG1100099065</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>STAFFING 360 SOL.DL-00001</t>
+          <t>BALKAN SEA PROPS REIT BW1</t>
         </is>
       </c>
       <c r="D382" t="n">
@@ -15287,12 +15287,12 @@
       <c r="A383" t="inlineStr"/>
       <c r="B383" t="inlineStr">
         <is>
-          <t>US98955Q1013</t>
+          <t>PLGMSBX00010</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>ZHEJIANG HUAYOU COB.GDR/A</t>
+          <t>GAMES BOX S.A.     ZY-,10</t>
         </is>
       </c>
       <c r="D383" t="n">
@@ -15325,12 +15325,12 @@
       <c r="A384" t="inlineStr"/>
       <c r="B384" t="inlineStr">
         <is>
-          <t>US98490B1061</t>
+          <t>CA0536981065</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>YANGZ.YANG.ELEC.TECH.GDR1</t>
+          <t>AVILA ENERGY CORP.</t>
         </is>
       </c>
       <c r="D384" t="n">
@@ -15360,19 +15360,15 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>STS.L</t>
-        </is>
-      </c>
+      <c r="A385" t="inlineStr"/>
       <c r="B385" t="inlineStr">
         <is>
-          <t>GB00B09G3N23</t>
+          <t>CA4196213058</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>SEC. TR. SCOTLD    LS-,01</t>
+          <t>HAVN LIFE SCIENCES INC.</t>
         </is>
       </c>
       <c r="D385" t="n">
@@ -15389,7 +15385,7 @@
         </is>
       </c>
       <c r="G385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H385" t="inlineStr"/>
       <c r="I385" t="inlineStr"/>
@@ -15404,17 +15400,17 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>NXG</t>
+          <t>PRM.TO</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>US2316472073</t>
+          <t>CA08934P1080</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>CUSHING RENAISSANCE SBI</t>
+          <t>BIG PHARMA SPLIT  CL.A</t>
         </is>
       </c>
       <c r="D386" t="n">
@@ -15447,12 +15443,12 @@
       <c r="A387" t="inlineStr"/>
       <c r="B387" t="inlineStr">
         <is>
-          <t>LU2859870326</t>
+          <t>US36265D2045</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>BIGREP SE            EO 1</t>
+          <t>GEM CO. LTD SP.GDR/10 A</t>
         </is>
       </c>
       <c r="D387" t="n">
@@ -15485,12 +15481,12 @@
       <c r="A388" t="inlineStr"/>
       <c r="B388" t="inlineStr">
         <is>
-          <t>AU0000310211</t>
+          <t>US65447N1037</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>REDIVIUM LTD.</t>
+          <t>NINGBO SHANSHAN GDR/A</t>
         </is>
       </c>
       <c r="D388" t="n">
@@ -15523,12 +15519,12 @@
       <c r="A389" t="inlineStr"/>
       <c r="B389" t="inlineStr">
         <is>
-          <t>US8067332002</t>
+          <t>US52678P2056</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>SCHINDLER H. UNSP.ADR/0,5</t>
+          <t>LEPU MED.T.B. SP.GDR O.N.</t>
         </is>
       </c>
       <c r="D389" t="n">
@@ -15561,12 +15557,12 @@
       <c r="A390" t="inlineStr"/>
       <c r="B390" t="inlineStr">
         <is>
-          <t>IT0005454167</t>
+          <t>ES0105670006</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>GLASS TO POWER A</t>
+          <t>UMBRELLA GL.ENERGY EO-,02</t>
         </is>
       </c>
       <c r="D390" t="n">
@@ -15599,12 +15595,12 @@
       <c r="A391" t="inlineStr"/>
       <c r="B391" t="inlineStr">
         <is>
-          <t>SE0000524530</t>
+          <t>AU0000221251</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>GLYCOREX TRANSPLANT. B</t>
+          <t>LEO LITHIUM LTD</t>
         </is>
       </c>
       <c r="D391" t="n">
@@ -15634,19 +15630,15 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>FAX</t>
-        </is>
-      </c>
+      <c r="A392" t="inlineStr"/>
       <c r="B392" t="inlineStr">
         <is>
-          <t>US0030098679</t>
+          <t>CA04952E2087</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>ABRDN.A.PAC.         O.N.</t>
+          <t>ATMOFIZER TECHNOL.INC. B</t>
         </is>
       </c>
       <c r="D392" t="n">
@@ -15663,7 +15655,7 @@
         </is>
       </c>
       <c r="G392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H392" t="inlineStr"/>
       <c r="I392" t="inlineStr"/>
@@ -15678,17 +15670,17 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>PCT.L</t>
+          <t>MID-UN.TO</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>GB00BR3YV268</t>
+          <t>CA60446Q1081</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>POLAR CAP.TECH.TR. LS-,25</t>
+          <t>MINT INCOME FUND  UTS</t>
         </is>
       </c>
       <c r="D393" t="n">
@@ -15721,12 +15713,12 @@
       <c r="A394" t="inlineStr"/>
       <c r="B394" t="inlineStr">
         <is>
-          <t>US57064N2018</t>
+          <t>GB00BMWLC750</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>MARKFORGED HLDG  DL0</t>
+          <t>MILTON CAPITAL PLC LS-,01</t>
         </is>
       </c>
       <c r="D394" t="n">
@@ -15759,12 +15751,12 @@
       <c r="A395" t="inlineStr"/>
       <c r="B395" t="inlineStr">
         <is>
-          <t>PLGMHTS00015</t>
+          <t>ES0171996095</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>GAMEHUNTERS S.A.  ZY -,10</t>
+          <t>GRIFOLS SA PREF. B EO-,05</t>
         </is>
       </c>
       <c r="D395" t="n">
@@ -15797,12 +15789,12 @@
       <c r="A396" t="inlineStr"/>
       <c r="B396" t="inlineStr">
         <is>
-          <t>BMG236541170</t>
+          <t>HK0000812955</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>SHELF DRILL.NRTH. NK -,01</t>
+          <t>KING STONE EN. NEW</t>
         </is>
       </c>
       <c r="D396" t="n">
@@ -15835,12 +15827,12 @@
       <c r="A397" t="inlineStr"/>
       <c r="B397" t="inlineStr">
         <is>
-          <t>FR001400SA10</t>
+          <t>CA3613332061</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>SOLOCAL GROUP    EO -,01</t>
+          <t>G6 MATERIALS CORP.</t>
         </is>
       </c>
       <c r="D397" t="n">
@@ -15873,12 +15865,12 @@
       <c r="A398" t="inlineStr"/>
       <c r="B398" t="inlineStr">
         <is>
-          <t>CA1358702027</t>
+          <t>CA4339211035</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>CANADIAN GOLDCAMPS CORP.</t>
+          <t>HIVE DIGITAL TECH</t>
         </is>
       </c>
       <c r="D398" t="n">
@@ -15911,12 +15903,12 @@
       <c r="A399" t="inlineStr"/>
       <c r="B399" t="inlineStr">
         <is>
-          <t>HU0000199351</t>
+          <t>CA45675G2027</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>ESENSE HU.RE.SZ.NYRT UF 2</t>
+          <t>INFINITY STONE VENTURES A</t>
         </is>
       </c>
       <c r="D399" t="n">
@@ -15949,12 +15941,12 @@
       <c r="A400" t="inlineStr"/>
       <c r="B400" t="inlineStr">
         <is>
-          <t>AU000000CXM6</t>
+          <t>DK0061026119</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>CENTREX LTD.</t>
+          <t>FREETRAILER GROUP  DK-,75</t>
         </is>
       </c>
       <c r="D400" t="n">
@@ -15984,19 +15976,15 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>SRV</t>
-        </is>
-      </c>
+      <c r="A401" t="inlineStr"/>
       <c r="B401" t="inlineStr">
         <is>
-          <t>US2316313004</t>
+          <t>US86804J2042</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>CUSHING MLP+INFRASTR.T.R.</t>
+          <t>SUNWODA ELECTR. GDR REG S</t>
         </is>
       </c>
       <c r="D401" t="n">
@@ -16013,7 +16001,7 @@
         </is>
       </c>
       <c r="G401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H401" t="inlineStr"/>
       <c r="I401" t="inlineStr"/>
@@ -16029,12 +16017,12 @@
       <c r="A402" t="inlineStr"/>
       <c r="B402" t="inlineStr">
         <is>
-          <t>ES0105836003</t>
+          <t>GG00BMB5XZ39</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>INMOCEMENTO SA</t>
+          <t>GLOBAL INTERCON    LS-,01</t>
         </is>
       </c>
       <c r="D402" t="n">
@@ -16067,12 +16055,12 @@
       <c r="A403" t="inlineStr"/>
       <c r="B403" t="inlineStr">
         <is>
-          <t>ES0105848008</t>
+          <t>AU0000276149</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>COX ABG GROUP S.A. O.N.</t>
+          <t>STRATA INVEST.H.CDI/1:1</t>
         </is>
       </c>
       <c r="D403" t="n">
@@ -16102,19 +16090,15 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>MCN</t>
-        </is>
-      </c>
+      <c r="A404" t="inlineStr"/>
       <c r="B404" t="inlineStr">
         <is>
-          <t>US5574371002</t>
+          <t>SE0001321761</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>MADISON COV.CALL+EQ.S.</t>
+          <t>TRIONA AB  SK-,20</t>
         </is>
       </c>
       <c r="D404" t="n">
@@ -16131,7 +16115,7 @@
         </is>
       </c>
       <c r="G404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H404" t="inlineStr"/>
       <c r="I404" t="inlineStr"/>
@@ -16147,12 +16131,12 @@
       <c r="A405" t="inlineStr"/>
       <c r="B405" t="inlineStr">
         <is>
-          <t>SE0023468194</t>
+          <t>SE0020846392</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>TANGIAMO TOUCH TECHN. AB</t>
+          <t>NODEBIS APPLICATIONS AB</t>
         </is>
       </c>
       <c r="D405" t="n">
@@ -16185,12 +16169,12 @@
       <c r="A406" t="inlineStr"/>
       <c r="B406" t="inlineStr">
         <is>
-          <t>CA40054T3055</t>
+          <t>PLBABY000016</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>G2 ENERGY CORP.</t>
+          <t>NOVINA S.A.     E ZY 1,16</t>
         </is>
       </c>
       <c r="D406" t="n">
@@ -16223,12 +16207,12 @@
       <c r="A407" t="inlineStr"/>
       <c r="B407" t="inlineStr">
         <is>
-          <t>US4925322053</t>
+          <t>PLJJBEE00028</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>KESORAM IND.LTD GDRREGS/1</t>
+          <t>JUJUBEE S.A.     ZY -,10</t>
         </is>
       </c>
       <c r="D407" t="n">
@@ -16261,12 +16245,12 @@
       <c r="A408" t="inlineStr"/>
       <c r="B408" t="inlineStr">
         <is>
-          <t>SE0023469200</t>
+          <t>US7169722037</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>BRANDBEE HOLDING AB</t>
+          <t>PHARMAESSENT.GDR RS TA 10</t>
         </is>
       </c>
       <c r="D408" t="n">
@@ -16299,12 +16283,12 @@
       <c r="A409" t="inlineStr"/>
       <c r="B409" t="inlineStr">
         <is>
-          <t>DE000A40UT88</t>
+          <t>US3623978463</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>DELIVERY HERO SE NA NEUE</t>
+          <t>GABELLI EQ. TR. P.K DL 25</t>
         </is>
       </c>
       <c r="D409" t="n">
@@ -16337,12 +16321,12 @@
       <c r="A410" t="inlineStr"/>
       <c r="B410" t="inlineStr">
         <is>
-          <t>DE000A40UT96</t>
+          <t>ES0105650073</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>MTU AERO ENGINES NA NEUE</t>
+          <t>SUBSTRA.ART.INT.B EO-,001</t>
         </is>
       </c>
       <c r="D410" t="n">
@@ -16375,12 +16359,12 @@
       <c r="A411" t="inlineStr"/>
       <c r="B411" t="inlineStr">
         <is>
-          <t>DE000A40UU51</t>
+          <t>IT0005562514</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>DT.BETEILIG. NA O.N. NEUE</t>
+          <t>VALICA S.P.A.</t>
         </is>
       </c>
       <c r="D411" t="n">
@@ -16410,19 +16394,15 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>NEE-PT</t>
-        </is>
-      </c>
+      <c r="A412" t="inlineStr"/>
       <c r="B412" t="inlineStr">
         <is>
-          <t>US65339F1194</t>
+          <t>PLMDNPL00013</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>NEXTERA ENERGY UT 1/11/29</t>
+          <t>MEDIAN POLSKA S.A. ZY-,10</t>
         </is>
       </c>
       <c r="D412" t="n">
@@ -16439,7 +16419,7 @@
         </is>
       </c>
       <c r="G412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H412" t="inlineStr"/>
       <c r="I412" t="inlineStr"/>
@@ -16455,12 +16435,12 @@
       <c r="A413" t="inlineStr"/>
       <c r="B413" t="inlineStr">
         <is>
-          <t>CA60251N2086</t>
+          <t>US41044C1053</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>MINAS METALS LTD.</t>
+          <t>HANGZH.GREATST.IND. GDR/A</t>
         </is>
       </c>
       <c r="D413" t="n">
@@ -16493,12 +16473,12 @@
       <c r="A414" t="inlineStr"/>
       <c r="B414" t="inlineStr">
         <is>
-          <t>CA29877A2056</t>
+          <t>FI4000561576</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>EUROPEAN ELECTR. METALS</t>
+          <t>VALOE OYJ</t>
         </is>
       </c>
       <c r="D414" t="n">
@@ -16531,12 +16511,12 @@
       <c r="A415" t="inlineStr"/>
       <c r="B415" t="inlineStr">
         <is>
-          <t>AU0000378903</t>
+          <t>KYG5700Y2097</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>INVERT GRAPHITE</t>
+          <t>LUFAX HLDG.L. A DL-,00001</t>
         </is>
       </c>
       <c r="D415" t="n">
@@ -16569,12 +16549,12 @@
       <c r="A416" t="inlineStr"/>
       <c r="B416" t="inlineStr">
         <is>
-          <t>CA9439172037</t>
+          <t>US89686D3035</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>WAVERUNNER CAP INC.</t>
+          <t>TRIVAGO A SP.ADS/5 EO-,06</t>
         </is>
       </c>
       <c r="D416" t="n">
@@ -16607,12 +16587,12 @@
       <c r="A417" t="inlineStr"/>
       <c r="B417" t="inlineStr">
         <is>
-          <t>DE000A40UTV5</t>
+          <t>CA85832P2089</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>DEUTSCHE POST NA O.N.NEUE</t>
+          <t>STEEP HILL INC.</t>
         </is>
       </c>
       <c r="D417" t="n">
@@ -16644,17 +16624,17 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>HEQ</t>
+          <t>IAGPE.AX</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>US47804L1026</t>
+          <t>AU0000253197</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>JOHN HANCOCK DIV.INC.FUND</t>
+          <t>INSURANCE AU GROUP LTD.</t>
         </is>
       </c>
       <c r="D418" t="n">
@@ -16684,19 +16664,15 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>BRAI.L</t>
-        </is>
-      </c>
+      <c r="A419" t="inlineStr"/>
       <c r="B419" t="inlineStr">
         <is>
-          <t>GB00B7W0XJ61</t>
+          <t>AT0000A38M45</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>BLACKROCK AM.INC.TR. LS 1</t>
+          <t>CLEEN ENERGY AG</t>
         </is>
       </c>
       <c r="D419" t="n">
@@ -16713,7 +16689,7 @@
         </is>
       </c>
       <c r="G419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H419" t="inlineStr"/>
       <c r="I419" t="inlineStr"/>
@@ -16729,12 +16705,12 @@
       <c r="A420" t="inlineStr"/>
       <c r="B420" t="inlineStr">
         <is>
-          <t>PLVGUAR00011</t>
+          <t>CA6489261033</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>DEVORAN SA        ZY -,1</t>
+          <t>NEW WORLD SOLUTIONS INC.</t>
         </is>
       </c>
       <c r="D420" t="n">
@@ -16767,12 +16743,12 @@
       <c r="A421" t="inlineStr"/>
       <c r="B421" t="inlineStr">
         <is>
-          <t>GB00BYWLRL80</t>
+          <t>IT0005578395</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>NEO ENERGY METALS LS,0001</t>
+          <t>ILLA S.P.A.</t>
         </is>
       </c>
       <c r="D421" t="n">
@@ -16805,12 +16781,12 @@
       <c r="A422" t="inlineStr"/>
       <c r="B422" t="inlineStr">
         <is>
-          <t>SE0020357754</t>
+          <t>IT0005573966</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>COEGIN PHARMA AB</t>
+          <t>YAKKYO S.P.A.        O.N.</t>
         </is>
       </c>
       <c r="D422" t="n">
@@ -16840,19 +16816,15 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>KIO</t>
-        </is>
-      </c>
+      <c r="A423" t="inlineStr"/>
       <c r="B423" t="inlineStr">
         <is>
-          <t>US48249T1060</t>
+          <t>CA25380E1060</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>KKR INCOME OPP.FD DL-,001</t>
+          <t>DIGICANN VENTURES INC.</t>
         </is>
       </c>
       <c r="D423" t="n">
@@ -16869,7 +16841,7 @@
         </is>
       </c>
       <c r="G423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H423" t="inlineStr"/>
       <c r="I423" t="inlineStr"/>
@@ -16882,15 +16854,19 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" t="inlineStr"/>
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>ABND.CN</t>
+        </is>
+      </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>JP3646700009</t>
+          <t>CA0037351073</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>NAKAYAMA FUDOUSAN CO.LTD</t>
+          <t>ABOUND ENERGY INC.  O.N.</t>
         </is>
       </c>
       <c r="D424" t="n">
@@ -16907,7 +16883,7 @@
         </is>
       </c>
       <c r="G424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H424" t="inlineStr"/>
       <c r="I424" t="inlineStr"/>
@@ -16923,12 +16899,12 @@
       <c r="A425" t="inlineStr"/>
       <c r="B425" t="inlineStr">
         <is>
-          <t>SE0019763988</t>
+          <t>ES0105717005</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>EYEON GROUP AB</t>
+          <t>REVENGA INGENIEROS EO-,26</t>
         </is>
       </c>
       <c r="D425" t="n">
@@ -16958,15 +16934,19 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" t="inlineStr"/>
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>IGC.L</t>
+        </is>
+      </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>SE0022087680</t>
+          <t>GB00B0P8RJ60</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>GREENMERC AB B</t>
+          <t>INDIA CAPITAL GRO. LS-,01</t>
         </is>
       </c>
       <c r="D426" t="n">
@@ -16983,7 +16963,7 @@
         </is>
       </c>
       <c r="G426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H426" t="inlineStr"/>
       <c r="I426" t="inlineStr"/>
@@ -16999,12 +16979,12 @@
       <c r="A427" t="inlineStr"/>
       <c r="B427" t="inlineStr">
         <is>
-          <t>GB00BNXJB679</t>
+          <t>ES0105777017</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>HBX GROUP INTL    EO -,01</t>
+          <t>PUIG BRANDS        EO-,06</t>
         </is>
       </c>
       <c r="D427" t="n">
@@ -17034,19 +17014,15 @@
       </c>
     </row>
     <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>DCSI.CN</t>
-        </is>
-      </c>
+      <c r="A428" t="inlineStr"/>
       <c r="B428" t="inlineStr">
         <is>
-          <t>US25460P2039</t>
+          <t>CA69381B1094</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>DIRECT COMMUNICATION SOL.</t>
+          <t>PACE METALS LTD.     O.N.</t>
         </is>
       </c>
       <c r="D428" t="n">
@@ -17063,7 +17039,7 @@
         </is>
       </c>
       <c r="G428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H428" t="inlineStr"/>
       <c r="I428" t="inlineStr"/>
@@ -17079,12 +17055,12 @@
       <c r="A429" t="inlineStr"/>
       <c r="B429" t="inlineStr">
         <is>
-          <t>DE000A40UTS1</t>
+          <t>US8523876048</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>BECHTLE AG O.N. NEUE</t>
+          <t>STAFFING 360 SOL.DL-00001</t>
         </is>
       </c>
       <c r="D429" t="n">
@@ -17117,12 +17093,12 @@
       <c r="A430" t="inlineStr"/>
       <c r="B430" t="inlineStr">
         <is>
-          <t>DK0063631999</t>
+          <t>US98955Q1013</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>DANCANN PHARMA       DK 1</t>
+          <t>ZHEJIANG HUAYOU COB.GDR/A</t>
         </is>
       </c>
       <c r="D430" t="n">
@@ -17152,15 +17128,19 @@
       </c>
     </row>
     <row r="431">
-      <c r="A431" t="inlineStr"/>
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>STS.L</t>
+        </is>
+      </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>FR001400XP40</t>
+          <t>GB00B09G3N23</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>BOLLORE SE NV010125 EO-16</t>
+          <t>SEC. TR. SCOTLD    LS-,01</t>
         </is>
       </c>
       <c r="D431" t="n">
@@ -17177,7 +17157,7 @@
         </is>
       </c>
       <c r="G431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H431" t="inlineStr"/>
       <c r="I431" t="inlineStr"/>
@@ -17193,12 +17173,12 @@
       <c r="A432" t="inlineStr"/>
       <c r="B432" t="inlineStr">
         <is>
-          <t>DE000A40ZTP6</t>
+          <t>SE0000524530</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>SGL CARBON SE O.N. NEUE</t>
+          <t>GLYCOREX TRANSPLANT. B</t>
         </is>
       </c>
       <c r="D432" t="n">
@@ -17228,15 +17208,19 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" t="inlineStr"/>
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>FAX</t>
+        </is>
+      </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>US78397C2098</t>
+          <t>US0030098679</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>SDIC POWER HLDG GDR REG S</t>
+          <t>ABRDN.A.PAC.         O.N.</t>
         </is>
       </c>
       <c r="D433" t="n">
@@ -17253,7 +17237,7 @@
         </is>
       </c>
       <c r="G433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H433" t="inlineStr"/>
       <c r="I433" t="inlineStr"/>
@@ -17266,15 +17250,19 @@
       </c>
     </row>
     <row r="434">
-      <c r="A434" t="inlineStr"/>
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>PCT.L</t>
+        </is>
+      </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>US48268G1004</t>
+          <t>GB00BR3YV268</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>KT+G CORP.(GDR144A)1/2</t>
+          <t>POLAR CAP.TECH.TR. LS-,25</t>
         </is>
       </c>
       <c r="D434" t="n">
@@ -17291,7 +17279,7 @@
         </is>
       </c>
       <c r="G434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H434" t="inlineStr"/>
       <c r="I434" t="inlineStr"/>
@@ -17304,19 +17292,15 @@
       </c>
     </row>
     <row r="435">
-      <c r="A435" t="inlineStr">
-        <is>
-          <t>BTX</t>
-        </is>
-      </c>
+      <c r="A435" t="inlineStr"/>
       <c r="B435" t="inlineStr">
         <is>
-          <t>US09260Q1085</t>
+          <t>BMG236541170</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>BR IN.+GR.TM TR</t>
+          <t>SHELF DRILL.NRTH. NK -,01</t>
         </is>
       </c>
       <c r="D435" t="n">
@@ -17333,7 +17317,7 @@
         </is>
       </c>
       <c r="G435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H435" t="inlineStr"/>
       <c r="I435" t="inlineStr"/>
@@ -17349,12 +17333,12 @@
       <c r="A436" t="inlineStr"/>
       <c r="B436" t="inlineStr">
         <is>
-          <t>US37891E2028</t>
+          <t>FR001400SA10</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>GLOBALWAFERS SP.GDR144A/1</t>
+          <t>SOLOCAL GROUP    EO -,01</t>
         </is>
       </c>
       <c r="D436" t="n">
@@ -17386,17 +17370,17 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>GLD.JO</t>
+          <t>SRV</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>ZAE000060067</t>
+          <t>US2316313004</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>NEWGOLD ISSUER (RF) LTD.</t>
+          <t>CUSHING MLP+INFRASTR.T.R.</t>
         </is>
       </c>
       <c r="D437" t="n">
@@ -17426,19 +17410,15 @@
       </c>
     </row>
     <row r="438">
-      <c r="A438" t="inlineStr">
-        <is>
-          <t>MUJ0.F</t>
-        </is>
-      </c>
+      <c r="A438" t="inlineStr"/>
       <c r="B438" t="inlineStr">
         <is>
-          <t>US6067991041</t>
+          <t>ES0105848008</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>MITSUBISHI MAT.UNSP.ADS/1</t>
+          <t>COX ABG GROUP S.A. O.N.</t>
         </is>
       </c>
       <c r="D438" t="n">
@@ -17455,7 +17435,7 @@
         </is>
       </c>
       <c r="G438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H438" t="inlineStr"/>
       <c r="I438" t="inlineStr"/>
@@ -17468,15 +17448,19 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" t="inlineStr"/>
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>MCN</t>
+        </is>
+      </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>CA12570Q1072</t>
+          <t>US5574371002</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>CIE FIN.RICHE.CDR O.N.</t>
+          <t>MADISON COV.CALL+EQ.S.</t>
         </is>
       </c>
       <c r="D439" t="n">
@@ -17493,7 +17477,7 @@
         </is>
       </c>
       <c r="G439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H439" t="inlineStr"/>
       <c r="I439" t="inlineStr"/>
@@ -17509,12 +17493,12 @@
       <c r="A440" t="inlineStr"/>
       <c r="B440" t="inlineStr">
         <is>
-          <t>CA6699861010</t>
+          <t>CA40054T3055</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>NOVERTIS AG CDR O.N.</t>
+          <t>G2 ENERGY CORP.</t>
         </is>
       </c>
       <c r="D440" t="n">
@@ -17547,12 +17531,12 @@
       <c r="A441" t="inlineStr"/>
       <c r="B441" t="inlineStr">
         <is>
-          <t>US27616P3010</t>
+          <t>US4925322053</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>EASTERLY GOVT P. NEW O.N.</t>
+          <t>KESORAM IND.LTD GDRREGS/1</t>
         </is>
       </c>
       <c r="D441" t="n">
@@ -17585,12 +17569,12 @@
       <c r="A442" t="inlineStr"/>
       <c r="B442" t="inlineStr">
         <is>
-          <t>US62955X3008</t>
+          <t>DE000A40UT96</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>NAAS TECHN.SP.ADR/200 N25</t>
+          <t>MTU AERO ENGINES NA NEUE</t>
         </is>
       </c>
       <c r="D442" t="n">
@@ -17620,15 +17604,19 @@
       </c>
     </row>
     <row r="443">
-      <c r="A443" t="inlineStr"/>
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>NEE-PT</t>
+        </is>
+      </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>US98420X2027</t>
+          <t>US65339F1194</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>X4 PHARMACEUTICALS NEW</t>
+          <t>NEXTERA ENERGY UT 1/11/29</t>
         </is>
       </c>
       <c r="D443" t="n">
@@ -17645,7 +17633,7 @@
         </is>
       </c>
       <c r="G443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H443" t="inlineStr"/>
       <c r="I443" t="inlineStr"/>
@@ -17661,12 +17649,12 @@
       <c r="A444" t="inlineStr"/>
       <c r="B444" t="inlineStr">
         <is>
-          <t>US04962A2042</t>
+          <t>AU0000378903</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>ATOS O. ADR O.N.</t>
+          <t>INVERT GRAPHITE</t>
         </is>
       </c>
       <c r="D444" t="n">
@@ -17695,6 +17683,744 @@
         <v>0</v>
       </c>
     </row>
+    <row r="445">
+      <c r="A445" t="inlineStr"/>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>CA9439172037</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>WAVERUNNER CAP INC.</t>
+        </is>
+      </c>
+      <c r="D445" t="n">
+        <v>0</v>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>xetra_ver</t>
+        </is>
+      </c>
+      <c r="G445" t="n">
+        <v>0</v>
+      </c>
+      <c r="H445" t="inlineStr"/>
+      <c r="I445" t="inlineStr"/>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
+      <c r="L445" t="inlineStr"/>
+      <c r="M445" t="inlineStr"/>
+      <c r="N445" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>BRAI.L</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>GB00B7W0XJ61</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>BLACKROCK AM.INC.TR. LS 1</t>
+        </is>
+      </c>
+      <c r="D446" t="n">
+        <v>0</v>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>xetra_ver</t>
+        </is>
+      </c>
+      <c r="G446" t="n">
+        <v>1</v>
+      </c>
+      <c r="H446" t="inlineStr"/>
+      <c r="I446" t="inlineStr"/>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
+      <c r="L446" t="inlineStr"/>
+      <c r="M446" t="inlineStr"/>
+      <c r="N446" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr"/>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>PLVGUAR00011</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>DEVORAN SA        ZY -,1</t>
+        </is>
+      </c>
+      <c r="D447" t="n">
+        <v>0</v>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>xetra_ver</t>
+        </is>
+      </c>
+      <c r="G447" t="n">
+        <v>0</v>
+      </c>
+      <c r="H447" t="inlineStr"/>
+      <c r="I447" t="inlineStr"/>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
+      <c r="L447" t="inlineStr"/>
+      <c r="M447" t="inlineStr"/>
+      <c r="N447" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr"/>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>GB00BYWLRL80</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>NEO ENERGY METALS LS,0001</t>
+        </is>
+      </c>
+      <c r="D448" t="n">
+        <v>0</v>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>xetra_ver</t>
+        </is>
+      </c>
+      <c r="G448" t="n">
+        <v>0</v>
+      </c>
+      <c r="H448" t="inlineStr"/>
+      <c r="I448" t="inlineStr"/>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
+      <c r="L448" t="inlineStr"/>
+      <c r="M448" t="inlineStr"/>
+      <c r="N448" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr"/>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>SE0020357754</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>COEGIN PHARMA AB</t>
+        </is>
+      </c>
+      <c r="D449" t="n">
+        <v>0</v>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>xetra_ver</t>
+        </is>
+      </c>
+      <c r="G449" t="n">
+        <v>0</v>
+      </c>
+      <c r="H449" t="inlineStr"/>
+      <c r="I449" t="inlineStr"/>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
+      <c r="L449" t="inlineStr"/>
+      <c r="M449" t="inlineStr"/>
+      <c r="N449" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>KIO</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>US48249T1060</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>KKR INCOME OPP.FD DL-,001</t>
+        </is>
+      </c>
+      <c r="D450" t="n">
+        <v>0</v>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>xetra_ver</t>
+        </is>
+      </c>
+      <c r="G450" t="n">
+        <v>1</v>
+      </c>
+      <c r="H450" t="inlineStr"/>
+      <c r="I450" t="inlineStr"/>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
+      <c r="L450" t="inlineStr"/>
+      <c r="M450" t="inlineStr"/>
+      <c r="N450" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr"/>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>JP3646700009</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>NAKAYAMA FUDOUSAN CO.LTD</t>
+        </is>
+      </c>
+      <c r="D451" t="n">
+        <v>0</v>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>xetra_ver</t>
+        </is>
+      </c>
+      <c r="G451" t="n">
+        <v>0</v>
+      </c>
+      <c r="H451" t="inlineStr"/>
+      <c r="I451" t="inlineStr"/>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
+      <c r="L451" t="inlineStr"/>
+      <c r="M451" t="inlineStr"/>
+      <c r="N451" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr"/>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>DK0063631999</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>DANCANN PHARMA       DK 1</t>
+        </is>
+      </c>
+      <c r="D452" t="n">
+        <v>0</v>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>xetra_ver</t>
+        </is>
+      </c>
+      <c r="G452" t="n">
+        <v>0</v>
+      </c>
+      <c r="H452" t="inlineStr"/>
+      <c r="I452" t="inlineStr"/>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
+      <c r="L452" t="inlineStr"/>
+      <c r="M452" t="inlineStr"/>
+      <c r="N452" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr"/>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>FR001400XP40</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>BOLLORE SE NV010125 EO-16</t>
+        </is>
+      </c>
+      <c r="D453" t="n">
+        <v>0</v>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>xetra_ver</t>
+        </is>
+      </c>
+      <c r="G453" t="n">
+        <v>0</v>
+      </c>
+      <c r="H453" t="inlineStr"/>
+      <c r="I453" t="inlineStr"/>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
+      <c r="L453" t="inlineStr"/>
+      <c r="M453" t="inlineStr"/>
+      <c r="N453" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr"/>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>US78397C2098</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>SDIC POWER HLDG GDR REG S</t>
+        </is>
+      </c>
+      <c r="D454" t="n">
+        <v>0</v>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>xetra_ver</t>
+        </is>
+      </c>
+      <c r="G454" t="n">
+        <v>0</v>
+      </c>
+      <c r="H454" t="inlineStr"/>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
+      <c r="L454" t="inlineStr"/>
+      <c r="M454" t="inlineStr"/>
+      <c r="N454" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr"/>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>US48268G1004</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>KT+G CORP.(GDR144A)1/2</t>
+        </is>
+      </c>
+      <c r="D455" t="n">
+        <v>0</v>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>xetra_ver</t>
+        </is>
+      </c>
+      <c r="G455" t="n">
+        <v>0</v>
+      </c>
+      <c r="H455" t="inlineStr"/>
+      <c r="I455" t="inlineStr"/>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
+      <c r="L455" t="inlineStr"/>
+      <c r="M455" t="inlineStr"/>
+      <c r="N455" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>BTX</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>US09260Q1085</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>BR IN.+GR.TM TR</t>
+        </is>
+      </c>
+      <c r="D456" t="n">
+        <v>0</v>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>xetra_ver</t>
+        </is>
+      </c>
+      <c r="G456" t="n">
+        <v>1</v>
+      </c>
+      <c r="H456" t="inlineStr"/>
+      <c r="I456" t="inlineStr"/>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
+      <c r="L456" t="inlineStr"/>
+      <c r="M456" t="inlineStr"/>
+      <c r="N456" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr"/>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>US37891E2028</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>GLOBALWAFERS SP.GDR144A/1</t>
+        </is>
+      </c>
+      <c r="D457" t="n">
+        <v>0</v>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>xetra_ver</t>
+        </is>
+      </c>
+      <c r="G457" t="n">
+        <v>0</v>
+      </c>
+      <c r="H457" t="inlineStr"/>
+      <c r="I457" t="inlineStr"/>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
+      <c r="L457" t="inlineStr"/>
+      <c r="M457" t="inlineStr"/>
+      <c r="N457" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>GLD.JO</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>ZAE000060067</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>NEWGOLD ISSUER (RF) LTD.</t>
+        </is>
+      </c>
+      <c r="D458" t="n">
+        <v>0</v>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>xetra_ver</t>
+        </is>
+      </c>
+      <c r="G458" t="n">
+        <v>1</v>
+      </c>
+      <c r="H458" t="inlineStr"/>
+      <c r="I458" t="inlineStr"/>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
+      <c r="L458" t="inlineStr"/>
+      <c r="M458" t="inlineStr"/>
+      <c r="N458" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr"/>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>CA12570Q1072</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>CIE FIN.RICHE.CDR O.N.</t>
+        </is>
+      </c>
+      <c r="D459" t="n">
+        <v>0</v>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>xetra_ver</t>
+        </is>
+      </c>
+      <c r="G459" t="n">
+        <v>0</v>
+      </c>
+      <c r="H459" t="inlineStr"/>
+      <c r="I459" t="inlineStr"/>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
+      <c r="L459" t="inlineStr"/>
+      <c r="M459" t="inlineStr"/>
+      <c r="N459" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr"/>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>CA6699861010</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>NOVERTIS AG CDR O.N.</t>
+        </is>
+      </c>
+      <c r="D460" t="n">
+        <v>0</v>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>xetra_ver</t>
+        </is>
+      </c>
+      <c r="G460" t="n">
+        <v>0</v>
+      </c>
+      <c r="H460" t="inlineStr"/>
+      <c r="I460" t="inlineStr"/>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
+      <c r="L460" t="inlineStr"/>
+      <c r="M460" t="inlineStr"/>
+      <c r="N460" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr"/>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>US27616P3010</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>EASTERLY GOVT P. NEW O.N.</t>
+        </is>
+      </c>
+      <c r="D461" t="n">
+        <v>0</v>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>xetra_ver</t>
+        </is>
+      </c>
+      <c r="G461" t="n">
+        <v>0</v>
+      </c>
+      <c r="H461" t="inlineStr"/>
+      <c r="I461" t="inlineStr"/>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
+      <c r="L461" t="inlineStr"/>
+      <c r="M461" t="inlineStr"/>
+      <c r="N461" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr"/>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>US62955X3008</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>NAAS TECHN.SP.ADR/200 N25</t>
+        </is>
+      </c>
+      <c r="D462" t="n">
+        <v>0</v>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>xetra_ver</t>
+        </is>
+      </c>
+      <c r="G462" t="n">
+        <v>0</v>
+      </c>
+      <c r="H462" t="inlineStr"/>
+      <c r="I462" t="inlineStr"/>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
+      <c r="L462" t="inlineStr"/>
+      <c r="M462" t="inlineStr"/>
+      <c r="N462" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr"/>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>US98420X2027</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>X4 PHARMACEUTICALS NEW</t>
+        </is>
+      </c>
+      <c r="D463" t="n">
+        <v>0</v>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>xetra_ver</t>
+        </is>
+      </c>
+      <c r="G463" t="n">
+        <v>0</v>
+      </c>
+      <c r="H463" t="inlineStr"/>
+      <c r="I463" t="inlineStr"/>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
+      <c r="L463" t="inlineStr"/>
+      <c r="M463" t="inlineStr"/>
+      <c r="N463" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
